--- a/유료상점DATA_TW.xlsx
+++ b/유료상점DATA_TW.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26405"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26409"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://webzen.sharepoint.com/sites/R2M/Shared Documents/R2M전용도구/유료상점CL생성기/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="90" documentId="13_ncr:1_{DD6CDF46-F29E-4F77-8D95-FB470842B4F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F00FAB14-A5E8-4151-87CF-D7F3124CCFCC}"/>
+  <xr:revisionPtr revIDLastSave="111" documentId="13_ncr:1_{DD6CDF46-F29E-4F77-8D95-FB470842B4F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A134BF84-0864-4285-9B47-72294521561E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{6F2C3106-E9E5-4E5A-A43E-54D895F8835E}"/>
+    <workbookView xWindow="29580" yWindow="255" windowWidth="22440" windowHeight="14130" firstSheet="1" activeTab="1" xr2:uid="{6F2C3106-E9E5-4E5A-A43E-54D895F8835E}"/>
   </bookViews>
   <sheets>
     <sheet name="230418 패치" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="3월 이전" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'230411 업데이트'!$O$1:$W$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'230411 업데이트'!$O$1:$W$114</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'230418 패치'!$O$1:$W$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'3월 이전'!$O$1:$W$3</definedName>
   </definedNames>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="413">
   <si>
     <t>추가일자</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -234,10 +234,19 @@
     <t>빛나는 유피테르의 계약서[1시간]</t>
   </si>
   <si>
+    <t>뚱냥이의 최상급 패키지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>기존 상품</t>
   </si>
   <si>
+    <t>아타락시아 패키지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>유피테르 모래 모둠 패키지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>유피테르 모래 모둠 패키지 상자</t>
@@ -258,10 +267,19 @@
     <t>시간의 모래[하급] : 메테오스의 탑</t>
   </si>
   <si>
+    <t>스페셜 변신 뽑기 상자 패키지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>포인트 충전석 패키지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>신규 상품</t>
   </si>
   <si>
     <t>각인석 패키지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>각인석 패키지 상자</t>
@@ -280,6 +298,7 @@
   </si>
   <si>
     <t>숙련가의 최상급 패키지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>숙련가의 최상급 패키지 상자</t>
@@ -292,6 +311,7 @@
   </si>
   <si>
     <t>황천의 유물 도감 패키지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>황천의 유물 도감 패키지 상자</t>
@@ -317,6 +337,7 @@
   </si>
   <si>
     <t>특별한 변신 뽑기 10+1회</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>카드</t>
@@ -343,6 +364,7 @@
   </si>
   <si>
     <t>스페셜 매터리얼 뽑기 상자 패키지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>스페셜 매터리얼 뽑기 상자</t>
@@ -367,6 +389,7 @@
   </si>
   <si>
     <t>스킬 강화 패키지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>스킬 강화 패키지 상자</t>
@@ -522,6 +545,9 @@
   </si>
   <si>
     <t>매터리얼 스텝업 패키지 IV</t>
+  </si>
+  <si>
+    <t>숙련가의 최상급 패키지</t>
   </si>
   <si>
     <t>메테오스의 송곳니 도감 패키지</t>
@@ -3052,9 +3078,24 @@
     <xf numFmtId="10" fontId="13" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3067,21 +3108,6 @@
     <xf numFmtId="0" fontId="15" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="16" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4177,6 +4203,21 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="6" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4199,21 +4240,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="6" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4631,9 +4657,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE4EC88-B081-40F1-A7C6-DF23EA0F2F3E}">
   <dimension ref="A1:W24"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="L1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D113" sqref="D113"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4790,7 +4816,7 @@
       <c r="V2" s="635" t="s">
         <v>26</v>
       </c>
-      <c r="W2" s="251" t="s">
+      <c r="W2" s="246" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4833,7 +4859,7 @@
       <c r="T3" s="640"/>
       <c r="U3" s="639"/>
       <c r="V3" s="639"/>
-      <c r="W3" s="246"/>
+      <c r="W3" s="247"/>
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="214">
@@ -4868,7 +4894,7 @@
       <c r="T4" s="644"/>
       <c r="U4" s="643"/>
       <c r="V4" s="643"/>
-      <c r="W4" s="255"/>
+      <c r="W4" s="248"/>
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="214">
@@ -4877,7 +4903,7 @@
       <c r="B5" s="645">
         <v>1900013</v>
       </c>
-      <c r="C5" s="252" t="s">
+      <c r="C5" s="249" t="s">
         <v>31</v>
       </c>
       <c r="D5" s="239" t="s">
@@ -4937,7 +4963,7 @@
       <c r="V5" s="646" t="s">
         <v>34</v>
       </c>
-      <c r="W5" s="251" t="s">
+      <c r="W5" s="246" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4946,7 +4972,7 @@
         <v>45030</v>
       </c>
       <c r="B6" s="648"/>
-      <c r="C6" s="253"/>
+      <c r="C6" s="250"/>
       <c r="D6" s="239" t="s">
         <v>35</v>
       </c>
@@ -4974,14 +5000,14 @@
       <c r="T6" s="649"/>
       <c r="U6" s="649"/>
       <c r="V6" s="649"/>
-      <c r="W6" s="246"/>
+      <c r="W6" s="247"/>
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="214">
         <v>45030</v>
       </c>
       <c r="B7" s="648"/>
-      <c r="C7" s="253"/>
+      <c r="C7" s="250"/>
       <c r="D7" s="241" t="s">
         <v>29</v>
       </c>
@@ -5009,14 +5035,14 @@
       <c r="T7" s="649"/>
       <c r="U7" s="649"/>
       <c r="V7" s="649"/>
-      <c r="W7" s="246"/>
+      <c r="W7" s="247"/>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="214">
         <v>45030</v>
       </c>
       <c r="B8" s="650"/>
-      <c r="C8" s="254"/>
+      <c r="C8" s="251"/>
       <c r="D8" s="242" t="s">
         <v>36</v>
       </c>
@@ -5044,7 +5070,7 @@
       <c r="T8" s="651"/>
       <c r="U8" s="651"/>
       <c r="V8" s="651"/>
-      <c r="W8" s="247"/>
+      <c r="W8" s="252"/>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" s="214">
@@ -5113,7 +5139,7 @@
       <c r="V9" s="635" t="s">
         <v>40</v>
       </c>
-      <c r="W9" s="246" t="s">
+      <c r="W9" s="247" t="s">
         <v>27</v>
       </c>
     </row>
@@ -5150,7 +5176,7 @@
       <c r="T10" s="639"/>
       <c r="U10" s="639"/>
       <c r="V10" s="639"/>
-      <c r="W10" s="246"/>
+      <c r="W10" s="247"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="214">
@@ -5185,7 +5211,7 @@
       <c r="T11" s="639"/>
       <c r="U11" s="639"/>
       <c r="V11" s="639"/>
-      <c r="W11" s="246"/>
+      <c r="W11" s="247"/>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="214">
@@ -5220,7 +5246,7 @@
       <c r="T12" s="639"/>
       <c r="U12" s="639"/>
       <c r="V12" s="639"/>
-      <c r="W12" s="246"/>
+      <c r="W12" s="247"/>
     </row>
     <row r="13" spans="1:23">
       <c r="A13" s="214">
@@ -5255,7 +5281,7 @@
       <c r="T13" s="639"/>
       <c r="U13" s="639"/>
       <c r="V13" s="639"/>
-      <c r="W13" s="246"/>
+      <c r="W13" s="247"/>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" s="214">
@@ -5290,7 +5316,7 @@
       <c r="T14" s="639"/>
       <c r="U14" s="639"/>
       <c r="V14" s="639"/>
-      <c r="W14" s="246"/>
+      <c r="W14" s="247"/>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="214">
@@ -5325,7 +5351,7 @@
       <c r="T15" s="655"/>
       <c r="U15" s="655"/>
       <c r="V15" s="655"/>
-      <c r="W15" s="247"/>
+      <c r="W15" s="252"/>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="214">
@@ -5394,7 +5420,7 @@
       <c r="V16" s="646" t="s">
         <v>51</v>
       </c>
-      <c r="W16" s="246" t="s">
+      <c r="W16" s="247" t="s">
         <v>27</v>
       </c>
     </row>
@@ -5429,7 +5455,7 @@
       <c r="T17" s="649"/>
       <c r="U17" s="649"/>
       <c r="V17" s="649"/>
-      <c r="W17" s="246"/>
+      <c r="W17" s="247"/>
     </row>
     <row r="18" spans="1:23">
       <c r="A18" s="214">
@@ -5462,7 +5488,7 @@
       <c r="T18" s="649"/>
       <c r="U18" s="649"/>
       <c r="V18" s="649"/>
-      <c r="W18" s="246"/>
+      <c r="W18" s="247"/>
     </row>
     <row r="19" spans="1:23">
       <c r="A19" s="214">
@@ -5495,7 +5521,7 @@
       <c r="T19" s="651"/>
       <c r="U19" s="651"/>
       <c r="V19" s="651"/>
-      <c r="W19" s="247"/>
+      <c r="W19" s="252"/>
     </row>
     <row r="20" spans="1:23">
       <c r="A20" s="214">
@@ -5504,10 +5530,10 @@
       <c r="B20" s="638">
         <v>1400068</v>
       </c>
-      <c r="C20" s="248" t="s">
+      <c r="C20" s="253" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="248" t="s">
+      <c r="D20" s="253" t="s">
         <v>56</v>
       </c>
       <c r="E20" s="639">
@@ -5564,7 +5590,7 @@
       <c r="V20" s="639" t="s">
         <v>59</v>
       </c>
-      <c r="W20" s="250" t="s">
+      <c r="W20" s="255" t="s">
         <v>27</v>
       </c>
     </row>
@@ -5573,8 +5599,8 @@
         <v>45030</v>
       </c>
       <c r="B21" s="638"/>
-      <c r="C21" s="248"/>
-      <c r="D21" s="248"/>
+      <c r="C21" s="253"/>
+      <c r="D21" s="253"/>
       <c r="E21" s="639"/>
       <c r="F21" s="639"/>
       <c r="G21" s="234" t="s">
@@ -5601,15 +5627,15 @@
       <c r="T21" s="639"/>
       <c r="U21" s="639"/>
       <c r="V21" s="639"/>
-      <c r="W21" s="246"/>
+      <c r="W21" s="247"/>
     </row>
     <row r="22" spans="1:23">
       <c r="A22" s="214">
         <v>45030</v>
       </c>
       <c r="B22" s="638"/>
-      <c r="C22" s="248"/>
-      <c r="D22" s="248"/>
+      <c r="C22" s="253"/>
+      <c r="D22" s="253"/>
       <c r="E22" s="639"/>
       <c r="F22" s="639"/>
       <c r="G22" s="234" t="s">
@@ -5636,15 +5662,15 @@
       <c r="T22" s="639"/>
       <c r="U22" s="639"/>
       <c r="V22" s="639"/>
-      <c r="W22" s="246"/>
+      <c r="W22" s="247"/>
     </row>
     <row r="23" spans="1:23">
       <c r="A23" s="214">
         <v>45030</v>
       </c>
       <c r="B23" s="638"/>
-      <c r="C23" s="248"/>
-      <c r="D23" s="248"/>
+      <c r="C23" s="253"/>
+      <c r="D23" s="253"/>
       <c r="E23" s="639"/>
       <c r="F23" s="639"/>
       <c r="G23" s="234" t="s">
@@ -5671,15 +5697,15 @@
       <c r="T23" s="639"/>
       <c r="U23" s="639"/>
       <c r="V23" s="639"/>
-      <c r="W23" s="246"/>
+      <c r="W23" s="247"/>
     </row>
     <row r="24" spans="1:23">
       <c r="A24" s="214">
         <v>45030</v>
       </c>
       <c r="B24" s="654"/>
-      <c r="C24" s="249"/>
-      <c r="D24" s="249"/>
+      <c r="C24" s="254"/>
+      <c r="D24" s="254"/>
       <c r="E24" s="655"/>
       <c r="F24" s="655"/>
       <c r="G24" s="238" t="s">
@@ -5706,7 +5732,7 @@
       <c r="T24" s="655"/>
       <c r="U24" s="655"/>
       <c r="V24" s="655"/>
-      <c r="W24" s="247"/>
+      <c r="W24" s="252"/>
     </row>
   </sheetData>
   <autoFilter ref="O1:W1" xr:uid="{82D20060-79FF-4B4B-8A48-37E7EFA33778}"/>
@@ -5736,11 +5762,6 @@
     <mergeCell ref="T16:T19"/>
     <mergeCell ref="U16:U19"/>
     <mergeCell ref="V16:V19"/>
-    <mergeCell ref="K16:K19"/>
-    <mergeCell ref="L16:L19"/>
-    <mergeCell ref="M16:M19"/>
-    <mergeCell ref="N16:N19"/>
-    <mergeCell ref="O16:O19"/>
     <mergeCell ref="P16:P19"/>
     <mergeCell ref="B16:B19"/>
     <mergeCell ref="C16:C19"/>
@@ -5748,11 +5769,11 @@
     <mergeCell ref="E16:E19"/>
     <mergeCell ref="F16:F19"/>
     <mergeCell ref="J16:J19"/>
-    <mergeCell ref="R9:R15"/>
-    <mergeCell ref="S9:S15"/>
-    <mergeCell ref="T9:T15"/>
-    <mergeCell ref="U9:U15"/>
-    <mergeCell ref="V9:V15"/>
+    <mergeCell ref="K16:K19"/>
+    <mergeCell ref="L16:L19"/>
+    <mergeCell ref="M16:M19"/>
+    <mergeCell ref="N16:N19"/>
+    <mergeCell ref="O16:O19"/>
     <mergeCell ref="W9:W15"/>
     <mergeCell ref="H9:H15"/>
     <mergeCell ref="I9:I15"/>
@@ -5760,6 +5781,11 @@
     <mergeCell ref="O9:O15"/>
     <mergeCell ref="P9:P15"/>
     <mergeCell ref="Q9:Q15"/>
+    <mergeCell ref="R9:R15"/>
+    <mergeCell ref="S9:S15"/>
+    <mergeCell ref="T9:T15"/>
+    <mergeCell ref="U9:U15"/>
+    <mergeCell ref="V9:V15"/>
     <mergeCell ref="B9:B15"/>
     <mergeCell ref="C9:C15"/>
     <mergeCell ref="D9:D15"/>
@@ -5770,6 +5796,7 @@
     <mergeCell ref="S5:S8"/>
     <mergeCell ref="T5:T8"/>
     <mergeCell ref="U5:U8"/>
+    <mergeCell ref="K5:K8"/>
     <mergeCell ref="V5:V8"/>
     <mergeCell ref="W5:W8"/>
     <mergeCell ref="L5:L8"/>
@@ -5783,7 +5810,6 @@
     <mergeCell ref="G5:G8"/>
     <mergeCell ref="H5:H8"/>
     <mergeCell ref="I5:I8"/>
-    <mergeCell ref="K5:K8"/>
     <mergeCell ref="U2:U4"/>
     <mergeCell ref="V2:V4"/>
     <mergeCell ref="W2:W4"/>
@@ -5796,12 +5822,12 @@
     <mergeCell ref="R2:R4"/>
     <mergeCell ref="S2:S4"/>
     <mergeCell ref="T2:T4"/>
+    <mergeCell ref="N2:N4"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="K2:K4"/>
     <mergeCell ref="L2:L4"/>
     <mergeCell ref="M2:M4"/>
-    <mergeCell ref="N2:N4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5815,8 +5841,8 @@
   <dimension ref="A1:W114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A115" sqref="A115:XFD137"/>
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P71" sqref="P71:P80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5914,7 +5940,7 @@
         <v>1400044</v>
       </c>
       <c r="C2" s="271" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="D2" s="155" t="s">
         <v>20</v>
@@ -5962,7 +5988,7 @@
         <v>26</v>
       </c>
       <c r="W2" s="295" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -6045,7 +6071,7 @@
         <v>1900013</v>
       </c>
       <c r="C5" s="452" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="D5" s="151" t="s">
         <v>20</v>
@@ -6067,7 +6093,9 @@
       <c r="O5" s="274" t="s">
         <v>32</v>
       </c>
-      <c r="P5" s="274"/>
+      <c r="P5" s="274">
+        <v>0</v>
+      </c>
       <c r="Q5" s="277" t="s">
         <v>24</v>
       </c>
@@ -6085,7 +6113,7 @@
         <v>34</v>
       </c>
       <c r="W5" s="408" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -6195,10 +6223,10 @@
         <v>1400070</v>
       </c>
       <c r="C9" s="433" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D9" s="427" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E9" s="436">
         <v>5450114</v>
@@ -6236,14 +6264,14 @@
         <v>45034</v>
       </c>
       <c r="T9" s="443" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="U9" s="446"/>
       <c r="V9" s="449" t="s">
         <v>51</v>
       </c>
       <c r="W9" s="440" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -6256,7 +6284,7 @@
       <c r="E10" s="437"/>
       <c r="F10" s="437"/>
       <c r="G10" s="175" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H10" s="148">
         <v>450</v>
@@ -6289,7 +6317,7 @@
       <c r="E11" s="437"/>
       <c r="F11" s="437"/>
       <c r="G11" s="175" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H11" s="148">
         <v>451</v>
@@ -6322,7 +6350,7 @@
       <c r="E12" s="438"/>
       <c r="F12" s="438"/>
       <c r="G12" s="156" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H12" s="148">
         <v>452</v>
@@ -6355,7 +6383,7 @@
       <c r="E13" s="439"/>
       <c r="F13" s="439"/>
       <c r="G13" s="157" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H13" s="158">
         <v>454</v>
@@ -6386,7 +6414,7 @@
         <v>1400065</v>
       </c>
       <c r="C14" s="274" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="D14" s="274"/>
       <c r="E14" s="315"/>
@@ -6438,7 +6466,7 @@
         <v>40</v>
       </c>
       <c r="W14" s="408" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -6659,7 +6687,7 @@
         <v>1400078</v>
       </c>
       <c r="C21" s="265" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="D21" s="265" t="s">
         <v>48</v>
@@ -6709,7 +6737,7 @@
         <v>51</v>
       </c>
       <c r="W21" s="394" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -6819,10 +6847,10 @@
         <v>1400069</v>
       </c>
       <c r="C25" s="274" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D25" s="274" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E25" s="274">
         <v>5450113</v>
@@ -6831,7 +6859,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="151" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H25" s="151">
         <v>701</v>
@@ -6860,16 +6888,16 @@
         <v>45034</v>
       </c>
       <c r="T25" s="280" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="U25" s="303">
         <v>120</v>
       </c>
       <c r="V25" s="306" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="W25" s="408" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -6882,7 +6910,7 @@
       <c r="E26" s="276"/>
       <c r="F26" s="276"/>
       <c r="G26" s="153" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H26" s="154">
         <v>700</v>
@@ -6913,7 +6941,7 @@
         <v>1400067</v>
       </c>
       <c r="C27" s="265" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D27" s="146" t="s">
         <v>20</v>
@@ -6961,7 +6989,7 @@
         <v>26</v>
       </c>
       <c r="W27" s="399" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -6971,7 +6999,7 @@
       <c r="B28" s="398"/>
       <c r="C28" s="266"/>
       <c r="D28" s="272" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E28" s="272">
         <v>5450111</v>
@@ -6980,7 +7008,7 @@
         <v>1</v>
       </c>
       <c r="G28" s="148" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H28" s="148">
         <v>5200001</v>
@@ -7013,7 +7041,7 @@
       <c r="E29" s="273"/>
       <c r="F29" s="273"/>
       <c r="G29" s="158" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H29" s="158">
         <v>5200002</v>
@@ -7044,10 +7072,10 @@
         <v>1400050</v>
       </c>
       <c r="C30" s="274" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D30" s="344" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E30" s="330">
         <v>5450091</v>
@@ -7056,7 +7084,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="151" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H30" s="151">
         <v>1010007</v>
@@ -7092,7 +7120,7 @@
         <v>34</v>
       </c>
       <c r="W30" s="374" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -7161,7 +7189,7 @@
       <c r="V32" s="308"/>
       <c r="W32" s="376"/>
     </row>
-    <row r="33" spans="1:23" ht="63.75">
+    <row r="33" spans="1:23" ht="60">
       <c r="A33" s="212">
         <v>45015</v>
       </c>
@@ -7169,7 +7197,7 @@
         <v>1800027</v>
       </c>
       <c r="C33" s="144" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D33" s="144"/>
       <c r="E33" s="188"/>
@@ -7185,9 +7213,11 @@
       <c r="M33" s="147"/>
       <c r="N33" s="145"/>
       <c r="O33" s="144" t="s">
-        <v>86</v>
-      </c>
-      <c r="P33" s="144"/>
+        <v>90</v>
+      </c>
+      <c r="P33" s="144">
+        <v>0</v>
+      </c>
       <c r="Q33" s="184" t="s">
         <v>24</v>
       </c>
@@ -7204,10 +7234,10 @@
         <v>80</v>
       </c>
       <c r="V33" s="183" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="W33" s="191" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -7218,13 +7248,13 @@
         <v>1400077</v>
       </c>
       <c r="C34" s="330" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D34" s="330"/>
       <c r="E34" s="415"/>
       <c r="F34" s="330"/>
       <c r="G34" s="330" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="H34" s="330">
         <v>5450120</v>
@@ -7234,7 +7264,7 @@
       </c>
       <c r="J34" s="151"/>
       <c r="K34" s="151" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L34" s="151">
         <v>5200001</v>
@@ -7270,7 +7300,7 @@
         <v>40</v>
       </c>
       <c r="W34" s="374" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -7287,7 +7317,7 @@
       <c r="I35" s="328"/>
       <c r="J35" s="152"/>
       <c r="K35" s="152" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="L35" s="152">
         <v>5200002</v>
@@ -7322,7 +7352,7 @@
       <c r="I36" s="328"/>
       <c r="J36" s="152"/>
       <c r="K36" s="152" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L36" s="152">
         <v>5200003</v>
@@ -7357,7 +7387,7 @@
       <c r="I37" s="328"/>
       <c r="J37" s="152"/>
       <c r="K37" s="152" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="L37" s="152">
         <v>5210001</v>
@@ -7392,7 +7422,7 @@
       <c r="I38" s="328"/>
       <c r="J38" s="152"/>
       <c r="K38" s="152" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="L38" s="152">
         <v>5210002</v>
@@ -7427,7 +7457,7 @@
       <c r="I39" s="328"/>
       <c r="J39" s="152"/>
       <c r="K39" s="152" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="L39" s="152">
         <v>5030007</v>
@@ -7462,7 +7492,7 @@
       <c r="I40" s="328"/>
       <c r="J40" s="152"/>
       <c r="K40" s="152" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="L40" s="152">
         <v>5210003</v>
@@ -7497,7 +7527,7 @@
       <c r="I41" s="329"/>
       <c r="J41" s="154"/>
       <c r="K41" s="154" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="L41" s="154">
         <v>5220004</v>
@@ -7526,13 +7556,13 @@
         <v>1400066</v>
       </c>
       <c r="C42" s="321" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D42" s="321"/>
       <c r="E42" s="271"/>
       <c r="F42" s="271"/>
       <c r="G42" s="265" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H42" s="265">
         <v>5450110</v>
@@ -7542,7 +7572,7 @@
       </c>
       <c r="J42" s="146"/>
       <c r="K42" s="146" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="L42" s="146">
         <v>350</v>
@@ -7569,16 +7599,16 @@
         <v>45041</v>
       </c>
       <c r="T42" s="356" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="U42" s="358">
         <v>120</v>
       </c>
       <c r="V42" s="360" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="W42" s="399" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -7595,7 +7625,7 @@
       <c r="I43" s="273"/>
       <c r="J43" s="158"/>
       <c r="K43" s="158" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="L43" s="158">
         <v>351</v>
@@ -7656,7 +7686,7 @@
         <v>212</v>
       </c>
       <c r="Q44" s="277" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="R44" s="277">
         <v>45041</v>
@@ -7672,7 +7702,7 @@
         <v>26</v>
       </c>
       <c r="W44" s="408" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -7777,7 +7807,9 @@
       <c r="O47" s="265" t="s">
         <v>32</v>
       </c>
-      <c r="P47" s="265"/>
+      <c r="P47" s="265">
+        <v>0</v>
+      </c>
       <c r="Q47" s="354" t="s">
         <v>24</v>
       </c>
@@ -7795,7 +7827,7 @@
         <v>34</v>
       </c>
       <c r="W47" s="399" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -7905,13 +7937,13 @@
         <v>1400079</v>
       </c>
       <c r="C51" s="312" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D51" s="274"/>
       <c r="E51" s="315"/>
       <c r="F51" s="274"/>
       <c r="G51" s="312" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H51" s="318">
         <v>5450122</v>
@@ -7921,7 +7953,7 @@
       </c>
       <c r="J51" s="150"/>
       <c r="K51" s="160" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="L51" s="151">
         <v>3800</v>
@@ -7948,16 +7980,16 @@
         <v>45048</v>
       </c>
       <c r="T51" s="280" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="U51" s="303">
         <v>100</v>
       </c>
       <c r="V51" s="306" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="W51" s="256" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -7974,7 +8006,7 @@
       <c r="I52" s="275"/>
       <c r="J52" s="218"/>
       <c r="K52" s="163" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="L52" s="152">
         <v>3800</v>
@@ -8009,7 +8041,7 @@
       <c r="I53" s="275"/>
       <c r="J53" s="218"/>
       <c r="K53" s="163" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="L53" s="152">
         <v>3800</v>
@@ -8044,7 +8076,7 @@
       <c r="I54" s="275"/>
       <c r="J54" s="218"/>
       <c r="K54" s="163" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="L54" s="152">
         <v>3021</v>
@@ -8079,7 +8111,7 @@
       <c r="I55" s="275"/>
       <c r="J55" s="218"/>
       <c r="K55" s="163" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="L55" s="152">
         <v>3041</v>
@@ -8114,7 +8146,7 @@
       <c r="I56" s="275"/>
       <c r="J56" s="218"/>
       <c r="K56" s="163" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="L56" s="152">
         <v>3011</v>
@@ -8149,7 +8181,7 @@
       <c r="I57" s="275"/>
       <c r="J57" s="218"/>
       <c r="K57" s="163" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="L57" s="152">
         <v>3031</v>
@@ -8184,7 +8216,7 @@
       <c r="I58" s="275"/>
       <c r="J58" s="218"/>
       <c r="K58" s="163" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="L58" s="152">
         <v>3001</v>
@@ -8219,7 +8251,7 @@
       <c r="I59" s="275"/>
       <c r="J59" s="218"/>
       <c r="K59" s="163" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="L59" s="152">
         <v>3022</v>
@@ -8254,7 +8286,7 @@
       <c r="I60" s="275"/>
       <c r="J60" s="218"/>
       <c r="K60" s="163" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="L60" s="152">
         <v>3042</v>
@@ -8289,7 +8321,7 @@
       <c r="I61" s="275"/>
       <c r="J61" s="218"/>
       <c r="K61" s="163" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="L61" s="152">
         <v>3012</v>
@@ -8324,7 +8356,7 @@
       <c r="I62" s="275"/>
       <c r="J62" s="218"/>
       <c r="K62" s="163" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="L62" s="152">
         <v>3032</v>
@@ -8359,7 +8391,7 @@
       <c r="I63" s="275"/>
       <c r="J63" s="218"/>
       <c r="K63" s="163" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="L63" s="152">
         <v>3002</v>
@@ -8394,7 +8426,7 @@
       <c r="I64" s="275"/>
       <c r="J64" s="218"/>
       <c r="K64" s="163" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="L64" s="152">
         <v>3100</v>
@@ -8429,7 +8461,7 @@
       <c r="I65" s="275"/>
       <c r="J65" s="218"/>
       <c r="K65" s="163" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L65" s="152">
         <v>5000083</v>
@@ -8464,7 +8496,7 @@
       <c r="I66" s="275"/>
       <c r="J66" s="218"/>
       <c r="K66" s="163" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="L66" s="152">
         <v>3200</v>
@@ -8499,7 +8531,7 @@
       <c r="I67" s="275"/>
       <c r="J67" s="218"/>
       <c r="K67" s="163" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="L67" s="152">
         <v>3441</v>
@@ -8534,7 +8566,7 @@
       <c r="I68" s="275"/>
       <c r="J68" s="218"/>
       <c r="K68" s="163" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="L68" s="152">
         <v>3442</v>
@@ -8569,7 +8601,7 @@
       <c r="I69" s="275"/>
       <c r="J69" s="218"/>
       <c r="K69" s="163" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="L69" s="152">
         <v>3443</v>
@@ -8604,7 +8636,7 @@
       <c r="I70" s="276"/>
       <c r="J70" s="153"/>
       <c r="K70" s="165" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="L70" s="154">
         <v>3446</v>
@@ -8633,13 +8665,13 @@
         <v>1400080</v>
       </c>
       <c r="C71" s="312" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D71" s="265"/>
       <c r="E71" s="389"/>
       <c r="F71" s="265"/>
       <c r="G71" s="312" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H71" s="318">
         <v>5450123</v>
@@ -8649,7 +8681,7 @@
       </c>
       <c r="J71" s="144"/>
       <c r="K71" s="177" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="L71" s="146">
         <v>2600</v>
@@ -8676,16 +8708,16 @@
         <v>45048</v>
       </c>
       <c r="T71" s="356" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="U71" s="358">
         <v>40</v>
       </c>
       <c r="V71" s="360" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="W71" s="394" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -8702,7 +8734,7 @@
       <c r="I72" s="266"/>
       <c r="J72" s="217"/>
       <c r="K72" s="181" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="L72" s="148">
         <v>2601</v>
@@ -8737,7 +8769,7 @@
       <c r="I73" s="266"/>
       <c r="J73" s="217"/>
       <c r="K73" s="181" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="L73" s="148">
         <v>2602</v>
@@ -8772,7 +8804,7 @@
       <c r="I74" s="266"/>
       <c r="J74" s="217"/>
       <c r="K74" s="181" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="L74" s="148">
         <v>2603</v>
@@ -8807,7 +8839,7 @@
       <c r="I75" s="266"/>
       <c r="J75" s="217"/>
       <c r="K75" s="181" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="L75" s="148">
         <v>2610</v>
@@ -8842,7 +8874,7 @@
       <c r="I76" s="266"/>
       <c r="J76" s="217"/>
       <c r="K76" s="181" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="L76" s="148">
         <v>2611</v>
@@ -8877,7 +8909,7 @@
       <c r="I77" s="266"/>
       <c r="J77" s="217"/>
       <c r="K77" s="181" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="L77" s="148">
         <v>2612</v>
@@ -8912,7 +8944,7 @@
       <c r="I78" s="266"/>
       <c r="J78" s="217"/>
       <c r="K78" s="181" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="L78" s="148">
         <v>2613</v>
@@ -8947,7 +8979,7 @@
       <c r="I79" s="266"/>
       <c r="J79" s="217"/>
       <c r="K79" s="181" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="L79" s="148">
         <v>2500</v>
@@ -8982,7 +9014,7 @@
       <c r="I80" s="267"/>
       <c r="J80" s="179"/>
       <c r="K80" s="182" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="L80" s="158">
         <v>2510</v>
@@ -9011,7 +9043,7 @@
         <v>1400072</v>
       </c>
       <c r="C81" s="344" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D81" s="344"/>
       <c r="E81" s="330">
@@ -9021,7 +9053,7 @@
         <v>1</v>
       </c>
       <c r="G81" s="151" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H81" s="151">
         <v>1100301</v>
@@ -9059,7 +9091,7 @@
         <v>34</v>
       </c>
       <c r="W81" s="374" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -9072,7 +9104,7 @@
       <c r="E82" s="347"/>
       <c r="F82" s="347"/>
       <c r="G82" s="161" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H82" s="152">
         <v>5200001</v>
@@ -9105,7 +9137,7 @@
       <c r="E83" s="347"/>
       <c r="F83" s="347"/>
       <c r="G83" s="161" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H83" s="152">
         <v>2903</v>
@@ -9138,7 +9170,7 @@
       <c r="E84" s="329"/>
       <c r="F84" s="329"/>
       <c r="G84" s="154" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H84" s="154">
         <v>7201</v>
@@ -9169,7 +9201,7 @@
         <v>1400073</v>
       </c>
       <c r="C85" s="174" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D85" s="174"/>
       <c r="E85" s="174">
@@ -9179,7 +9211,7 @@
         <v>1</v>
       </c>
       <c r="G85" s="174" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H85" s="174">
         <v>5000082</v>
@@ -9208,14 +9240,14 @@
         <v>45048</v>
       </c>
       <c r="T85" s="204" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="U85" s="205"/>
       <c r="V85" s="185" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="W85" s="206" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -9226,7 +9258,7 @@
         <v>1400074</v>
       </c>
       <c r="C86" s="344" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D86" s="344"/>
       <c r="E86" s="330">
@@ -9236,7 +9268,7 @@
         <v>1</v>
       </c>
       <c r="G86" s="151" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H86" s="151">
         <v>1100301</v>
@@ -9274,7 +9306,7 @@
         <v>34</v>
       </c>
       <c r="W86" s="374" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -9287,7 +9319,7 @@
       <c r="E87" s="347"/>
       <c r="F87" s="347"/>
       <c r="G87" s="161" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H87" s="152">
         <v>5200002</v>
@@ -9320,7 +9352,7 @@
       <c r="E88" s="347"/>
       <c r="F88" s="347"/>
       <c r="G88" s="161" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H88" s="152">
         <v>2903</v>
@@ -9353,7 +9385,7 @@
       <c r="E89" s="329"/>
       <c r="F89" s="329"/>
       <c r="G89" s="154" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="H89" s="154">
         <v>7202</v>
@@ -9384,7 +9416,7 @@
         <v>1400075</v>
       </c>
       <c r="C90" s="174" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D90" s="174"/>
       <c r="E90" s="174">
@@ -9394,7 +9426,7 @@
         <v>1</v>
       </c>
       <c r="G90" s="174" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H90" s="174">
         <v>5000082</v>
@@ -9423,14 +9455,14 @@
         <v>45048</v>
       </c>
       <c r="T90" s="204" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="U90" s="205"/>
       <c r="V90" s="185" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="W90" s="206" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -9441,7 +9473,7 @@
         <v>1400076</v>
       </c>
       <c r="C91" s="344" t="s">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="D91" s="151" t="s">
         <v>20</v>
@@ -9489,7 +9521,7 @@
         <v>26</v>
       </c>
       <c r="W91" s="374" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -9499,7 +9531,7 @@
       <c r="B92" s="362"/>
       <c r="C92" s="363"/>
       <c r="D92" s="328" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E92" s="328">
         <v>5450111</v>
@@ -9508,7 +9540,7 @@
         <v>1</v>
       </c>
       <c r="G92" s="152" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H92" s="152">
         <v>5200001</v>
@@ -9541,7 +9573,7 @@
       <c r="E93" s="329"/>
       <c r="F93" s="329"/>
       <c r="G93" s="154" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H93" s="154">
         <v>5200002</v>
@@ -9572,10 +9604,10 @@
         <v>1400081</v>
       </c>
       <c r="C94" s="265" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D94" s="321" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="E94" s="324">
         <v>5450124</v>
@@ -9584,7 +9616,7 @@
         <v>1</v>
       </c>
       <c r="G94" s="146" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="H94" s="146">
         <v>1020042</v>
@@ -9620,7 +9652,7 @@
         <v>34</v>
       </c>
       <c r="W94" s="351" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -9697,13 +9729,13 @@
         <v>1400082</v>
       </c>
       <c r="C97" s="312" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D97" s="274"/>
       <c r="E97" s="315"/>
       <c r="F97" s="274"/>
       <c r="G97" s="312" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="H97" s="318">
         <v>5450125</v>
@@ -9713,7 +9745,7 @@
       </c>
       <c r="J97" s="150"/>
       <c r="K97" s="160" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="L97" s="151">
         <v>300</v>
@@ -9746,10 +9778,10 @@
         <v>80</v>
       </c>
       <c r="V97" s="306" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="W97" s="256" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -9766,7 +9798,7 @@
       <c r="I98" s="275"/>
       <c r="J98" s="218"/>
       <c r="K98" s="163" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="L98" s="152">
         <v>310</v>
@@ -9801,7 +9833,7 @@
       <c r="I99" s="275"/>
       <c r="J99" s="218"/>
       <c r="K99" s="163" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="L99" s="152">
         <v>320</v>
@@ -9836,7 +9868,7 @@
       <c r="I100" s="275"/>
       <c r="J100" s="218"/>
       <c r="K100" s="163" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="L100" s="152">
         <v>600</v>
@@ -9871,7 +9903,7 @@
       <c r="I101" s="275"/>
       <c r="J101" s="218"/>
       <c r="K101" s="163" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="L101" s="152">
         <v>301</v>
@@ -9906,7 +9938,7 @@
       <c r="I102" s="275"/>
       <c r="J102" s="218"/>
       <c r="K102" s="163" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L102" s="152">
         <v>311</v>
@@ -9941,7 +9973,7 @@
       <c r="I103" s="275"/>
       <c r="J103" s="218"/>
       <c r="K103" s="163" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="L103" s="152">
         <v>321</v>
@@ -9976,7 +10008,7 @@
       <c r="I104" s="275"/>
       <c r="J104" s="218"/>
       <c r="K104" s="163" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="L104" s="152">
         <v>601</v>
@@ -10011,7 +10043,7 @@
       <c r="I105" s="275"/>
       <c r="J105" s="218"/>
       <c r="K105" s="163" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="L105" s="152">
         <v>302</v>
@@ -10046,7 +10078,7 @@
       <c r="I106" s="275"/>
       <c r="J106" s="218"/>
       <c r="K106" s="163" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L106" s="152">
         <v>312</v>
@@ -10081,7 +10113,7 @@
       <c r="I107" s="275"/>
       <c r="J107" s="218"/>
       <c r="K107" s="163" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="L107" s="152">
         <v>322</v>
@@ -10116,7 +10148,7 @@
       <c r="I108" s="276"/>
       <c r="J108" s="153"/>
       <c r="K108" s="165" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="L108" s="154">
         <v>602</v>
@@ -10145,10 +10177,10 @@
         <v>1400071</v>
       </c>
       <c r="C109" s="262" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D109" s="262" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="E109" s="265">
         <v>5450115</v>
@@ -10195,7 +10227,7 @@
         <v>51</v>
       </c>
       <c r="W109" s="295" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -10241,7 +10273,7 @@
       <c r="E111" s="266"/>
       <c r="F111" s="266"/>
       <c r="G111" s="148" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="H111" s="148">
         <v>5010007</v>
@@ -10274,7 +10306,7 @@
       <c r="E112" s="266"/>
       <c r="F112" s="266"/>
       <c r="G112" s="148" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="H112" s="148">
         <v>5000076</v>
@@ -10338,10 +10370,10 @@
         <v>1400047</v>
       </c>
       <c r="C114" s="168" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D114" s="168" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E114" s="168">
         <v>5450088</v>
@@ -10350,7 +10382,7 @@
         <v>1</v>
       </c>
       <c r="G114" s="168" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="H114" s="168">
         <v>2910</v>
@@ -10385,14 +10417,14 @@
         <v>200</v>
       </c>
       <c r="V114" s="173" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="W114" s="211" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="O1:W1" xr:uid="{82D20060-79FF-4B4B-8A48-37E7EFA33778}"/>
+  <autoFilter ref="O1:W114" xr:uid="{82D20060-79FF-4B4B-8A48-37E7EFA33778}"/>
   <mergeCells count="354">
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
@@ -10856,10 +10888,10 @@
         <v>1400021</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E2" s="5">
         <v>5450035</v>
@@ -10868,7 +10900,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="H2" s="5">
         <v>5010002</v>
@@ -10882,7 +10914,7 @@
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="11" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="P2" s="12">
         <v>20</v>
@@ -10897,16 +10929,16 @@
         <v>44971</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="U2" s="16">
         <v>80</v>
       </c>
       <c r="V2" s="17" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="W2" s="18" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -10914,10 +10946,10 @@
         <v>1400054</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E3" s="8">
         <v>5450092</v>
@@ -10926,7 +10958,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="H3" s="8">
         <v>5010101</v>
@@ -10940,7 +10972,7 @@
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
       <c r="O3" s="19" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="P3" s="20">
         <v>19</v>
@@ -10955,14 +10987,14 @@
         <v>44971</v>
       </c>
       <c r="T3" s="23" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="U3" s="24"/>
       <c r="V3" s="25" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="W3" s="26" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -10972,7 +11004,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="9"/>
       <c r="G4" s="10" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="H4" s="8">
         <v>5010002</v>
@@ -11002,7 +11034,7 @@
       <c r="E5" s="8"/>
       <c r="F5" s="9"/>
       <c r="G5" s="10" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="H5" s="8">
         <v>2901</v>
@@ -11032,7 +11064,7 @@
       <c r="E6" s="8"/>
       <c r="F6" s="9"/>
       <c r="G6" s="10" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="H6" s="8">
         <v>600019</v>
@@ -11060,10 +11092,10 @@
         <v>1400026</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E7" s="5">
         <v>5450041</v>
@@ -11072,7 +11104,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="H7" s="5">
         <v>600019</v>
@@ -11086,7 +11118,7 @@
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="O7" s="11" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="P7" s="12">
         <v>21</v>
@@ -11101,16 +11133,16 @@
         <v>44971</v>
       </c>
       <c r="T7" s="15" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="U7" s="16">
         <v>30</v>
       </c>
       <c r="V7" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="W7" s="18" t="s">
         <v>183</v>
-      </c>
-      <c r="W7" s="18" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -11120,7 +11152,7 @@
       <c r="E8" s="5"/>
       <c r="F8" s="6"/>
       <c r="G8" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="H8" s="5">
         <v>600021</v>
@@ -11150,7 +11182,7 @@
       <c r="E9" s="5"/>
       <c r="F9" s="6"/>
       <c r="G9" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="H9" s="5">
         <v>600022</v>
@@ -11178,10 +11210,10 @@
         <v>1400038</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="E10" s="8">
         <v>5450080</v>
@@ -11190,7 +11222,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="H10" s="8">
         <v>450</v>
@@ -11204,7 +11236,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
       <c r="O10" s="19" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="P10" s="20">
         <v>22</v>
@@ -11219,16 +11251,16 @@
         <v>44971</v>
       </c>
       <c r="T10" s="23" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="U10" s="24">
         <v>30</v>
       </c>
       <c r="V10" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="W10" s="26" t="s">
         <v>183</v>
-      </c>
-      <c r="W10" s="26" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -11238,7 +11270,7 @@
       <c r="E11" s="8"/>
       <c r="F11" s="9"/>
       <c r="G11" s="10" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="H11" s="8">
         <v>451</v>
@@ -11268,7 +11300,7 @@
       <c r="E12" s="8"/>
       <c r="F12" s="9"/>
       <c r="G12" s="10" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="H12" s="8">
         <v>452</v>
@@ -11298,7 +11330,7 @@
       <c r="E13" s="8"/>
       <c r="F13" s="9"/>
       <c r="G13" s="10" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="H13" s="8">
         <v>454</v>
@@ -11328,7 +11360,7 @@
       <c r="E14" s="8"/>
       <c r="F14" s="9"/>
       <c r="G14" s="10" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="H14" s="8">
         <v>5000054</v>
@@ -11356,10 +11388,10 @@
         <v>1400044</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="E15" s="5">
         <v>980</v>
@@ -11376,13 +11408,13 @@
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="11" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="P15" s="12">
         <v>18</v>
       </c>
       <c r="Q15" s="13" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="R15" s="14">
         <v>44971</v>
@@ -11391,21 +11423,21 @@
         <v>44978</v>
       </c>
       <c r="T15" s="15" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="U15" s="16"/>
       <c r="V15" s="17" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="W15" s="18" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:23">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="E16" s="5">
         <v>5450086</v>
@@ -11414,7 +11446,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="H16" s="5">
         <v>5020002</v>
@@ -11444,7 +11476,7 @@
       <c r="E17" s="5"/>
       <c r="F17" s="6"/>
       <c r="G17" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="H17" s="5">
         <v>5020101</v>
@@ -11472,10 +11504,10 @@
         <v>1400055</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="E18" s="8">
         <v>5450093</v>
@@ -11484,7 +11516,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="H18" s="8">
         <v>701</v>
@@ -11498,7 +11530,7 @@
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
       <c r="O18" s="19" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="P18" s="20">
         <v>17</v>
@@ -11513,16 +11545,16 @@
         <v>44978</v>
       </c>
       <c r="T18" s="23" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="U18" s="24">
         <v>120</v>
       </c>
       <c r="V18" s="25" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="W18" s="26" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="2:23">
@@ -11532,7 +11564,7 @@
       <c r="E19" s="8"/>
       <c r="F19" s="9"/>
       <c r="G19" s="10" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="H19" s="8">
         <v>700</v>
@@ -11560,10 +11592,10 @@
         <v>1400042</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="E20" s="5">
         <v>5450094</v>
@@ -11572,7 +11604,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="H20" s="5">
         <v>5010002</v>
@@ -11586,13 +11618,13 @@
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
       <c r="O20" s="11" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="P20" s="12">
         <v>16</v>
       </c>
       <c r="Q20" s="13" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="R20" s="14">
         <v>44971</v>
@@ -11601,14 +11633,14 @@
         <v>44978</v>
       </c>
       <c r="T20" s="15" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="U20" s="16"/>
       <c r="V20" s="17" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="W20" s="18" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="2:23">
@@ -11618,7 +11650,7 @@
       <c r="E21" s="5"/>
       <c r="F21" s="6"/>
       <c r="G21" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="H21" s="5">
         <v>5020002</v>
@@ -11648,7 +11680,7 @@
       <c r="E22" s="5"/>
       <c r="F22" s="6"/>
       <c r="G22" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="H22" s="5">
         <v>1100003</v>
@@ -11678,7 +11710,7 @@
       <c r="E23" s="5"/>
       <c r="F23" s="6"/>
       <c r="G23" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="H23" s="5">
         <v>260</v>
@@ -11708,7 +11740,7 @@
       <c r="E24" s="5"/>
       <c r="F24" s="6"/>
       <c r="G24" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H24" s="5">
         <v>270</v>
@@ -11738,7 +11770,7 @@
       <c r="E25" s="5"/>
       <c r="F25" s="6"/>
       <c r="G25" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="H25" s="5">
         <v>61</v>
@@ -11768,7 +11800,7 @@
       <c r="E26" s="5"/>
       <c r="F26" s="6"/>
       <c r="G26" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="H26" s="5">
         <v>110</v>
@@ -11798,7 +11830,7 @@
       <c r="E27" s="5"/>
       <c r="F27" s="6"/>
       <c r="G27" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="H27" s="5">
         <v>150</v>
@@ -11826,10 +11858,10 @@
         <v>1100007</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="E28" s="8">
         <v>5450095</v>
@@ -11838,7 +11870,7 @@
         <v>1</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="H28" s="8">
         <v>5450101</v>
@@ -11852,7 +11884,7 @@
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
       <c r="O28" s="19" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="P28" s="20"/>
       <c r="Q28" s="21" t="s">
@@ -11862,17 +11894,17 @@
         <v>44978</v>
       </c>
       <c r="S28" s="22" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="T28" s="23" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="U28" s="24"/>
       <c r="V28" s="25" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="W28" s="26" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="2:23">
@@ -11880,10 +11912,10 @@
         <v>1400056</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="E29" s="5">
         <v>5450096</v>
@@ -11892,7 +11924,7 @@
         <v>1</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="H29" s="5">
         <v>5010002</v>
@@ -11906,13 +11938,13 @@
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
       <c r="O29" s="11" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="P29" s="12">
         <v>11</v>
       </c>
       <c r="Q29" s="28" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="R29" s="14">
         <v>44978</v>
@@ -11921,14 +11953,14 @@
         <v>44985</v>
       </c>
       <c r="T29" s="15" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="U29" s="16"/>
       <c r="V29" s="17" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="W29" s="18" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="2:23">
@@ -11938,7 +11970,7 @@
       <c r="E30" s="5"/>
       <c r="F30" s="6"/>
       <c r="G30" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="H30" s="5">
         <v>5020002</v>
@@ -11968,7 +12000,7 @@
       <c r="E31" s="5"/>
       <c r="F31" s="6"/>
       <c r="G31" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="H31" s="5">
         <v>1100003</v>
@@ -11998,7 +12030,7 @@
       <c r="E32" s="5"/>
       <c r="F32" s="6"/>
       <c r="G32" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="H32" s="5">
         <v>501014</v>
@@ -12028,7 +12060,7 @@
       <c r="E33" s="5"/>
       <c r="F33" s="6"/>
       <c r="G33" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="H33" s="5">
         <v>260</v>
@@ -12058,7 +12090,7 @@
       <c r="E34" s="5"/>
       <c r="F34" s="6"/>
       <c r="G34" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="H34" s="5">
         <v>270</v>
@@ -12088,7 +12120,7 @@
       <c r="E35" s="5"/>
       <c r="F35" s="6"/>
       <c r="G35" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="H35" s="5">
         <v>61</v>
@@ -12118,7 +12150,7 @@
       <c r="E36" s="5"/>
       <c r="F36" s="6"/>
       <c r="G36" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="H36" s="5">
         <v>110</v>
@@ -12148,7 +12180,7 @@
       <c r="E37" s="5"/>
       <c r="F37" s="6"/>
       <c r="G37" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="H37" s="5">
         <v>150</v>
@@ -12176,10 +12208,10 @@
         <v>1400057</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="E38" s="8">
         <v>980</v>
@@ -12196,13 +12228,13 @@
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
       <c r="O38" s="19" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="P38" s="20">
         <v>12</v>
       </c>
       <c r="Q38" s="143" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="R38" s="22">
         <v>44978</v>
@@ -12211,21 +12243,21 @@
         <v>44985</v>
       </c>
       <c r="T38" s="23" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="U38" s="24"/>
       <c r="V38" s="25" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="W38" s="26" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="39" spans="2:23">
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="E39" s="8">
         <v>5450097</v>
@@ -12234,7 +12266,7 @@
         <v>1</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="H39" s="8">
         <v>5010002</v>
@@ -12264,7 +12296,7 @@
       <c r="E40" s="8"/>
       <c r="F40" s="9"/>
       <c r="G40" s="10" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="H40" s="8">
         <v>5010101</v>
@@ -12292,10 +12324,10 @@
         <v>1400001</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="E41" s="5">
         <v>5450012</v>
@@ -12304,7 +12336,7 @@
         <v>1</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="H41" s="5">
         <v>1010000</v>
@@ -12318,13 +12350,13 @@
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
       <c r="O41" s="11" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="P41" s="12">
         <v>13</v>
       </c>
       <c r="Q41" s="28" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="R41" s="14">
         <v>44978</v>
@@ -12333,16 +12365,16 @@
         <v>44992</v>
       </c>
       <c r="T41" s="15" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="U41" s="16">
         <v>200</v>
       </c>
       <c r="V41" s="17" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="W41" s="18" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="42" spans="2:23">
@@ -12352,7 +12384,7 @@
       <c r="E42" s="5"/>
       <c r="F42" s="6"/>
       <c r="G42" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="H42" s="5">
         <v>5010002</v>
@@ -12382,7 +12414,7 @@
       <c r="E43" s="5"/>
       <c r="F43" s="6"/>
       <c r="G43" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="H43" s="5">
         <v>5020002</v>
@@ -12410,10 +12442,10 @@
         <v>1400021</v>
       </c>
       <c r="C44" s="30" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E44" s="8">
         <v>5450035</v>
@@ -12422,7 +12454,7 @@
         <v>1</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="H44" s="8">
         <v>5010002</v>
@@ -12436,13 +12468,13 @@
       <c r="M44" s="9"/>
       <c r="N44" s="9"/>
       <c r="O44" s="19" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="P44" s="20">
         <v>14</v>
       </c>
       <c r="Q44" s="143" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="R44" s="22">
         <v>44978</v>
@@ -12451,16 +12483,16 @@
         <v>44985</v>
       </c>
       <c r="T44" s="23" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="U44" s="24">
         <v>80</v>
       </c>
       <c r="V44" s="25" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="W44" s="26" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="45" spans="2:23">
@@ -12468,10 +12500,10 @@
         <v>1400023</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="E45" s="5">
         <v>5450036</v>
@@ -12480,7 +12512,7 @@
         <v>1</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="H45" s="5">
         <v>5020002</v>
@@ -12494,13 +12526,13 @@
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
       <c r="O45" s="11" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="P45" s="12">
         <v>15</v>
       </c>
       <c r="Q45" s="28" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="R45" s="14">
         <v>44978</v>
@@ -12509,16 +12541,16 @@
         <v>44985</v>
       </c>
       <c r="T45" s="15" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="U45" s="16">
         <v>80</v>
       </c>
       <c r="V45" s="17" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="W45" s="18" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="46" spans="2:23">
@@ -12526,10 +12558,10 @@
         <v>1400058</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="E46" s="8">
         <v>5040101</v>
@@ -12546,13 +12578,13 @@
       <c r="M46" s="9"/>
       <c r="N46" s="9"/>
       <c r="O46" s="19" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="P46" s="20">
         <v>10</v>
       </c>
       <c r="Q46" s="143" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="R46" s="22">
         <v>44978</v>
@@ -12561,14 +12593,14 @@
         <v>45006</v>
       </c>
       <c r="T46" s="23" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="U46" s="24"/>
       <c r="V46" s="25" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="W46" s="26" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="47" spans="2:23">
@@ -12576,10 +12608,10 @@
         <v>1400059</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="E47" s="5">
         <v>5000065</v>
@@ -12596,13 +12628,13 @@
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
       <c r="O47" s="11" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="P47" s="12">
         <v>9</v>
       </c>
       <c r="Q47" s="28" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="R47" s="14">
         <v>44978</v>
@@ -12611,16 +12643,16 @@
         <v>45006</v>
       </c>
       <c r="T47" s="15" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="U47" s="16">
         <v>12</v>
       </c>
       <c r="V47" s="17" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="W47" s="18" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="48" spans="2:23">
@@ -12628,10 +12660,10 @@
         <v>1400060</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E48" s="8">
         <v>5100033</v>
@@ -12648,13 +12680,13 @@
       <c r="M48" s="9"/>
       <c r="N48" s="9"/>
       <c r="O48" s="19" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="P48" s="20">
         <v>8</v>
       </c>
       <c r="Q48" s="143" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="R48" s="22">
         <v>44978</v>
@@ -12663,14 +12695,14 @@
         <v>45006</v>
       </c>
       <c r="T48" s="31" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="U48" s="24"/>
       <c r="V48" s="25" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="W48" s="26" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="49" spans="2:23">
@@ -12678,10 +12710,10 @@
         <v>1400051</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="E49" s="5">
         <v>980</v>
@@ -12698,13 +12730,13 @@
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
       <c r="O49" s="11" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="P49" s="12">
         <v>7</v>
       </c>
       <c r="Q49" s="13" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="R49" s="14">
         <v>44985</v>
@@ -12713,21 +12745,21 @@
         <v>44992</v>
       </c>
       <c r="T49" s="15" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="U49" s="16"/>
       <c r="V49" s="17" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="W49" s="463" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="50" spans="2:23">
       <c r="B50" s="32"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="E50" s="5">
         <v>5450086</v>
@@ -12736,7 +12768,7 @@
         <v>1</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="H50" s="5">
         <v>5020002</v>
@@ -12766,7 +12798,7 @@
       <c r="E51" s="5"/>
       <c r="F51" s="6"/>
       <c r="G51" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="H51" s="5">
         <v>5020101</v>
@@ -12794,10 +12826,10 @@
         <v>1900013</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="E52" s="8">
         <v>980</v>
@@ -12814,7 +12846,7 @@
       <c r="M52" s="9"/>
       <c r="N52" s="9"/>
       <c r="O52" s="19" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="P52" s="20"/>
       <c r="Q52" s="21" t="s">
@@ -12827,21 +12859,21 @@
         <v>44992</v>
       </c>
       <c r="T52" s="23" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="U52" s="24"/>
       <c r="V52" s="25" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="W52" s="26" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="53" spans="2:23">
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E53" s="8">
         <v>5010002</v>
@@ -12871,7 +12903,7 @@
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
       <c r="D54" s="8" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="E54" s="8">
         <v>5020002</v>
@@ -12901,7 +12933,7 @@
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
       <c r="D55" s="8" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="E55" s="8">
         <v>600010</v>
@@ -12932,10 +12964,10 @@
         <v>1400043</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="E56" s="5">
         <v>5450085</v>
@@ -12944,7 +12976,7 @@
         <v>1</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="H56" s="5">
         <v>1100301</v>
@@ -12958,13 +12990,13 @@
       <c r="M56" s="6"/>
       <c r="N56" s="6"/>
       <c r="O56" s="11" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="P56" s="12">
         <v>6</v>
       </c>
       <c r="Q56" s="33" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="R56" s="14">
         <v>44985</v>
@@ -12973,16 +13005,16 @@
         <v>44992</v>
       </c>
       <c r="T56" s="15" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="U56" s="16">
         <v>200</v>
       </c>
       <c r="V56" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="W56" s="18" t="s">
         <v>183</v>
-      </c>
-      <c r="W56" s="18" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="57" spans="2:23">
@@ -12992,7 +13024,7 @@
       <c r="E57" s="5"/>
       <c r="F57" s="6"/>
       <c r="G57" s="7" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="H57" s="5">
         <v>1100003</v>
@@ -13022,7 +13054,7 @@
       <c r="E58" s="5"/>
       <c r="F58" s="6"/>
       <c r="G58" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="H58" s="5">
         <v>2903</v>
@@ -13052,7 +13084,7 @@
       <c r="E59" s="5"/>
       <c r="F59" s="6"/>
       <c r="G59" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="H59" s="5">
         <v>7201</v>
@@ -13080,10 +13112,10 @@
         <v>1400047</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="E60" s="8">
         <v>5450088</v>
@@ -13092,7 +13124,7 @@
         <v>1</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="H60" s="8">
         <v>2910</v>
@@ -13106,13 +13138,13 @@
       <c r="M60" s="9"/>
       <c r="N60" s="9"/>
       <c r="O60" s="19" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="P60" s="20">
         <v>5</v>
       </c>
       <c r="Q60" s="34" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="R60" s="22">
         <v>44985</v>
@@ -13121,16 +13153,16 @@
         <v>44992</v>
       </c>
       <c r="T60" s="23" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="U60" s="24">
         <v>200</v>
       </c>
       <c r="V60" s="25" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="W60" s="26" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="61" spans="2:23">
@@ -13138,10 +13170,10 @@
         <v>1800021</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="E61" s="5">
         <v>5450072</v>
@@ -13150,7 +13182,7 @@
         <v>1</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="H61" s="5">
         <v>502633</v>
@@ -13164,13 +13196,13 @@
       <c r="M61" s="6"/>
       <c r="N61" s="6"/>
       <c r="O61" s="11" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="P61" s="12">
         <v>1</v>
       </c>
       <c r="Q61" s="28" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="R61" s="14">
         <v>44985</v>
@@ -13179,16 +13211,16 @@
         <v>44992</v>
       </c>
       <c r="T61" s="15" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="U61" s="35">
         <v>120</v>
       </c>
       <c r="V61" s="17" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="W61" s="466" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="62" spans="2:23">
@@ -13244,10 +13276,10 @@
         <v>1800022</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="E64" s="8">
         <v>5450073</v>
@@ -13256,7 +13288,7 @@
         <v>1</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="H64" s="8">
         <v>502631</v>
@@ -13270,13 +13302,13 @@
       <c r="M64" s="9"/>
       <c r="N64" s="9"/>
       <c r="O64" s="19" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="P64" s="20">
         <v>2</v>
       </c>
       <c r="Q64" s="143" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="R64" s="22">
         <v>44985</v>
@@ -13285,16 +13317,16 @@
         <v>44992</v>
       </c>
       <c r="T64" s="23" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="U64" s="37">
         <v>120</v>
       </c>
       <c r="V64" s="25" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="W64" s="469" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="65" spans="2:23">
@@ -13350,10 +13382,10 @@
         <v>1800023</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="E67" s="5">
         <v>5450044</v>
@@ -13362,7 +13394,7 @@
         <v>1</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="H67" s="5">
         <v>1110057</v>
@@ -13376,13 +13408,13 @@
       <c r="M67" s="6"/>
       <c r="N67" s="6"/>
       <c r="O67" s="11" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="P67" s="12">
         <v>3</v>
       </c>
       <c r="Q67" s="28" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="R67" s="14">
         <v>44985</v>
@@ -13391,16 +13423,16 @@
         <v>44992</v>
       </c>
       <c r="T67" s="15" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="U67" s="35">
         <v>120</v>
       </c>
       <c r="V67" s="17" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="W67" s="466" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="68" spans="2:23">
@@ -13456,10 +13488,10 @@
         <v>1800024</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="E70" s="8">
         <v>5450045</v>
@@ -13468,7 +13500,7 @@
         <v>1</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="H70" s="8">
         <v>1110058</v>
@@ -13482,13 +13514,13 @@
       <c r="M70" s="9"/>
       <c r="N70" s="9"/>
       <c r="O70" s="19" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="P70" s="20">
         <v>4</v>
       </c>
       <c r="Q70" s="143" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="R70" s="22">
         <v>44985</v>
@@ -13497,16 +13529,16 @@
         <v>44992</v>
       </c>
       <c r="T70" s="23" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="U70" s="37">
         <v>120</v>
       </c>
       <c r="V70" s="25" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="W70" s="469" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="71" spans="2:23">
@@ -13562,10 +13594,10 @@
         <v>1800025</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="E73" s="5">
         <v>5450046</v>
@@ -13574,7 +13606,7 @@
         <v>1</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="H73" s="5">
         <v>1110030</v>
@@ -13588,13 +13620,13 @@
       <c r="M73" s="6"/>
       <c r="N73" s="6"/>
       <c r="O73" s="11" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="P73" s="12">
         <v>5</v>
       </c>
       <c r="Q73" s="28" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="R73" s="14">
         <v>44985</v>
@@ -13603,16 +13635,16 @@
         <v>44992</v>
       </c>
       <c r="T73" s="15" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="U73" s="35">
         <v>120</v>
       </c>
       <c r="V73" s="17" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="W73" s="466" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="74" spans="2:23">
@@ -13668,10 +13700,10 @@
         <v>1800026</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="E76" s="8">
         <v>5450047</v>
@@ -13680,7 +13712,7 @@
         <v>1</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="H76" s="8">
         <v>1110032</v>
@@ -13694,13 +13726,13 @@
       <c r="M76" s="9"/>
       <c r="N76" s="9"/>
       <c r="O76" s="19" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="P76" s="20">
         <v>6</v>
       </c>
       <c r="Q76" s="143" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="R76" s="22">
         <v>44985</v>
@@ -13709,16 +13741,16 @@
         <v>44992</v>
       </c>
       <c r="T76" s="23" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="U76" s="37">
         <v>120</v>
       </c>
       <c r="V76" s="25" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="W76" s="469" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="77" spans="2:23">
@@ -13774,10 +13806,10 @@
         <v>1900021</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="E79" s="5">
         <v>5450069</v>
@@ -13786,7 +13818,7 @@
         <v>1</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="H79" s="5">
         <v>5010002</v>
@@ -13800,7 +13832,7 @@
       <c r="M79" s="6"/>
       <c r="N79" s="6"/>
       <c r="O79" s="11" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="P79" s="12"/>
       <c r="Q79" s="13" t="s">
@@ -13810,17 +13842,17 @@
         <v>44987</v>
       </c>
       <c r="S79" s="14" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="T79" s="15" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="U79" s="16"/>
       <c r="V79" s="17" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="W79" s="18" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="80" spans="2:23">
@@ -13830,7 +13862,7 @@
       <c r="E80" s="5"/>
       <c r="F80" s="6"/>
       <c r="G80" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="H80" s="5">
         <v>5010101</v>
@@ -13860,7 +13892,7 @@
       <c r="E81" s="5"/>
       <c r="F81" s="6"/>
       <c r="G81" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="H81" s="5">
         <v>5000049</v>
@@ -13888,10 +13920,10 @@
         <v>1900022</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="E82" s="8">
         <v>5450070</v>
@@ -13900,7 +13932,7 @@
         <v>1</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="H82" s="8">
         <v>5020002</v>
@@ -13924,17 +13956,17 @@
         <v>44987</v>
       </c>
       <c r="S82" s="22" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="T82" s="23" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="U82" s="24"/>
       <c r="V82" s="25" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="W82" s="26" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="83" spans="2:23">
@@ -13944,7 +13976,7 @@
       <c r="E83" s="8"/>
       <c r="F83" s="9"/>
       <c r="G83" s="10" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="H83" s="8">
         <v>5020101</v>
@@ -13974,7 +14006,7 @@
       <c r="E84" s="8"/>
       <c r="F84" s="9"/>
       <c r="G84" s="10" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="H84" s="8">
         <v>5000050</v>
@@ -14002,10 +14034,10 @@
         <v>1400040</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="E85" s="5">
         <v>5450082</v>
@@ -14028,7 +14060,7 @@
       <c r="M85" s="6"/>
       <c r="N85" s="6"/>
       <c r="O85" s="11" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="P85" s="12">
         <v>4</v>
@@ -14043,16 +14075,16 @@
         <v>44999</v>
       </c>
       <c r="T85" s="15" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="U85" s="16">
         <v>200</v>
       </c>
       <c r="V85" s="17" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="W85" s="18" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="86" spans="2:23">
@@ -14092,7 +14124,7 @@
       <c r="E87" s="5"/>
       <c r="F87" s="6"/>
       <c r="G87" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="H87" s="5">
         <v>5010007</v>
@@ -14120,10 +14152,10 @@
         <v>1400061</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="E88" s="8">
         <v>5450098</v>
@@ -14132,7 +14164,7 @@
         <v>1</v>
       </c>
       <c r="G88" s="10" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="H88" s="8">
         <v>1020031</v>
@@ -14146,7 +14178,7 @@
       <c r="M88" s="9"/>
       <c r="N88" s="9"/>
       <c r="O88" s="19" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="P88" s="20">
         <v>1</v>
@@ -14161,14 +14193,14 @@
         <v>44999</v>
       </c>
       <c r="T88" s="23" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="U88" s="24"/>
       <c r="V88" s="25" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="W88" s="26" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="89" spans="2:23">
@@ -14178,7 +14210,7 @@
       <c r="E89" s="8"/>
       <c r="F89" s="9"/>
       <c r="G89" s="10" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="H89" s="8">
         <v>5010002</v>
@@ -14208,7 +14240,7 @@
       <c r="E90" s="8"/>
       <c r="F90" s="9"/>
       <c r="G90" s="10" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="H90" s="8">
         <v>5020002</v>
@@ -14236,10 +14268,10 @@
         <v>1400062</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="E91" s="5">
         <v>5450099</v>
@@ -14248,7 +14280,7 @@
         <v>1</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="H91" s="5">
         <v>6000</v>
@@ -14262,7 +14294,7 @@
       <c r="M91" s="6"/>
       <c r="N91" s="6"/>
       <c r="O91" s="11" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="P91" s="12">
         <v>3</v>
@@ -14277,14 +14309,14 @@
         <v>44999</v>
       </c>
       <c r="T91" s="15" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="U91" s="16">
         <v>120</v>
       </c>
       <c r="V91" s="17"/>
       <c r="W91" s="18" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="92" spans="2:23">
@@ -14292,10 +14324,10 @@
         <v>1400063</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="E92" s="8">
         <v>5450100</v>
@@ -14304,7 +14336,7 @@
         <v>1</v>
       </c>
       <c r="G92" s="10" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="H92" s="8">
         <v>6300</v>
@@ -14318,7 +14350,7 @@
       <c r="M92" s="9"/>
       <c r="N92" s="9"/>
       <c r="O92" s="19" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="P92" s="20">
         <v>2</v>
@@ -14333,14 +14365,14 @@
         <v>44999</v>
       </c>
       <c r="T92" s="23" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="U92" s="24">
         <v>200</v>
       </c>
       <c r="V92" s="25"/>
       <c r="W92" s="26" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="93" spans="2:23">
@@ -14348,10 +14380,10 @@
         <v>1900026</v>
       </c>
       <c r="C93" s="475" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="D93" s="478" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="E93" s="478">
         <v>5450106</v>
@@ -14360,7 +14392,7 @@
         <v>1</v>
       </c>
       <c r="G93" s="40" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="H93" s="11">
         <v>5010002</v>
@@ -14374,27 +14406,27 @@
       <c r="M93" s="480"/>
       <c r="N93" s="480"/>
       <c r="O93" s="475" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="P93" s="475"/>
       <c r="Q93" s="475" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="R93" s="482">
         <v>44992</v>
       </c>
       <c r="S93" s="482" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="T93" s="482" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="U93" s="475"/>
       <c r="V93" s="482" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="W93" s="485" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="94" spans="2:23">
@@ -14404,7 +14436,7 @@
       <c r="E94" s="479"/>
       <c r="F94" s="479"/>
       <c r="G94" s="11" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="H94" s="11">
         <v>5010101</v>
@@ -14434,7 +14466,7 @@
       <c r="E95" s="479"/>
       <c r="F95" s="479"/>
       <c r="G95" s="11" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="H95" s="11">
         <v>600017</v>
@@ -14464,7 +14496,7 @@
       <c r="E96" s="479"/>
       <c r="F96" s="479"/>
       <c r="G96" s="137" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="H96" s="137">
         <v>5010008</v>
@@ -14492,10 +14524,10 @@
         <v>1900027</v>
       </c>
       <c r="C97" s="491" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="D97" s="494" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="E97" s="494">
         <v>5450107</v>
@@ -14504,7 +14536,7 @@
         <v>1</v>
       </c>
       <c r="G97" s="41" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="H97" s="61">
         <v>5020002</v>
@@ -14518,27 +14550,27 @@
       <c r="M97" s="498"/>
       <c r="N97" s="498"/>
       <c r="O97" s="494" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="P97" s="494"/>
       <c r="Q97" s="501" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="R97" s="501">
         <v>44992</v>
       </c>
       <c r="S97" s="501" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="T97" s="504" t="s">
         <v>33</v>
       </c>
       <c r="U97" s="507"/>
       <c r="V97" s="510" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="W97" s="513" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="98" spans="2:23">
@@ -14548,7 +14580,7 @@
       <c r="E98" s="492"/>
       <c r="F98" s="496"/>
       <c r="G98" s="45" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="H98" s="45">
         <v>5020101</v>
@@ -14578,7 +14610,7 @@
       <c r="E99" s="492"/>
       <c r="F99" s="496"/>
       <c r="G99" s="45" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="H99" s="45">
         <v>600017</v>
@@ -14608,7 +14640,7 @@
       <c r="E100" s="493"/>
       <c r="F100" s="497"/>
       <c r="G100" s="91" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="H100" s="91">
         <v>5020008</v>
@@ -14636,10 +14668,10 @@
         <v>1400044</v>
       </c>
       <c r="C101" s="517" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D101" s="52" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="E101" s="52">
         <v>980</v>
@@ -14651,10 +14683,10 @@
         <v>21</v>
       </c>
       <c r="H101" s="39" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="I101" s="54" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="J101" s="54"/>
       <c r="K101" s="520"/>
@@ -14662,13 +14694,13 @@
       <c r="M101" s="520"/>
       <c r="N101" s="520"/>
       <c r="O101" s="523" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="P101" s="475">
         <v>19</v>
       </c>
       <c r="Q101" s="541" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="R101" s="541">
         <v>44999</v>
@@ -14677,21 +14709,21 @@
         <v>45006</v>
       </c>
       <c r="T101" s="526" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="U101" s="529"/>
       <c r="V101" s="532" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="W101" s="535" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="102" spans="2:23">
       <c r="B102" s="473"/>
       <c r="C102" s="518"/>
       <c r="D102" s="524" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="E102" s="524">
         <v>5450086</v>
@@ -14758,10 +14790,10 @@
         <v>1400064</v>
       </c>
       <c r="C104" s="61" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="D104" s="61" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="E104" s="61">
         <v>5450108</v>
@@ -14770,7 +14802,7 @@
         <v>1</v>
       </c>
       <c r="G104" s="61" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="H104" s="61">
         <v>480025</v>
@@ -14784,13 +14816,13 @@
       <c r="M104" s="63"/>
       <c r="N104" s="63"/>
       <c r="O104" s="61" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="P104" s="61">
         <v>18</v>
       </c>
       <c r="Q104" s="64" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="R104" s="65">
         <v>44999</v>
@@ -14799,14 +14831,14 @@
         <v>45006</v>
       </c>
       <c r="T104" s="66" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="U104" s="67"/>
       <c r="V104" s="68" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="W104" s="69" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="105" spans="2:23">
@@ -14816,7 +14848,7 @@
       <c r="E105" s="72"/>
       <c r="F105" s="71"/>
       <c r="G105" s="78" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="H105" s="45">
         <v>480029</v>
@@ -14846,7 +14878,7 @@
       <c r="E106" s="72"/>
       <c r="F106" s="71"/>
       <c r="G106" s="71" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="H106" s="45">
         <v>480033</v>
@@ -14876,7 +14908,7 @@
       <c r="E107" s="72"/>
       <c r="F107" s="71"/>
       <c r="G107" s="71" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="H107" s="45">
         <v>480034</v>
@@ -14906,7 +14938,7 @@
       <c r="E108" s="72"/>
       <c r="F108" s="71"/>
       <c r="G108" s="71" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="H108" s="45">
         <v>480035</v>
@@ -14936,7 +14968,7 @@
       <c r="E109" s="72"/>
       <c r="F109" s="71"/>
       <c r="G109" s="71" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="H109" s="45">
         <v>480036</v>
@@ -14966,7 +14998,7 @@
       <c r="E110" s="72"/>
       <c r="F110" s="71"/>
       <c r="G110" s="71" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="H110" s="45">
         <v>480037</v>
@@ -14996,7 +15028,7 @@
       <c r="E111" s="72"/>
       <c r="F111" s="71"/>
       <c r="G111" s="71" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="H111" s="45">
         <v>480026</v>
@@ -15026,7 +15058,7 @@
       <c r="E112" s="72"/>
       <c r="F112" s="71"/>
       <c r="G112" s="71" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="H112" s="45">
         <v>480030</v>
@@ -15056,7 +15088,7 @@
       <c r="E113" s="72"/>
       <c r="F113" s="71"/>
       <c r="G113" s="71" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="H113" s="45">
         <v>480033</v>
@@ -15086,7 +15118,7 @@
       <c r="E114" s="72"/>
       <c r="F114" s="71"/>
       <c r="G114" s="71" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="H114" s="45">
         <v>480034</v>
@@ -15116,7 +15148,7 @@
       <c r="E115" s="72"/>
       <c r="F115" s="71"/>
       <c r="G115" s="71" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="H115" s="45">
         <v>480035</v>
@@ -15146,7 +15178,7 @@
       <c r="E116" s="72"/>
       <c r="F116" s="71"/>
       <c r="G116" s="71" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="H116" s="45">
         <v>480036</v>
@@ -15176,7 +15208,7 @@
       <c r="E117" s="72"/>
       <c r="F117" s="71"/>
       <c r="G117" s="71" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="H117" s="45">
         <v>480038</v>
@@ -15206,7 +15238,7 @@
       <c r="E118" s="72"/>
       <c r="F118" s="71"/>
       <c r="G118" s="71" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="H118" s="45">
         <v>480027</v>
@@ -15236,7 +15268,7 @@
       <c r="E119" s="72"/>
       <c r="F119" s="71"/>
       <c r="G119" s="71" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="H119" s="45">
         <v>480031</v>
@@ -15266,7 +15298,7 @@
       <c r="E120" s="72"/>
       <c r="F120" s="71"/>
       <c r="G120" s="71" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="H120" s="45">
         <v>480033</v>
@@ -15296,7 +15328,7 @@
       <c r="E121" s="72"/>
       <c r="F121" s="71"/>
       <c r="G121" s="71" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="H121" s="45">
         <v>480034</v>
@@ -15326,7 +15358,7 @@
       <c r="E122" s="72"/>
       <c r="F122" s="71"/>
       <c r="G122" s="71" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="H122" s="45">
         <v>480035</v>
@@ -15356,7 +15388,7 @@
       <c r="E123" s="72"/>
       <c r="F123" s="71"/>
       <c r="G123" s="71" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="H123" s="45">
         <v>480036</v>
@@ -15386,7 +15418,7 @@
       <c r="E124" s="72"/>
       <c r="F124" s="71"/>
       <c r="G124" s="71" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="H124" s="45">
         <v>480038</v>
@@ -15416,7 +15448,7 @@
       <c r="E125" s="72"/>
       <c r="F125" s="71"/>
       <c r="G125" s="71" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="H125" s="45">
         <v>480028</v>
@@ -15446,7 +15478,7 @@
       <c r="E126" s="72"/>
       <c r="F126" s="71"/>
       <c r="G126" s="71" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="H126" s="45">
         <v>480032</v>
@@ -15476,7 +15508,7 @@
       <c r="E127" s="72"/>
       <c r="F127" s="71"/>
       <c r="G127" s="71" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="H127" s="45">
         <v>480033</v>
@@ -15506,7 +15538,7 @@
       <c r="E128" s="72"/>
       <c r="F128" s="71"/>
       <c r="G128" s="71" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="H128" s="45">
         <v>480034</v>
@@ -15536,7 +15568,7 @@
       <c r="E129" s="82"/>
       <c r="F129" s="45"/>
       <c r="G129" s="45" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="H129" s="45">
         <v>480035</v>
@@ -15566,7 +15598,7 @@
       <c r="E130" s="82"/>
       <c r="F130" s="45"/>
       <c r="G130" s="45" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="H130" s="45">
         <v>480036</v>
@@ -15596,7 +15628,7 @@
       <c r="E131" s="92"/>
       <c r="F131" s="91"/>
       <c r="G131" s="91" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="H131" s="91">
         <v>480038</v>
@@ -15624,13 +15656,13 @@
         <v>1400065</v>
       </c>
       <c r="C132" s="517" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="D132" s="523"/>
       <c r="E132" s="523"/>
       <c r="F132" s="558"/>
       <c r="G132" s="132" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="H132" s="39">
         <v>5450109</v>
@@ -15640,7 +15672,7 @@
       </c>
       <c r="J132" s="225"/>
       <c r="K132" s="52" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="L132" s="52">
         <v>5010002</v>
@@ -15652,13 +15684,13 @@
         <v>0.23</v>
       </c>
       <c r="O132" s="523" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="P132" s="523">
         <v>21</v>
       </c>
       <c r="Q132" s="541" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="R132" s="541">
         <v>44999</v>
@@ -15667,16 +15699,16 @@
         <v>45006</v>
       </c>
       <c r="T132" s="526" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="U132" s="529">
         <v>80</v>
       </c>
       <c r="V132" s="532" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="W132" s="544" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="133" spans="2:23">
@@ -15690,7 +15722,7 @@
       <c r="I133" s="560"/>
       <c r="J133" s="226"/>
       <c r="K133" s="55" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="L133" s="55">
         <v>5010101</v>
@@ -15722,7 +15754,7 @@
       <c r="I134" s="560"/>
       <c r="J134" s="226"/>
       <c r="K134" s="55" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="L134" s="55">
         <v>5010099</v>
@@ -15754,7 +15786,7 @@
       <c r="I135" s="560"/>
       <c r="J135" s="226"/>
       <c r="K135" s="55" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="L135" s="55">
         <v>5010200</v>
@@ -15786,7 +15818,7 @@
       <c r="I136" s="560"/>
       <c r="J136" s="226"/>
       <c r="K136" s="55" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="L136" s="55">
         <v>5010201</v>
@@ -15818,7 +15850,7 @@
       <c r="I137" s="560"/>
       <c r="J137" s="226"/>
       <c r="K137" s="55" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="L137" s="55">
         <v>5010008</v>
@@ -15850,7 +15882,7 @@
       <c r="I138" s="561"/>
       <c r="J138" s="227"/>
       <c r="K138" s="57" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="L138" s="57">
         <v>5010202</v>
@@ -15876,13 +15908,13 @@
         <v>1400066</v>
       </c>
       <c r="C139" s="549" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="D139" s="549"/>
       <c r="E139" s="551"/>
       <c r="F139" s="553"/>
       <c r="G139" s="61" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="H139" s="61">
         <v>5450110</v>
@@ -15892,7 +15924,7 @@
       </c>
       <c r="J139" s="62"/>
       <c r="K139" s="61" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="L139" s="61">
         <v>350</v>
@@ -15904,13 +15936,13 @@
         <v>0.99</v>
       </c>
       <c r="O139" s="551" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="P139" s="551">
         <v>20</v>
       </c>
       <c r="Q139" s="566" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="R139" s="566">
         <v>44999</v>
@@ -15919,16 +15951,16 @@
         <v>45006</v>
       </c>
       <c r="T139" s="568" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="U139" s="570">
         <v>120</v>
       </c>
       <c r="V139" s="562" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="W139" s="564" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="140" spans="2:23">
@@ -15942,7 +15974,7 @@
       <c r="I140" s="554"/>
       <c r="J140" s="108"/>
       <c r="K140" s="91" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="L140" s="91">
         <v>351</v>
@@ -15968,10 +16000,10 @@
         <v>1400067</v>
       </c>
       <c r="C141" s="517" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="D141" s="52" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="E141" s="52">
         <v>980</v>
@@ -15980,13 +16012,13 @@
         <v>2000</v>
       </c>
       <c r="G141" s="52" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="H141" s="39" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="I141" s="54" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="J141" s="54"/>
       <c r="K141" s="520"/>
@@ -15994,13 +16026,13 @@
       <c r="M141" s="520"/>
       <c r="N141" s="520"/>
       <c r="O141" s="523" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="P141" s="523">
         <v>14</v>
       </c>
       <c r="Q141" s="541" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="R141" s="541">
         <v>45006</v>
@@ -16009,21 +16041,21 @@
         <v>45013</v>
       </c>
       <c r="T141" s="526" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="U141" s="529"/>
       <c r="V141" s="532" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="W141" s="544" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="142" spans="2:23">
       <c r="B142" s="556"/>
       <c r="C142" s="518"/>
       <c r="D142" s="524" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="E142" s="524">
         <v>5450111</v>
@@ -16032,7 +16064,7 @@
         <v>1</v>
       </c>
       <c r="G142" s="55" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H142" s="11">
         <v>5200001</v>
@@ -16062,7 +16094,7 @@
       <c r="E143" s="525"/>
       <c r="F143" s="539"/>
       <c r="G143" s="57" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H143" s="59">
         <v>5200002</v>
@@ -16090,10 +16122,10 @@
         <v>1900013</v>
       </c>
       <c r="C144" s="549" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="D144" s="61" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="E144" s="61">
         <v>980</v>
@@ -16110,11 +16142,11 @@
       <c r="M144" s="576"/>
       <c r="N144" s="576"/>
       <c r="O144" s="551" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="P144" s="551"/>
       <c r="Q144" s="566" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="R144" s="566">
         <v>45006</v>
@@ -16123,14 +16155,14 @@
         <v>45013</v>
       </c>
       <c r="T144" s="568" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="U144" s="570"/>
       <c r="V144" s="562" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="W144" s="588" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="145" spans="2:23">
@@ -16228,10 +16260,10 @@
         <v>1400037</v>
       </c>
       <c r="C148" s="517" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="D148" s="517" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="E148" s="523">
         <v>5450068</v>
@@ -16240,7 +16272,7 @@
         <v>1</v>
       </c>
       <c r="G148" s="52" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="H148" s="39">
         <v>1020023</v>
@@ -16254,13 +16286,13 @@
       <c r="M148" s="520"/>
       <c r="N148" s="520"/>
       <c r="O148" s="523" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="P148" s="523">
         <v>17</v>
       </c>
       <c r="Q148" s="541" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="R148" s="541">
         <v>45006</v>
@@ -16269,14 +16301,14 @@
         <v>45013</v>
       </c>
       <c r="T148" s="526" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="U148" s="529"/>
       <c r="V148" s="532" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="W148" s="535" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
     </row>
     <row r="149" spans="2:23">
@@ -16344,10 +16376,10 @@
         <v>1400068</v>
       </c>
       <c r="C151" s="549" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="D151" s="549" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="E151" s="551">
         <v>5450112</v>
@@ -16356,7 +16388,7 @@
         <v>1</v>
       </c>
       <c r="G151" s="61" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="H151" s="61">
         <v>5202001</v>
@@ -16370,13 +16402,13 @@
       <c r="M151" s="576"/>
       <c r="N151" s="576"/>
       <c r="O151" s="551" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="P151" s="551">
         <v>15</v>
       </c>
       <c r="Q151" s="566" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="R151" s="566">
         <v>45006</v>
@@ -16385,16 +16417,16 @@
         <v>45013</v>
       </c>
       <c r="T151" s="568" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="U151" s="570">
         <v>200</v>
       </c>
       <c r="V151" s="562" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="W151" s="564" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
     </row>
     <row r="152" spans="2:23">
@@ -16404,7 +16436,7 @@
       <c r="E152" s="598"/>
       <c r="F152" s="604"/>
       <c r="G152" s="71" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="H152" s="45">
         <v>5000075</v>
@@ -16522,10 +16554,10 @@
         <v>1400069</v>
       </c>
       <c r="C156" s="517" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D156" s="517" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="E156" s="523">
         <v>5450113</v>
@@ -16534,7 +16566,7 @@
         <v>1</v>
       </c>
       <c r="G156" s="52" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H156" s="39">
         <v>701</v>
@@ -16548,13 +16580,13 @@
       <c r="M156" s="520"/>
       <c r="N156" s="520"/>
       <c r="O156" s="523" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="P156" s="523">
         <v>16</v>
       </c>
       <c r="Q156" s="541" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="R156" s="541">
         <v>45006</v>
@@ -16563,16 +16595,16 @@
         <v>45013</v>
       </c>
       <c r="T156" s="526" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="U156" s="529">
         <v>120</v>
       </c>
       <c r="V156" s="532" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="W156" s="544" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
     </row>
     <row r="157" spans="2:23">
@@ -16582,7 +16614,7 @@
       <c r="E157" s="525"/>
       <c r="F157" s="539"/>
       <c r="G157" s="57" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H157" s="59">
         <v>700</v>
@@ -16610,7 +16642,7 @@
         <v>1200024</v>
       </c>
       <c r="C158" s="114" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="D158" s="114"/>
       <c r="E158" s="114"/>
@@ -16628,13 +16660,13 @@
       <c r="M158" s="116"/>
       <c r="N158" s="116"/>
       <c r="O158" s="114" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="P158" s="114">
         <v>1</v>
       </c>
       <c r="Q158" s="117" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="R158" s="117">
         <v>45006</v>
@@ -16643,16 +16675,16 @@
         <v>45013</v>
       </c>
       <c r="T158" s="118" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="U158" s="119">
         <v>8</v>
       </c>
       <c r="V158" s="120" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="W158" s="121" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="159" spans="2:23">
@@ -16660,7 +16692,7 @@
         <v>1200025</v>
       </c>
       <c r="C159" s="123" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="D159" s="123"/>
       <c r="E159" s="123"/>
@@ -16678,13 +16710,13 @@
       <c r="M159" s="125"/>
       <c r="N159" s="125"/>
       <c r="O159" s="123" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="P159" s="123">
         <v>2</v>
       </c>
       <c r="Q159" s="126" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="R159" s="126">
         <v>45006</v>
@@ -16693,16 +16725,16 @@
         <v>45013</v>
       </c>
       <c r="T159" s="127" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="U159" s="128">
         <v>80</v>
       </c>
       <c r="V159" s="129" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="W159" s="130" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="160" spans="2:23">
@@ -16710,10 +16742,10 @@
         <v>1400051</v>
       </c>
       <c r="C160" s="549" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D160" s="61" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="E160" s="61">
         <v>980</v>
@@ -16725,10 +16757,10 @@
         <v>21</v>
       </c>
       <c r="H160" s="61" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="I160" s="63" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="J160" s="63"/>
       <c r="K160" s="576"/>
@@ -16736,13 +16768,13 @@
       <c r="M160" s="576"/>
       <c r="N160" s="576"/>
       <c r="O160" s="551" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="P160" s="551">
         <v>13</v>
       </c>
       <c r="Q160" s="566" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="R160" s="566">
         <v>45013</v>
@@ -16751,21 +16783,21 @@
         <v>45020</v>
       </c>
       <c r="T160" s="568" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="U160" s="570"/>
       <c r="V160" s="562" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="W160" s="588" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="161" spans="2:23">
       <c r="B161" s="572"/>
       <c r="C161" s="574"/>
       <c r="D161" s="580" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="E161" s="580">
         <v>5450086</v>
@@ -16832,7 +16864,7 @@
         <v>1400053</v>
       </c>
       <c r="C163" s="138" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="D163" s="123"/>
       <c r="E163" s="123"/>
@@ -16846,13 +16878,13 @@
       <c r="M163" s="125"/>
       <c r="N163" s="125"/>
       <c r="O163" s="123" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="P163" s="123">
         <v>5</v>
       </c>
       <c r="Q163" s="126" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="R163" s="126">
         <v>45013</v>
@@ -16861,14 +16893,14 @@
         <v>45020</v>
       </c>
       <c r="T163" s="127" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="U163" s="128"/>
       <c r="V163" s="129" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="W163" s="130" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="164" spans="2:23">
@@ -16876,7 +16908,7 @@
         <v>1400052</v>
       </c>
       <c r="C164" s="114" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="D164" s="114"/>
       <c r="E164" s="114"/>
@@ -16890,13 +16922,13 @@
       <c r="M164" s="116"/>
       <c r="N164" s="116"/>
       <c r="O164" s="114" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="P164" s="114">
         <v>6</v>
       </c>
       <c r="Q164" s="117" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="R164" s="117">
         <v>45013</v>
@@ -16905,14 +16937,14 @@
         <v>45020</v>
       </c>
       <c r="T164" s="118" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="U164" s="119"/>
       <c r="V164" s="120" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="W164" s="121" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="165" spans="2:23">
@@ -16920,10 +16952,10 @@
         <v>1400070</v>
       </c>
       <c r="C165" s="607" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="D165" s="517" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="E165" s="523">
         <v>5450114</v>
@@ -16946,13 +16978,13 @@
       <c r="M165" s="520"/>
       <c r="N165" s="520"/>
       <c r="O165" s="523" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="P165" s="523">
         <v>11</v>
       </c>
       <c r="Q165" s="541" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="R165" s="541">
         <v>45013</v>
@@ -16961,14 +16993,14 @@
         <v>45020</v>
       </c>
       <c r="T165" s="526" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="U165" s="529"/>
       <c r="V165" s="532" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="W165" s="544" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="166" spans="2:23">
@@ -16978,7 +17010,7 @@
       <c r="E166" s="611"/>
       <c r="F166" s="612"/>
       <c r="G166" s="101" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H166" s="11">
         <v>450</v>
@@ -17008,7 +17040,7 @@
       <c r="E167" s="611"/>
       <c r="F167" s="612"/>
       <c r="G167" s="101" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H167" s="11">
         <v>451</v>
@@ -17038,7 +17070,7 @@
       <c r="E168" s="524"/>
       <c r="F168" s="538"/>
       <c r="G168" s="55" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H168" s="11">
         <v>452</v>
@@ -17068,7 +17100,7 @@
       <c r="E169" s="525"/>
       <c r="F169" s="539"/>
       <c r="G169" s="57" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H169" s="59">
         <v>454</v>
@@ -17096,10 +17128,10 @@
         <v>1400071</v>
       </c>
       <c r="C170" s="491" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="D170" s="491" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="E170" s="494">
         <v>5450115</v>
@@ -17108,7 +17140,7 @@
         <v>1</v>
       </c>
       <c r="G170" s="61" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="H170" s="61">
         <v>5010101</v>
@@ -17122,13 +17154,13 @@
       <c r="M170" s="576"/>
       <c r="N170" s="576"/>
       <c r="O170" s="551" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="P170" s="551">
         <v>12</v>
       </c>
       <c r="Q170" s="566" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="R170" s="566">
         <v>45013</v>
@@ -17137,16 +17169,16 @@
         <v>45020</v>
       </c>
       <c r="T170" s="568" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="U170" s="570">
         <v>200</v>
       </c>
       <c r="V170" s="562" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="W170" s="564" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
     </row>
     <row r="171" spans="2:23">
@@ -17186,7 +17218,7 @@
       <c r="E172" s="492"/>
       <c r="F172" s="496"/>
       <c r="G172" s="45" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="H172" s="45">
         <v>5010007</v>
@@ -17216,7 +17248,7 @@
       <c r="E173" s="492"/>
       <c r="F173" s="496"/>
       <c r="G173" s="142" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="H173" s="142">
         <v>5000076</v>
@@ -17274,7 +17306,7 @@
         <v>1400072</v>
       </c>
       <c r="C175" s="517" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="D175" s="517"/>
       <c r="E175" s="523">
@@ -17284,7 +17316,7 @@
         <v>1</v>
       </c>
       <c r="G175" s="52" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H175" s="39">
         <v>1100301</v>
@@ -17298,13 +17330,13 @@
       <c r="M175" s="520"/>
       <c r="N175" s="520"/>
       <c r="O175" s="523" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="P175" s="523">
         <v>7</v>
       </c>
       <c r="Q175" s="541" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="R175" s="541">
         <v>45020</v>
@@ -17313,16 +17345,16 @@
         <v>45027</v>
       </c>
       <c r="T175" s="526" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="U175" s="529">
         <v>200</v>
       </c>
       <c r="V175" s="532" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="W175" s="544" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="176" spans="2:23">
@@ -17332,7 +17364,7 @@
       <c r="E176" s="611"/>
       <c r="F176" s="612"/>
       <c r="G176" s="101" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H176" s="11">
         <v>5200001</v>
@@ -17362,7 +17394,7 @@
       <c r="E177" s="611"/>
       <c r="F177" s="612"/>
       <c r="G177" s="101" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H177" s="11">
         <v>2903</v>
@@ -17392,7 +17424,7 @@
       <c r="E178" s="525"/>
       <c r="F178" s="539"/>
       <c r="G178" s="57" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H178" s="59">
         <v>7201</v>
@@ -17423,7 +17455,7 @@
         <v>1400073</v>
       </c>
       <c r="C179" s="114" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="D179" s="114"/>
       <c r="E179" s="114">
@@ -17431,7 +17463,7 @@
       </c>
       <c r="F179" s="114"/>
       <c r="G179" s="215" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="H179" s="215">
         <v>5000082</v>
@@ -17445,13 +17477,13 @@
       <c r="M179" s="116"/>
       <c r="N179" s="116"/>
       <c r="O179" s="114" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="P179" s="114">
         <v>8</v>
       </c>
       <c r="Q179" s="117" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="R179" s="117">
         <v>45020</v>
@@ -17460,14 +17492,14 @@
         <v>45027</v>
       </c>
       <c r="T179" s="118" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="U179" s="119"/>
       <c r="V179" s="120" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="W179" s="131" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -17475,7 +17507,7 @@
         <v>1400074</v>
       </c>
       <c r="C180" s="517" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="D180" s="517"/>
       <c r="E180" s="523">
@@ -17485,7 +17517,7 @@
         <v>1</v>
       </c>
       <c r="G180" s="52" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H180" s="39">
         <v>1100301</v>
@@ -17499,13 +17531,13 @@
       <c r="M180" s="520"/>
       <c r="N180" s="520"/>
       <c r="O180" s="523" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="P180" s="523">
         <v>9</v>
       </c>
       <c r="Q180" s="541" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="R180" s="541">
         <v>45020</v>
@@ -17514,16 +17546,16 @@
         <v>45027</v>
       </c>
       <c r="T180" s="526" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="U180" s="529">
         <v>200</v>
       </c>
       <c r="V180" s="532" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="W180" s="544" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -17533,7 +17565,7 @@
       <c r="E181" s="611"/>
       <c r="F181" s="612"/>
       <c r="G181" s="101" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H181" s="11">
         <v>5200002</v>
@@ -17563,7 +17595,7 @@
       <c r="E182" s="611"/>
       <c r="F182" s="612"/>
       <c r="G182" s="101" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H182" s="11">
         <v>2903</v>
@@ -17593,7 +17625,7 @@
       <c r="E183" s="525"/>
       <c r="F183" s="539"/>
       <c r="G183" s="57" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="H183" s="59">
         <v>7202</v>
@@ -17624,7 +17656,7 @@
         <v>1400075</v>
       </c>
       <c r="C184" s="114" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="D184" s="114"/>
       <c r="E184" s="114">
@@ -17632,7 +17664,7 @@
       </c>
       <c r="F184" s="114"/>
       <c r="G184" s="215" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="H184" s="215">
         <v>5000082</v>
@@ -17646,13 +17678,13 @@
       <c r="M184" s="116"/>
       <c r="N184" s="116"/>
       <c r="O184" s="114" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="P184" s="114">
         <v>10</v>
       </c>
       <c r="Q184" s="117" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="R184" s="117">
         <v>45020</v>
@@ -17661,14 +17693,14 @@
         <v>45027</v>
       </c>
       <c r="T184" s="118" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="U184" s="119"/>
       <c r="V184" s="120" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="W184" s="131" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -17676,10 +17708,10 @@
         <v>1400076</v>
       </c>
       <c r="C185" s="517" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="D185" s="52" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="E185" s="52">
         <v>980</v>
@@ -17691,10 +17723,10 @@
         <v>21</v>
       </c>
       <c r="H185" s="39" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="I185" s="54" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="J185" s="54"/>
       <c r="K185" s="520"/>
@@ -17702,13 +17734,13 @@
       <c r="M185" s="520"/>
       <c r="N185" s="520"/>
       <c r="O185" s="523" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="P185" s="523">
         <v>2</v>
       </c>
       <c r="Q185" s="541" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="R185" s="541">
         <v>45020</v>
@@ -17717,21 +17749,21 @@
         <v>45027</v>
       </c>
       <c r="T185" s="526" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="U185" s="529"/>
       <c r="V185" s="532" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="W185" s="544" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="186" spans="1:23">
       <c r="B186" s="473"/>
       <c r="C186" s="518"/>
       <c r="D186" s="524" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="E186" s="524">
         <v>5450111</v>
@@ -17740,7 +17772,7 @@
         <v>1</v>
       </c>
       <c r="G186" s="55" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H186" s="11">
         <v>5200001</v>
@@ -17770,7 +17802,7 @@
       <c r="E187" s="525"/>
       <c r="F187" s="539"/>
       <c r="G187" s="57" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="H187" s="59">
         <v>5200002</v>
@@ -17798,10 +17830,10 @@
         <v>1900013</v>
       </c>
       <c r="C188" s="549" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="D188" s="61" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="E188" s="61">
         <v>980</v>
@@ -17818,11 +17850,11 @@
       <c r="M188" s="576"/>
       <c r="N188" s="576"/>
       <c r="O188" s="551" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="P188" s="551"/>
       <c r="Q188" s="566" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="R188" s="566">
         <v>45020</v>
@@ -17831,14 +17863,14 @@
         <v>45027</v>
       </c>
       <c r="T188" s="568" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="U188" s="570"/>
       <c r="V188" s="562" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="W188" s="588" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -17936,10 +17968,10 @@
         <v>1400046</v>
       </c>
       <c r="C192" s="517" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="D192" s="517" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="E192" s="523">
         <v>5450087</v>
@@ -17948,7 +17980,7 @@
         <v>1</v>
       </c>
       <c r="G192" s="52" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="H192" s="39">
         <v>1010005</v>
@@ -17962,13 +17994,13 @@
       <c r="M192" s="520"/>
       <c r="N192" s="520"/>
       <c r="O192" s="523" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="P192" s="523">
         <v>3</v>
       </c>
       <c r="Q192" s="541" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="R192" s="541">
         <v>45020</v>
@@ -17977,14 +18009,14 @@
         <v>45027</v>
       </c>
       <c r="T192" s="526" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="U192" s="529"/>
       <c r="V192" s="532" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="W192" s="535" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -18052,17 +18084,17 @@
         <v>1400047</v>
       </c>
       <c r="C195" s="43" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D195" s="43" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="E195" s="43">
         <v>5450088</v>
       </c>
       <c r="F195" s="43"/>
       <c r="G195" s="43" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="H195" s="43">
         <v>2910</v>
@@ -18076,13 +18108,13 @@
       <c r="M195" s="46"/>
       <c r="N195" s="46"/>
       <c r="O195" s="43" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="P195" s="43">
         <v>4</v>
       </c>
       <c r="Q195" s="47" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="R195" s="47">
         <v>45020</v>
@@ -18091,16 +18123,16 @@
         <v>45027</v>
       </c>
       <c r="T195" s="48" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="U195" s="49">
         <v>200</v>
       </c>
       <c r="V195" s="50" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="W195" s="136" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -18108,13 +18140,13 @@
         <v>1400077</v>
       </c>
       <c r="C196" s="517" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="D196" s="523"/>
       <c r="E196" s="523"/>
       <c r="F196" s="558"/>
       <c r="G196" s="132" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="H196" s="139">
         <v>5450120</v>
@@ -18124,7 +18156,7 @@
       </c>
       <c r="J196" s="225"/>
       <c r="K196" s="52" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="L196" s="52">
         <v>5200001</v>
@@ -18136,31 +18168,31 @@
         <v>0.22</v>
       </c>
       <c r="O196" s="523" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="P196" s="523">
         <v>1</v>
       </c>
       <c r="Q196" s="541" t="s">
-        <v>201</v>
-      </c>
-      <c r="R196" s="629">
+        <v>206</v>
+      </c>
+      <c r="R196" s="621">
         <v>45013</v>
       </c>
-      <c r="S196" s="629">
+      <c r="S196" s="621">
         <v>45020</v>
       </c>
       <c r="T196" s="526" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="U196" s="529">
         <v>80</v>
       </c>
       <c r="V196" s="532" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="W196" s="544" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -18174,7 +18206,7 @@
       <c r="I197" s="560"/>
       <c r="J197" s="226"/>
       <c r="K197" s="55" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="L197" s="101">
         <v>5200002</v>
@@ -18188,8 +18220,8 @@
       <c r="O197" s="524"/>
       <c r="P197" s="524"/>
       <c r="Q197" s="542"/>
-      <c r="R197" s="630"/>
-      <c r="S197" s="630"/>
+      <c r="R197" s="622"/>
+      <c r="S197" s="622"/>
       <c r="T197" s="527"/>
       <c r="U197" s="530"/>
       <c r="V197" s="533"/>
@@ -18206,7 +18238,7 @@
       <c r="I198" s="560"/>
       <c r="J198" s="226"/>
       <c r="K198" s="55" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="L198" s="101">
         <v>5200003</v>
@@ -18220,8 +18252,8 @@
       <c r="O198" s="524"/>
       <c r="P198" s="524"/>
       <c r="Q198" s="542"/>
-      <c r="R198" s="630"/>
-      <c r="S198" s="630"/>
+      <c r="R198" s="622"/>
+      <c r="S198" s="622"/>
       <c r="T198" s="527"/>
       <c r="U198" s="530"/>
       <c r="V198" s="533"/>
@@ -18238,7 +18270,7 @@
       <c r="I199" s="560"/>
       <c r="J199" s="226"/>
       <c r="K199" s="55" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="L199" s="101">
         <v>5210001</v>
@@ -18252,8 +18284,8 @@
       <c r="O199" s="524"/>
       <c r="P199" s="524"/>
       <c r="Q199" s="542"/>
-      <c r="R199" s="630"/>
-      <c r="S199" s="630"/>
+      <c r="R199" s="622"/>
+      <c r="S199" s="622"/>
       <c r="T199" s="527"/>
       <c r="U199" s="530"/>
       <c r="V199" s="533"/>
@@ -18270,7 +18302,7 @@
       <c r="I200" s="560"/>
       <c r="J200" s="226"/>
       <c r="K200" s="55" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="L200" s="101">
         <v>5210002</v>
@@ -18284,8 +18316,8 @@
       <c r="O200" s="524"/>
       <c r="P200" s="524"/>
       <c r="Q200" s="542"/>
-      <c r="R200" s="630"/>
-      <c r="S200" s="630"/>
+      <c r="R200" s="622"/>
+      <c r="S200" s="622"/>
       <c r="T200" s="527"/>
       <c r="U200" s="530"/>
       <c r="V200" s="533"/>
@@ -18305,7 +18337,7 @@
       <c r="I201" s="560"/>
       <c r="J201" s="226"/>
       <c r="K201" s="142" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="L201" s="142">
         <v>5030007</v>
@@ -18319,25 +18351,25 @@
       <c r="O201" s="524"/>
       <c r="P201" s="524"/>
       <c r="Q201" s="542"/>
-      <c r="R201" s="630"/>
-      <c r="S201" s="630"/>
+      <c r="R201" s="622"/>
+      <c r="S201" s="622"/>
       <c r="T201" s="527"/>
       <c r="U201" s="530"/>
       <c r="V201" s="533"/>
       <c r="W201" s="545"/>
     </row>
     <row r="202" spans="1:23">
-      <c r="B202" s="621"/>
-      <c r="C202" s="622"/>
-      <c r="D202" s="623"/>
-      <c r="E202" s="623"/>
-      <c r="F202" s="624"/>
+      <c r="B202" s="626"/>
+      <c r="C202" s="627"/>
+      <c r="D202" s="628"/>
+      <c r="E202" s="628"/>
+      <c r="F202" s="629"/>
       <c r="G202" s="103"/>
       <c r="H202" s="140"/>
       <c r="I202" s="560"/>
       <c r="J202" s="226"/>
       <c r="K202" s="105" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="L202" s="101">
         <v>5210003</v>
@@ -18348,15 +18380,15 @@
       <c r="N202" s="104">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="O202" s="623"/>
-      <c r="P202" s="623"/>
-      <c r="Q202" s="628"/>
-      <c r="R202" s="631"/>
-      <c r="S202" s="631"/>
-      <c r="T202" s="633"/>
-      <c r="U202" s="625"/>
-      <c r="V202" s="626"/>
-      <c r="W202" s="627"/>
+      <c r="O202" s="628"/>
+      <c r="P202" s="628"/>
+      <c r="Q202" s="633"/>
+      <c r="R202" s="623"/>
+      <c r="S202" s="623"/>
+      <c r="T202" s="625"/>
+      <c r="U202" s="630"/>
+      <c r="V202" s="631"/>
+      <c r="W202" s="632"/>
     </row>
     <row r="203" spans="1:23">
       <c r="B203" s="557"/>
@@ -18369,7 +18401,7 @@
       <c r="I203" s="561"/>
       <c r="J203" s="227"/>
       <c r="K203" s="57" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="L203" s="134">
         <v>5220004</v>
@@ -18383,8 +18415,8 @@
       <c r="O203" s="525"/>
       <c r="P203" s="525"/>
       <c r="Q203" s="543"/>
-      <c r="R203" s="632"/>
-      <c r="S203" s="632"/>
+      <c r="R203" s="624"/>
+      <c r="S203" s="624"/>
       <c r="T203" s="528"/>
       <c r="U203" s="531"/>
       <c r="V203" s="534"/>
@@ -18468,7 +18500,7 @@
     <row r="207" spans="1:23">
       <c r="A207" s="212"/>
       <c r="B207" s="645"/>
-      <c r="C207" s="252"/>
+      <c r="C207" s="249"/>
       <c r="D207" s="239"/>
       <c r="E207" s="239"/>
       <c r="F207" s="239"/>
@@ -18493,7 +18525,7 @@
     <row r="208" spans="1:23">
       <c r="A208" s="212"/>
       <c r="B208" s="648"/>
-      <c r="C208" s="253"/>
+      <c r="C208" s="250"/>
       <c r="D208" s="239"/>
       <c r="E208" s="239"/>
       <c r="F208" s="239"/>
@@ -18518,7 +18550,7 @@
     <row r="209" spans="1:23">
       <c r="A209" s="212"/>
       <c r="B209" s="648"/>
-      <c r="C209" s="253"/>
+      <c r="C209" s="250"/>
       <c r="D209" s="241"/>
       <c r="E209" s="241"/>
       <c r="F209" s="241"/>
@@ -18543,7 +18575,7 @@
     <row r="210" spans="1:23">
       <c r="A210" s="212"/>
       <c r="B210" s="650"/>
-      <c r="C210" s="254"/>
+      <c r="C210" s="251"/>
       <c r="D210" s="242"/>
       <c r="E210" s="242"/>
       <c r="F210" s="242"/>
@@ -18843,8 +18875,8 @@
     <row r="222" spans="1:23">
       <c r="A222" s="212"/>
       <c r="B222" s="638"/>
-      <c r="C222" s="248"/>
-      <c r="D222" s="248"/>
+      <c r="C222" s="253"/>
+      <c r="D222" s="253"/>
       <c r="E222" s="639"/>
       <c r="F222" s="639"/>
       <c r="G222" s="234"/>
@@ -18868,8 +18900,8 @@
     <row r="223" spans="1:23">
       <c r="A223" s="212"/>
       <c r="B223" s="638"/>
-      <c r="C223" s="248"/>
-      <c r="D223" s="248"/>
+      <c r="C223" s="253"/>
+      <c r="D223" s="253"/>
       <c r="E223" s="639"/>
       <c r="F223" s="639"/>
       <c r="G223" s="234"/>
@@ -18893,8 +18925,8 @@
     <row r="224" spans="1:23">
       <c r="A224" s="212"/>
       <c r="B224" s="638"/>
-      <c r="C224" s="248"/>
-      <c r="D224" s="248"/>
+      <c r="C224" s="253"/>
+      <c r="D224" s="253"/>
       <c r="E224" s="639"/>
       <c r="F224" s="639"/>
       <c r="G224" s="234"/>
@@ -18918,8 +18950,8 @@
     <row r="225" spans="1:23">
       <c r="A225" s="212"/>
       <c r="B225" s="638"/>
-      <c r="C225" s="248"/>
-      <c r="D225" s="248"/>
+      <c r="C225" s="253"/>
+      <c r="D225" s="253"/>
       <c r="E225" s="639"/>
       <c r="F225" s="639"/>
       <c r="G225" s="234"/>
@@ -18943,8 +18975,8 @@
     <row r="226" spans="1:23">
       <c r="A226" s="212"/>
       <c r="B226" s="654"/>
-      <c r="C226" s="249"/>
-      <c r="D226" s="249"/>
+      <c r="C226" s="254"/>
+      <c r="D226" s="254"/>
       <c r="E226" s="655"/>
       <c r="F226" s="655"/>
       <c r="G226" s="238"/>
@@ -19327,8 +19359,7 @@
     <mergeCell ref="W207:W210"/>
     <mergeCell ref="B204:B206"/>
     <mergeCell ref="C204:C206"/>
-    <mergeCell ref="U211:U217"/>
-    <mergeCell ref="V211:V217"/>
+    <mergeCell ref="K207:K210"/>
     <mergeCell ref="W211:W217"/>
     <mergeCell ref="B211:B217"/>
     <mergeCell ref="C211:C217"/>
@@ -19338,6 +19369,8 @@
     <mergeCell ref="G211:G217"/>
     <mergeCell ref="H211:H217"/>
     <mergeCell ref="I211:I217"/>
+    <mergeCell ref="J211:J217"/>
+    <mergeCell ref="O211:O217"/>
     <mergeCell ref="B218:B221"/>
     <mergeCell ref="C218:C221"/>
     <mergeCell ref="D218:D221"/>
@@ -19347,6 +19380,7 @@
     <mergeCell ref="L218:L221"/>
     <mergeCell ref="M218:M221"/>
     <mergeCell ref="N218:N221"/>
+    <mergeCell ref="J218:J221"/>
     <mergeCell ref="W218:W221"/>
     <mergeCell ref="B222:B226"/>
     <mergeCell ref="C222:C226"/>
@@ -19371,10 +19405,6 @@
     <mergeCell ref="R218:R221"/>
     <mergeCell ref="S218:S221"/>
     <mergeCell ref="T218:T221"/>
-    <mergeCell ref="K207:K210"/>
-    <mergeCell ref="J211:J217"/>
-    <mergeCell ref="O211:O217"/>
-    <mergeCell ref="J218:J221"/>
     <mergeCell ref="K222:K226"/>
     <mergeCell ref="T204:T206"/>
     <mergeCell ref="U204:U206"/>
@@ -19395,6 +19425,8 @@
     <mergeCell ref="R211:R217"/>
     <mergeCell ref="S211:S217"/>
     <mergeCell ref="T211:T217"/>
+    <mergeCell ref="U211:U217"/>
+    <mergeCell ref="V211:V217"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19403,15 +19435,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100035D89899FF2E144AC5CDF3E0C05E410" ma:contentTypeVersion="13" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="c9fd8eca086ce0b1d107e2b3545271c5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7b850dbe-2bbc-4312-b635-0ac631df3b32" xmlns:ns3="1e91ce72-769a-45b6-b2e9-1e3503954573" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="32feda35c5f9fbcce1e6de1bd5c59630" ns2:_="" ns3:_="">
     <xsd:import namespace="7b850dbe-2bbc-4312-b635-0ac631df3b32"/>
@@ -19634,10 +19657,19 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85F68AE9-43FE-4D44-BC93-B6CB31829C7B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28DB30BA-1680-4DB9-943D-A53190EB640D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28DB30BA-1680-4DB9-943D-A53190EB640D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85F68AE9-43FE-4D44-BC93-B6CB31829C7B}"/>
 </file>
--- a/유료상점DATA_TW.xlsx
+++ b/유료상점DATA_TW.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26424"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://webzen.sharepoint.com/sites/R2M/Shared Documents/R2M전용도구/유료상점CL생성기/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="142" documentId="13_ncr:1_{DD6CDF46-F29E-4F77-8D95-FB470842B4F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EE4393E-41E5-4C62-AB60-08C9AF5170FB}"/>
+  <xr:revisionPtr revIDLastSave="152" documentId="13_ncr:1_{DD6CDF46-F29E-4F77-8D95-FB470842B4F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{279B0E3D-B4EB-48A3-8467-56773991981B}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6F2C3106-E9E5-4E5A-A43E-54D895F8835E}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1377" uniqueCount="508">
   <si>
     <t>추가일자</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -177,8 +177,7 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>카드</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <t>일반</t>
   </si>
   <si>
     <t>상시판매</t>
@@ -219,6 +218,23 @@
   <si>
     <t>100다이아</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>신규 상품</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+누적 다이아 비율 5%
+당첨자 확률 0.01%</t>
+    </r>
   </si>
   <si>
     <t>신뢰의 유피테르 계약서 상자</t>
@@ -1898,6 +1914,10 @@
   </si>
   <si>
     <t>욕망의 릴리스 서번트 뽑기 1회</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -2085,7 +2105,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2143,6 +2163,12 @@
       <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -3527,9 +3553,6 @@
     <xf numFmtId="177" fontId="11" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3722,6 +3745,9 @@
     <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4001,14 +4027,14 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4322,6 +4348,42 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4335,42 +4397,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5743,11 +5769,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12EF101E-9A90-43A3-8ACD-AC507422B694}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:W128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="H2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S15" sqref="S15:S17"/>
+      <pane ySplit="1" topLeftCell="G9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W22" sqref="W22:W26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5837,7 +5864,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" hidden="1">
       <c r="B2" s="325">
         <v>1400067</v>
       </c>
@@ -5893,7 +5920,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" hidden="1">
       <c r="B3" s="326"/>
       <c r="C3" s="329"/>
       <c r="D3" s="349" t="s">
@@ -5929,7 +5956,7 @@
       <c r="V3" s="344"/>
       <c r="W3" s="347"/>
     </row>
-    <row r="4" spans="1:23" ht="17.25" thickBot="1">
+    <row r="4" spans="1:23" ht="17.25" hidden="1" thickBot="1">
       <c r="B4" s="327"/>
       <c r="C4" s="330"/>
       <c r="D4" s="350"/>
@@ -5959,7 +5986,7 @@
       <c r="V4" s="345"/>
       <c r="W4" s="348"/>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" hidden="1">
       <c r="B5" s="390">
         <v>1900013</v>
       </c>
@@ -6007,7 +6034,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" hidden="1">
       <c r="B6" s="391"/>
       <c r="C6" s="367"/>
       <c r="D6" s="45" t="s">
@@ -6037,7 +6064,7 @@
       <c r="V6" s="361"/>
       <c r="W6" s="364"/>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" hidden="1">
       <c r="B7" s="391"/>
       <c r="C7" s="367"/>
       <c r="D7" s="51" t="s">
@@ -6067,7 +6094,7 @@
       <c r="V7" s="361"/>
       <c r="W7" s="364"/>
     </row>
-    <row r="8" spans="1:23" ht="17.25" thickBot="1">
+    <row r="8" spans="1:23" ht="17.25" hidden="1" thickBot="1">
       <c r="B8" s="392"/>
       <c r="C8" s="368"/>
       <c r="D8" s="91" t="s">
@@ -6098,6 +6125,9 @@
       <c r="W8" s="365"/>
     </row>
     <row r="9" spans="1:23" ht="17.25" thickBot="1">
+      <c r="A9" s="214">
+        <v>45044</v>
+      </c>
       <c r="B9" s="254">
         <v>1200030</v>
       </c>
@@ -6119,7 +6149,7 @@
       <c r="L9" s="257"/>
       <c r="M9" s="258"/>
       <c r="N9" s="259"/>
-      <c r="O9" s="260" t="s">
+      <c r="O9" s="324" t="s">
         <v>38</v>
       </c>
       <c r="P9" s="257"/>
@@ -6129,7 +6159,7 @@
       <c r="R9" s="249">
         <v>45062</v>
       </c>
-      <c r="S9" s="261" t="s">
+      <c r="S9" s="260" t="s">
         <v>39</v>
       </c>
       <c r="T9" s="250" t="s">
@@ -6141,7 +6171,7 @@
       <c r="V9" s="252" t="s">
         <v>21</v>
       </c>
-      <c r="W9" s="262" t="s">
+      <c r="W9" s="261" t="s">
         <v>41</v>
       </c>
     </row>
@@ -6174,7 +6204,7 @@
       <c r="M10" s="61">
         <v>1</v>
       </c>
-      <c r="N10" s="263">
+      <c r="N10" s="262">
         <v>0.85</v>
       </c>
       <c r="O10" s="366" t="s">
@@ -6205,7 +6235,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" hidden="1">
       <c r="B11" s="379"/>
       <c r="C11" s="382"/>
       <c r="D11" s="382"/>
@@ -6224,7 +6254,7 @@
       <c r="M11" s="45">
         <v>2</v>
       </c>
-      <c r="N11" s="264">
+      <c r="N11" s="263">
         <v>0.06</v>
       </c>
       <c r="O11" s="367"/>
@@ -6237,7 +6267,7 @@
       <c r="V11" s="376"/>
       <c r="W11" s="395"/>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" hidden="1">
       <c r="B12" s="379"/>
       <c r="C12" s="382"/>
       <c r="D12" s="382"/>
@@ -6256,7 +6286,7 @@
       <c r="M12" s="45">
         <v>3</v>
       </c>
-      <c r="N12" s="264">
+      <c r="N12" s="263">
         <v>0.04</v>
       </c>
       <c r="O12" s="367"/>
@@ -6269,7 +6299,7 @@
       <c r="V12" s="376"/>
       <c r="W12" s="395"/>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" hidden="1">
       <c r="B13" s="379"/>
       <c r="C13" s="382"/>
       <c r="D13" s="382"/>
@@ -6288,7 +6318,7 @@
       <c r="M13" s="45">
         <v>4</v>
       </c>
-      <c r="N13" s="264">
+      <c r="N13" s="263">
         <v>0.03</v>
       </c>
       <c r="O13" s="367"/>
@@ -6301,7 +6331,7 @@
       <c r="V13" s="376"/>
       <c r="W13" s="395"/>
     </row>
-    <row r="14" spans="1:23" ht="17.25" thickBot="1">
+    <row r="14" spans="1:23" hidden="1">
       <c r="B14" s="380"/>
       <c r="C14" s="383"/>
       <c r="D14" s="383"/>
@@ -6320,7 +6350,7 @@
       <c r="M14" s="51">
         <v>5</v>
       </c>
-      <c r="N14" s="265">
+      <c r="N14" s="264">
         <v>0.02</v>
       </c>
       <c r="O14" s="367"/>
@@ -6333,17 +6363,20 @@
       <c r="V14" s="376"/>
       <c r="W14" s="395"/>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" hidden="1">
+      <c r="A15" s="214">
+        <v>45044</v>
+      </c>
       <c r="B15" s="402">
         <v>1400084</v>
       </c>
       <c r="C15" s="328" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="266" t="s">
+      <c r="D15" s="265" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="267">
+      <c r="E15" s="266">
         <v>5450127</v>
       </c>
       <c r="F15" s="39">
@@ -6380,14 +6413,14 @@
         <v>21</v>
       </c>
       <c r="W15" s="418" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" hidden="1">
       <c r="B16" s="403"/>
       <c r="C16" s="329"/>
-      <c r="D16" s="268" t="s">
-        <v>49</v>
+      <c r="D16" s="267" t="s">
+        <v>50</v>
       </c>
       <c r="E16" s="11">
         <v>1100009</v>
@@ -6413,11 +6446,11 @@
       <c r="V16" s="355"/>
       <c r="W16" s="419"/>
     </row>
-    <row r="17" spans="2:23" ht="17.25" thickBot="1">
+    <row r="17" spans="2:23" hidden="1">
       <c r="B17" s="404"/>
       <c r="C17" s="330"/>
-      <c r="D17" s="269" t="s">
-        <v>50</v>
+      <c r="D17" s="268" t="s">
+        <v>51</v>
       </c>
       <c r="E17" s="59">
         <v>5020001</v>
@@ -6443,36 +6476,36 @@
       <c r="V17" s="356"/>
       <c r="W17" s="420"/>
     </row>
-    <row r="18" spans="2:23" ht="17.25" thickBot="1">
-      <c r="B18" s="271"/>
-      <c r="C18" s="271"/>
-      <c r="D18" s="271"/>
-      <c r="E18" s="271"/>
-      <c r="F18" s="271"/>
-      <c r="G18" s="272"/>
-      <c r="H18" s="271"/>
-      <c r="I18" s="271"/>
-      <c r="J18" s="271"/>
-      <c r="K18" s="272"/>
-      <c r="L18" s="271"/>
-      <c r="M18" s="271"/>
-      <c r="N18" s="273"/>
-      <c r="O18" s="271"/>
-      <c r="P18" s="271"/>
-      <c r="Q18" s="274"/>
-      <c r="R18" s="274"/>
-      <c r="S18" s="274"/>
-      <c r="T18" s="274"/>
-      <c r="U18" s="271"/>
-      <c r="V18" s="274"/>
-      <c r="W18" s="275"/>
+    <row r="18" spans="2:23">
+      <c r="B18" s="270"/>
+      <c r="C18" s="270"/>
+      <c r="D18" s="270"/>
+      <c r="E18" s="270"/>
+      <c r="F18" s="270"/>
+      <c r="G18" s="271"/>
+      <c r="H18" s="270"/>
+      <c r="I18" s="270"/>
+      <c r="J18" s="270"/>
+      <c r="K18" s="271"/>
+      <c r="L18" s="270"/>
+      <c r="M18" s="270"/>
+      <c r="N18" s="272"/>
+      <c r="O18" s="270"/>
+      <c r="P18" s="270"/>
+      <c r="Q18" s="273"/>
+      <c r="R18" s="273"/>
+      <c r="S18" s="273"/>
+      <c r="T18" s="273"/>
+      <c r="U18" s="270"/>
+      <c r="V18" s="273"/>
+      <c r="W18" s="274"/>
     </row>
     <row r="19" spans="2:23">
       <c r="B19" s="421">
         <v>1400044</v>
       </c>
       <c r="C19" s="381" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D19" s="61" t="s">
         <v>20</v>
@@ -6484,7 +6517,7 @@
         <v>2000</v>
       </c>
       <c r="G19" s="61" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H19" s="61" t="s">
         <v>21</v>
@@ -6527,7 +6560,7 @@
       <c r="B20" s="422"/>
       <c r="C20" s="382"/>
       <c r="D20" s="382" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20" s="382">
         <v>5450086</v>
@@ -6566,7 +6599,7 @@
       <c r="E21" s="423"/>
       <c r="F21" s="423"/>
       <c r="G21" s="91" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H21" s="91">
         <v>5020101</v>
@@ -6594,10 +6627,10 @@
         <v>1400070</v>
       </c>
       <c r="C22" s="424" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D22" s="427" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E22" s="430">
         <v>5450114</v>
@@ -6606,7 +6639,7 @@
         <v>1</v>
       </c>
       <c r="G22" s="52" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H22" s="39">
         <v>600019</v>
@@ -6635,11 +6668,11 @@
         <v>45076</v>
       </c>
       <c r="T22" s="449" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U22" s="452"/>
       <c r="V22" s="434" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W22" s="437" t="s">
         <v>26</v>
@@ -6652,7 +6685,7 @@
       <c r="E23" s="431"/>
       <c r="F23" s="431"/>
       <c r="G23" s="101" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H23" s="11">
         <v>450</v>
@@ -6682,7 +6715,7 @@
       <c r="E24" s="431"/>
       <c r="F24" s="431"/>
       <c r="G24" s="101" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H24" s="11">
         <v>451</v>
@@ -6712,7 +6745,7 @@
       <c r="E25" s="432"/>
       <c r="F25" s="432"/>
       <c r="G25" s="55" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H25" s="11">
         <v>452</v>
@@ -6742,7 +6775,7 @@
       <c r="E26" s="433"/>
       <c r="F26" s="433"/>
       <c r="G26" s="57" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H26" s="59">
         <v>454</v>
@@ -6770,10 +6803,10 @@
         <v>1400071</v>
       </c>
       <c r="C27" s="393" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D27" s="393" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E27" s="366">
         <v>5450115</v>
@@ -6782,7 +6815,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="61" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H27" s="61">
         <v>5010101</v>
@@ -6817,7 +6850,7 @@
         <v>200</v>
       </c>
       <c r="V27" s="464" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W27" s="416" t="s">
         <v>26</v>
@@ -6860,7 +6893,7 @@
       <c r="E29" s="367"/>
       <c r="F29" s="367"/>
       <c r="G29" s="45" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H29" s="45">
         <v>5010007</v>
@@ -6890,7 +6923,7 @@
       <c r="E30" s="367"/>
       <c r="F30" s="367"/>
       <c r="G30" s="45" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H30" s="45">
         <v>5000076</v>
@@ -6920,7 +6953,7 @@
       <c r="E31" s="368"/>
       <c r="F31" s="368"/>
       <c r="G31" s="91" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H31" s="91">
         <v>952</v>
@@ -6948,10 +6981,10 @@
         <v>1400085</v>
       </c>
       <c r="C32" s="470" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D32" s="328" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E32" s="408">
         <v>5450128</v>
@@ -6960,7 +6993,7 @@
         <v>1</v>
       </c>
       <c r="G32" s="39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H32" s="39">
         <v>701</v>
@@ -6995,10 +7028,10 @@
         <v>200</v>
       </c>
       <c r="V32" s="477" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W32" s="481" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="2:23" ht="17.25" thickBot="1">
@@ -7008,7 +7041,7 @@
       <c r="E33" s="410"/>
       <c r="F33" s="330"/>
       <c r="G33" s="59" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H33" s="59">
         <v>952</v>
@@ -7016,7 +7049,7 @@
       <c r="I33" s="59">
         <v>275000</v>
       </c>
-      <c r="J33" s="270"/>
+      <c r="J33" s="269"/>
       <c r="K33" s="472"/>
       <c r="L33" s="410"/>
       <c r="M33" s="472"/>
@@ -7036,13 +7069,13 @@
         <v>1400082</v>
       </c>
       <c r="C34" s="366" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D34" s="366"/>
       <c r="E34" s="366"/>
       <c r="F34" s="366"/>
       <c r="G34" s="366" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H34" s="366">
         <v>5450125</v>
@@ -7052,7 +7085,7 @@
       </c>
       <c r="J34" s="366"/>
       <c r="K34" s="63" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L34" s="61">
         <v>300</v>
@@ -7060,7 +7093,7 @@
       <c r="M34" s="61">
         <v>1</v>
       </c>
-      <c r="N34" s="276">
+      <c r="N34" s="275">
         <v>0.25519999999999998</v>
       </c>
       <c r="O34" s="366" t="s">
@@ -7079,13 +7112,13 @@
         <v>45076</v>
       </c>
       <c r="T34" s="387" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U34" s="357">
         <v>80</v>
       </c>
       <c r="V34" s="360" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W34" s="363" t="s">
         <v>26</v>
@@ -7102,7 +7135,7 @@
       <c r="I35" s="367"/>
       <c r="J35" s="367"/>
       <c r="K35" s="83" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L35" s="45">
         <v>310</v>
@@ -7110,7 +7143,7 @@
       <c r="M35" s="45">
         <v>1</v>
       </c>
-      <c r="N35" s="277">
+      <c r="N35" s="276">
         <v>3.6999999999999998E-2</v>
       </c>
       <c r="O35" s="367"/>
@@ -7134,7 +7167,7 @@
       <c r="I36" s="367"/>
       <c r="J36" s="367"/>
       <c r="K36" s="83" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L36" s="45">
         <v>320</v>
@@ -7142,7 +7175,7 @@
       <c r="M36" s="45">
         <v>1</v>
       </c>
-      <c r="N36" s="277">
+      <c r="N36" s="276">
         <v>0.04</v>
       </c>
       <c r="O36" s="367"/>
@@ -7166,7 +7199,7 @@
       <c r="I37" s="367"/>
       <c r="J37" s="367"/>
       <c r="K37" s="83" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L37" s="45">
         <v>600</v>
@@ -7174,7 +7207,7 @@
       <c r="M37" s="45">
         <v>1</v>
       </c>
-      <c r="N37" s="277">
+      <c r="N37" s="276">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="O37" s="367"/>
@@ -7198,7 +7231,7 @@
       <c r="I38" s="367"/>
       <c r="J38" s="367"/>
       <c r="K38" s="83" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L38" s="45">
         <v>301</v>
@@ -7206,7 +7239,7 @@
       <c r="M38" s="45">
         <v>1</v>
       </c>
-      <c r="N38" s="277">
+      <c r="N38" s="276">
         <v>0.25</v>
       </c>
       <c r="O38" s="367"/>
@@ -7230,7 +7263,7 @@
       <c r="I39" s="367"/>
       <c r="J39" s="367"/>
       <c r="K39" s="83" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L39" s="45">
         <v>311</v>
@@ -7238,7 +7271,7 @@
       <c r="M39" s="45">
         <v>1</v>
       </c>
-      <c r="N39" s="277">
+      <c r="N39" s="276">
         <v>0.04</v>
       </c>
       <c r="O39" s="367"/>
@@ -7262,7 +7295,7 @@
       <c r="I40" s="367"/>
       <c r="J40" s="367"/>
       <c r="K40" s="83" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L40" s="45">
         <v>321</v>
@@ -7270,7 +7303,7 @@
       <c r="M40" s="45">
         <v>1</v>
       </c>
-      <c r="N40" s="277">
+      <c r="N40" s="276">
         <v>0.05</v>
       </c>
       <c r="O40" s="367"/>
@@ -7294,7 +7327,7 @@
       <c r="I41" s="367"/>
       <c r="J41" s="367"/>
       <c r="K41" s="83" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L41" s="45">
         <v>601</v>
@@ -7302,7 +7335,7 @@
       <c r="M41" s="45">
         <v>1</v>
       </c>
-      <c r="N41" s="277">
+      <c r="N41" s="276">
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="O41" s="367"/>
@@ -7326,7 +7359,7 @@
       <c r="I42" s="367"/>
       <c r="J42" s="367"/>
       <c r="K42" s="83" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L42" s="45">
         <v>302</v>
@@ -7334,7 +7367,7 @@
       <c r="M42" s="45">
         <v>1</v>
       </c>
-      <c r="N42" s="277">
+      <c r="N42" s="276">
         <v>0.25</v>
       </c>
       <c r="O42" s="367"/>
@@ -7358,7 +7391,7 @@
       <c r="I43" s="367"/>
       <c r="J43" s="367"/>
       <c r="K43" s="83" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L43" s="45">
         <v>312</v>
@@ -7366,7 +7399,7 @@
       <c r="M43" s="45">
         <v>1</v>
       </c>
-      <c r="N43" s="277">
+      <c r="N43" s="276">
         <v>3.6999999999999998E-2</v>
       </c>
       <c r="O43" s="367"/>
@@ -7390,7 +7423,7 @@
       <c r="I44" s="367"/>
       <c r="J44" s="367"/>
       <c r="K44" s="83" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L44" s="45">
         <v>322</v>
@@ -7398,7 +7431,7 @@
       <c r="M44" s="45">
         <v>1</v>
       </c>
-      <c r="N44" s="277">
+      <c r="N44" s="276">
         <v>0.04</v>
       </c>
       <c r="O44" s="367"/>
@@ -7422,7 +7455,7 @@
       <c r="I45" s="368"/>
       <c r="J45" s="368"/>
       <c r="K45" s="94" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L45" s="91">
         <v>602</v>
@@ -7430,7 +7463,7 @@
       <c r="M45" s="91">
         <v>1</v>
       </c>
-      <c r="N45" s="278">
+      <c r="N45" s="277">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="O45" s="368"/>
@@ -7444,38 +7477,38 @@
       <c r="W45" s="365"/>
     </row>
     <row r="46" spans="2:23" ht="17.25" thickBot="1">
-      <c r="B46" s="279"/>
-      <c r="C46" s="279"/>
-      <c r="D46" s="279"/>
-      <c r="E46" s="279"/>
-      <c r="F46" s="279"/>
-      <c r="G46" s="279"/>
-      <c r="H46" s="279"/>
-      <c r="I46" s="279"/>
-      <c r="J46" s="279"/>
-      <c r="K46" s="280"/>
-      <c r="L46" s="279"/>
-      <c r="M46" s="279"/>
-      <c r="N46" s="281"/>
-      <c r="O46" s="279"/>
-      <c r="P46" s="279"/>
-      <c r="Q46" s="282"/>
-      <c r="R46" s="282"/>
-      <c r="S46" s="282"/>
-      <c r="T46" s="283"/>
-      <c r="U46" s="284"/>
-      <c r="V46" s="285"/>
-      <c r="W46" s="286"/>
+      <c r="B46" s="278"/>
+      <c r="C46" s="278"/>
+      <c r="D46" s="278"/>
+      <c r="E46" s="278"/>
+      <c r="F46" s="278"/>
+      <c r="G46" s="278"/>
+      <c r="H46" s="278"/>
+      <c r="I46" s="278"/>
+      <c r="J46" s="278"/>
+      <c r="K46" s="279"/>
+      <c r="L46" s="278"/>
+      <c r="M46" s="278"/>
+      <c r="N46" s="280"/>
+      <c r="O46" s="278"/>
+      <c r="P46" s="278"/>
+      <c r="Q46" s="281"/>
+      <c r="R46" s="281"/>
+      <c r="S46" s="281"/>
+      <c r="T46" s="282"/>
+      <c r="U46" s="283"/>
+      <c r="V46" s="284"/>
+      <c r="W46" s="285"/>
     </row>
     <row r="47" spans="2:23" ht="16.5" customHeight="1">
       <c r="B47" s="402">
         <v>1900028</v>
       </c>
       <c r="C47" s="328" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D47" s="39" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E47" s="39">
         <v>5010001</v>
@@ -7492,24 +7525,24 @@
       <c r="M47" s="408"/>
       <c r="N47" s="491"/>
       <c r="O47" s="399" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P47" s="328"/>
       <c r="Q47" s="354" t="s">
         <v>23</v>
       </c>
       <c r="R47" s="489" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="S47" s="489" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="T47" s="337" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="U47" s="340"/>
       <c r="V47" s="343" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W47" s="483" t="s">
         <v>41</v>
@@ -7519,7 +7552,7 @@
       <c r="B48" s="403"/>
       <c r="C48" s="329"/>
       <c r="D48" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E48" s="11">
         <v>150</v>
@@ -7549,7 +7582,7 @@
       <c r="B49" s="403"/>
       <c r="C49" s="329"/>
       <c r="D49" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E49" s="11">
         <v>260</v>
@@ -7579,7 +7612,7 @@
       <c r="B50" s="403"/>
       <c r="C50" s="329"/>
       <c r="D50" s="11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E50" s="11">
         <v>270</v>
@@ -7609,7 +7642,7 @@
       <c r="B51" s="403"/>
       <c r="C51" s="329"/>
       <c r="D51" s="137" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E51" s="137">
         <v>61</v>
@@ -7639,7 +7672,7 @@
       <c r="B52" s="404"/>
       <c r="C52" s="330"/>
       <c r="D52" s="59" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E52" s="59">
         <v>110</v>
@@ -7666,28 +7699,28 @@
       <c r="W52" s="485"/>
     </row>
     <row r="53" spans="2:23" ht="17.25" thickBot="1">
-      <c r="B53" s="271"/>
-      <c r="C53" s="271"/>
-      <c r="D53" s="271"/>
-      <c r="E53" s="271"/>
-      <c r="F53" s="271"/>
-      <c r="G53" s="271"/>
-      <c r="H53" s="271"/>
-      <c r="I53" s="271"/>
-      <c r="J53" s="271"/>
-      <c r="K53" s="287"/>
-      <c r="L53" s="271"/>
-      <c r="M53" s="271"/>
-      <c r="N53" s="288"/>
-      <c r="O53" s="271"/>
-      <c r="P53" s="271"/>
-      <c r="Q53" s="274"/>
-      <c r="R53" s="274"/>
-      <c r="S53" s="274"/>
-      <c r="T53" s="289"/>
-      <c r="U53" s="290"/>
-      <c r="V53" s="291"/>
-      <c r="W53" s="292"/>
+      <c r="B53" s="270"/>
+      <c r="C53" s="270"/>
+      <c r="D53" s="270"/>
+      <c r="E53" s="270"/>
+      <c r="F53" s="270"/>
+      <c r="G53" s="270"/>
+      <c r="H53" s="270"/>
+      <c r="I53" s="270"/>
+      <c r="J53" s="270"/>
+      <c r="K53" s="286"/>
+      <c r="L53" s="270"/>
+      <c r="M53" s="270"/>
+      <c r="N53" s="287"/>
+      <c r="O53" s="270"/>
+      <c r="P53" s="270"/>
+      <c r="Q53" s="273"/>
+      <c r="R53" s="273"/>
+      <c r="S53" s="273"/>
+      <c r="T53" s="288"/>
+      <c r="U53" s="289"/>
+      <c r="V53" s="290"/>
+      <c r="W53" s="291"/>
     </row>
     <row r="54" spans="2:23">
       <c r="B54" s="421">
@@ -7706,7 +7739,7 @@
         <v>2000</v>
       </c>
       <c r="G54" s="61" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H54" s="61" t="s">
         <v>21</v>
@@ -7954,13 +7987,13 @@
         <v>1400079</v>
       </c>
       <c r="C61" s="498" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D61" s="498"/>
       <c r="E61" s="498"/>
       <c r="F61" s="498"/>
       <c r="G61" s="498" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H61" s="498">
         <v>5450122</v>
@@ -7969,16 +8002,16 @@
         <v>11</v>
       </c>
       <c r="J61" s="498"/>
-      <c r="K61" s="293" t="s">
-        <v>105</v>
-      </c>
-      <c r="L61" s="294">
+      <c r="K61" s="292" t="s">
+        <v>106</v>
+      </c>
+      <c r="L61" s="293">
         <v>3800</v>
       </c>
-      <c r="M61" s="294">
+      <c r="M61" s="293">
         <v>100</v>
       </c>
-      <c r="N61" s="295">
+      <c r="N61" s="294">
         <v>0.02</v>
       </c>
       <c r="O61" s="498" t="s">
@@ -7997,13 +8030,13 @@
         <v>45084</v>
       </c>
       <c r="T61" s="504" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="U61" s="507">
         <v>100</v>
       </c>
       <c r="V61" s="510" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="W61" s="513" t="s">
         <v>26</v>
@@ -8019,16 +8052,16 @@
       <c r="H62" s="499"/>
       <c r="I62" s="499"/>
       <c r="J62" s="499"/>
-      <c r="K62" s="296" t="s">
-        <v>105</v>
-      </c>
-      <c r="L62" s="297">
+      <c r="K62" s="295" t="s">
+        <v>106</v>
+      </c>
+      <c r="L62" s="296">
         <v>3800</v>
       </c>
-      <c r="M62" s="297">
+      <c r="M62" s="296">
         <v>200</v>
       </c>
-      <c r="N62" s="298">
+      <c r="N62" s="297">
         <v>0.02</v>
       </c>
       <c r="O62" s="499"/>
@@ -8051,16 +8084,16 @@
       <c r="H63" s="499"/>
       <c r="I63" s="499"/>
       <c r="J63" s="499"/>
-      <c r="K63" s="296" t="s">
-        <v>105</v>
-      </c>
-      <c r="L63" s="297">
+      <c r="K63" s="295" t="s">
+        <v>106</v>
+      </c>
+      <c r="L63" s="296">
         <v>3800</v>
       </c>
-      <c r="M63" s="297">
+      <c r="M63" s="296">
         <v>300</v>
       </c>
-      <c r="N63" s="298">
+      <c r="N63" s="297">
         <v>0.02</v>
       </c>
       <c r="O63" s="499"/>
@@ -8083,16 +8116,16 @@
       <c r="H64" s="499"/>
       <c r="I64" s="499"/>
       <c r="J64" s="499"/>
-      <c r="K64" s="296" t="s">
-        <v>108</v>
-      </c>
-      <c r="L64" s="297">
+      <c r="K64" s="295" t="s">
+        <v>109</v>
+      </c>
+      <c r="L64" s="296">
         <v>3021</v>
       </c>
-      <c r="M64" s="297">
+      <c r="M64" s="296">
         <v>20</v>
       </c>
-      <c r="N64" s="298">
+      <c r="N64" s="297">
         <v>0.05</v>
       </c>
       <c r="O64" s="499"/>
@@ -8115,16 +8148,16 @@
       <c r="H65" s="499"/>
       <c r="I65" s="499"/>
       <c r="J65" s="499"/>
-      <c r="K65" s="296" t="s">
-        <v>109</v>
-      </c>
-      <c r="L65" s="297">
+      <c r="K65" s="295" t="s">
+        <v>110</v>
+      </c>
+      <c r="L65" s="296">
         <v>3041</v>
       </c>
-      <c r="M65" s="297">
+      <c r="M65" s="296">
         <v>20</v>
       </c>
-      <c r="N65" s="298">
+      <c r="N65" s="297">
         <v>0.05</v>
       </c>
       <c r="O65" s="499"/>
@@ -8147,16 +8180,16 @@
       <c r="H66" s="499"/>
       <c r="I66" s="499"/>
       <c r="J66" s="499"/>
-      <c r="K66" s="296" t="s">
-        <v>110</v>
-      </c>
-      <c r="L66" s="297">
+      <c r="K66" s="295" t="s">
+        <v>111</v>
+      </c>
+      <c r="L66" s="296">
         <v>3011</v>
       </c>
-      <c r="M66" s="297">
+      <c r="M66" s="296">
         <v>20</v>
       </c>
-      <c r="N66" s="298">
+      <c r="N66" s="297">
         <v>0.05</v>
       </c>
       <c r="O66" s="499"/>
@@ -8179,16 +8212,16 @@
       <c r="H67" s="499"/>
       <c r="I67" s="499"/>
       <c r="J67" s="499"/>
-      <c r="K67" s="296" t="s">
-        <v>111</v>
-      </c>
-      <c r="L67" s="297">
+      <c r="K67" s="295" t="s">
+        <v>112</v>
+      </c>
+      <c r="L67" s="296">
         <v>3031</v>
       </c>
-      <c r="M67" s="297">
+      <c r="M67" s="296">
         <v>20</v>
       </c>
-      <c r="N67" s="298">
+      <c r="N67" s="297">
         <v>0.05</v>
       </c>
       <c r="O67" s="499"/>
@@ -8211,16 +8244,16 @@
       <c r="H68" s="499"/>
       <c r="I68" s="499"/>
       <c r="J68" s="499"/>
-      <c r="K68" s="296" t="s">
-        <v>112</v>
-      </c>
-      <c r="L68" s="297">
+      <c r="K68" s="295" t="s">
+        <v>113</v>
+      </c>
+      <c r="L68" s="296">
         <v>3001</v>
       </c>
-      <c r="M68" s="297">
+      <c r="M68" s="296">
         <v>20</v>
       </c>
-      <c r="N68" s="298">
+      <c r="N68" s="297">
         <v>0.05</v>
       </c>
       <c r="O68" s="499"/>
@@ -8243,16 +8276,16 @@
       <c r="H69" s="499"/>
       <c r="I69" s="499"/>
       <c r="J69" s="499"/>
-      <c r="K69" s="296" t="s">
-        <v>113</v>
-      </c>
-      <c r="L69" s="297">
+      <c r="K69" s="295" t="s">
+        <v>114</v>
+      </c>
+      <c r="L69" s="296">
         <v>3022</v>
       </c>
-      <c r="M69" s="297">
+      <c r="M69" s="296">
         <v>10</v>
       </c>
-      <c r="N69" s="298">
+      <c r="N69" s="297">
         <v>0.03</v>
       </c>
       <c r="O69" s="499"/>
@@ -8275,16 +8308,16 @@
       <c r="H70" s="499"/>
       <c r="I70" s="499"/>
       <c r="J70" s="499"/>
-      <c r="K70" s="296" t="s">
-        <v>114</v>
-      </c>
-      <c r="L70" s="297">
+      <c r="K70" s="295" t="s">
+        <v>115</v>
+      </c>
+      <c r="L70" s="296">
         <v>3042</v>
       </c>
-      <c r="M70" s="297">
+      <c r="M70" s="296">
         <v>10</v>
       </c>
-      <c r="N70" s="298">
+      <c r="N70" s="297">
         <v>0.03</v>
       </c>
       <c r="O70" s="499"/>
@@ -8307,16 +8340,16 @@
       <c r="H71" s="499"/>
       <c r="I71" s="499"/>
       <c r="J71" s="499"/>
-      <c r="K71" s="296" t="s">
-        <v>115</v>
-      </c>
-      <c r="L71" s="297">
+      <c r="K71" s="295" t="s">
+        <v>116</v>
+      </c>
+      <c r="L71" s="296">
         <v>3012</v>
       </c>
-      <c r="M71" s="297">
+      <c r="M71" s="296">
         <v>10</v>
       </c>
-      <c r="N71" s="298">
+      <c r="N71" s="297">
         <v>0.03</v>
       </c>
       <c r="O71" s="499"/>
@@ -8339,16 +8372,16 @@
       <c r="H72" s="499"/>
       <c r="I72" s="499"/>
       <c r="J72" s="499"/>
-      <c r="K72" s="296" t="s">
-        <v>116</v>
-      </c>
-      <c r="L72" s="297">
+      <c r="K72" s="295" t="s">
+        <v>117</v>
+      </c>
+      <c r="L72" s="296">
         <v>3032</v>
       </c>
-      <c r="M72" s="297">
+      <c r="M72" s="296">
         <v>10</v>
       </c>
-      <c r="N72" s="298">
+      <c r="N72" s="297">
         <v>0.03</v>
       </c>
       <c r="O72" s="499"/>
@@ -8371,16 +8404,16 @@
       <c r="H73" s="499"/>
       <c r="I73" s="499"/>
       <c r="J73" s="499"/>
-      <c r="K73" s="296" t="s">
-        <v>117</v>
-      </c>
-      <c r="L73" s="297">
+      <c r="K73" s="295" t="s">
+        <v>118</v>
+      </c>
+      <c r="L73" s="296">
         <v>3002</v>
       </c>
-      <c r="M73" s="297">
+      <c r="M73" s="296">
         <v>10</v>
       </c>
-      <c r="N73" s="298">
+      <c r="N73" s="297">
         <v>0.03</v>
       </c>
       <c r="O73" s="499"/>
@@ -8403,16 +8436,16 @@
       <c r="H74" s="499"/>
       <c r="I74" s="499"/>
       <c r="J74" s="499"/>
-      <c r="K74" s="296" t="s">
-        <v>118</v>
-      </c>
-      <c r="L74" s="297">
+      <c r="K74" s="295" t="s">
+        <v>119</v>
+      </c>
+      <c r="L74" s="296">
         <v>3100</v>
       </c>
-      <c r="M74" s="297">
-        <v>1</v>
-      </c>
-      <c r="N74" s="298">
+      <c r="M74" s="296">
+        <v>1</v>
+      </c>
+      <c r="N74" s="297">
         <v>0.1</v>
       </c>
       <c r="O74" s="499"/>
@@ -8435,16 +8468,16 @@
       <c r="H75" s="499"/>
       <c r="I75" s="499"/>
       <c r="J75" s="499"/>
-      <c r="K75" s="296" t="s">
-        <v>119</v>
-      </c>
-      <c r="L75" s="297">
+      <c r="K75" s="295" t="s">
+        <v>120</v>
+      </c>
+      <c r="L75" s="296">
         <v>5000083</v>
       </c>
-      <c r="M75" s="297">
-        <v>1</v>
-      </c>
-      <c r="N75" s="298">
+      <c r="M75" s="296">
+        <v>1</v>
+      </c>
+      <c r="N75" s="297">
         <v>0.35</v>
       </c>
       <c r="O75" s="499"/>
@@ -8467,16 +8500,16 @@
       <c r="H76" s="499"/>
       <c r="I76" s="499"/>
       <c r="J76" s="499"/>
-      <c r="K76" s="296" t="s">
-        <v>120</v>
-      </c>
-      <c r="L76" s="297">
+      <c r="K76" s="295" t="s">
+        <v>121</v>
+      </c>
+      <c r="L76" s="296">
         <v>3200</v>
       </c>
-      <c r="M76" s="297">
-        <v>1</v>
-      </c>
-      <c r="N76" s="298">
+      <c r="M76" s="296">
+        <v>1</v>
+      </c>
+      <c r="N76" s="297">
         <v>0.05</v>
       </c>
       <c r="O76" s="499"/>
@@ -8499,16 +8532,16 @@
       <c r="H77" s="499"/>
       <c r="I77" s="499"/>
       <c r="J77" s="499"/>
-      <c r="K77" s="296" t="s">
-        <v>121</v>
-      </c>
-      <c r="L77" s="297">
+      <c r="K77" s="295" t="s">
+        <v>122</v>
+      </c>
+      <c r="L77" s="296">
         <v>3441</v>
       </c>
-      <c r="M77" s="297">
-        <v>1</v>
-      </c>
-      <c r="N77" s="298">
+      <c r="M77" s="296">
+        <v>1</v>
+      </c>
+      <c r="N77" s="297">
         <v>0.01</v>
       </c>
       <c r="O77" s="499"/>
@@ -8531,16 +8564,16 @@
       <c r="H78" s="499"/>
       <c r="I78" s="499"/>
       <c r="J78" s="499"/>
-      <c r="K78" s="296" t="s">
-        <v>122</v>
-      </c>
-      <c r="L78" s="297">
+      <c r="K78" s="295" t="s">
+        <v>123</v>
+      </c>
+      <c r="L78" s="296">
         <v>3442</v>
       </c>
-      <c r="M78" s="297">
-        <v>1</v>
-      </c>
-      <c r="N78" s="298">
+      <c r="M78" s="296">
+        <v>1</v>
+      </c>
+      <c r="N78" s="297">
         <v>0.01</v>
       </c>
       <c r="O78" s="499"/>
@@ -8563,16 +8596,16 @@
       <c r="H79" s="499"/>
       <c r="I79" s="499"/>
       <c r="J79" s="499"/>
-      <c r="K79" s="296" t="s">
-        <v>123</v>
-      </c>
-      <c r="L79" s="297">
+      <c r="K79" s="295" t="s">
+        <v>124</v>
+      </c>
+      <c r="L79" s="296">
         <v>3443</v>
       </c>
-      <c r="M79" s="297">
-        <v>1</v>
-      </c>
-      <c r="N79" s="298">
+      <c r="M79" s="296">
+        <v>1</v>
+      </c>
+      <c r="N79" s="297">
         <v>0.01</v>
       </c>
       <c r="O79" s="499"/>
@@ -8595,16 +8628,16 @@
       <c r="H80" s="500"/>
       <c r="I80" s="500"/>
       <c r="J80" s="500"/>
-      <c r="K80" s="299" t="s">
-        <v>124</v>
-      </c>
-      <c r="L80" s="300">
+      <c r="K80" s="298" t="s">
+        <v>125</v>
+      </c>
+      <c r="L80" s="299">
         <v>3446</v>
       </c>
-      <c r="M80" s="300">
-        <v>1</v>
-      </c>
-      <c r="N80" s="301">
+      <c r="M80" s="299">
+        <v>1</v>
+      </c>
+      <c r="N80" s="300">
         <v>0.01</v>
       </c>
       <c r="O80" s="500"/>
@@ -8622,13 +8655,13 @@
         <v>1400080</v>
       </c>
       <c r="C81" s="519" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D81" s="519"/>
       <c r="E81" s="519"/>
       <c r="F81" s="519"/>
       <c r="G81" s="519" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H81" s="519">
         <v>5450123</v>
@@ -8637,16 +8670,16 @@
         <v>11</v>
       </c>
       <c r="J81" s="519"/>
-      <c r="K81" s="302" t="s">
-        <v>127</v>
-      </c>
-      <c r="L81" s="303">
+      <c r="K81" s="301" t="s">
+        <v>128</v>
+      </c>
+      <c r="L81" s="302">
         <v>2600</v>
       </c>
-      <c r="M81" s="303">
+      <c r="M81" s="302">
         <v>5</v>
       </c>
-      <c r="N81" s="304">
+      <c r="N81" s="303">
         <v>0.14000000000000001</v>
       </c>
       <c r="O81" s="519" t="s">
@@ -8655,23 +8688,23 @@
       <c r="P81" s="519">
         <v>9</v>
       </c>
-      <c r="Q81" s="530" t="s">
+      <c r="Q81" s="525" t="s">
         <v>23</v>
       </c>
-      <c r="R81" s="530">
+      <c r="R81" s="525">
         <v>45076</v>
       </c>
-      <c r="S81" s="530">
+      <c r="S81" s="525">
         <v>45084</v>
       </c>
-      <c r="T81" s="533" t="s">
-        <v>128</v>
-      </c>
-      <c r="U81" s="536">
+      <c r="T81" s="528" t="s">
+        <v>129</v>
+      </c>
+      <c r="U81" s="531">
         <v>40</v>
       </c>
-      <c r="V81" s="539" t="s">
-        <v>129</v>
+      <c r="V81" s="534" t="s">
+        <v>130</v>
       </c>
       <c r="W81" s="522" t="s">
         <v>26</v>
@@ -8687,26 +8720,26 @@
       <c r="H82" s="520"/>
       <c r="I82" s="520"/>
       <c r="J82" s="520"/>
-      <c r="K82" s="305" t="s">
-        <v>130</v>
-      </c>
-      <c r="L82" s="306">
+      <c r="K82" s="304" t="s">
+        <v>131</v>
+      </c>
+      <c r="L82" s="305">
         <v>2601</v>
       </c>
-      <c r="M82" s="306">
+      <c r="M82" s="305">
         <v>5</v>
       </c>
-      <c r="N82" s="307">
+      <c r="N82" s="306">
         <v>0.14000000000000001</v>
       </c>
       <c r="O82" s="520"/>
       <c r="P82" s="520"/>
-      <c r="Q82" s="531"/>
-      <c r="R82" s="531"/>
-      <c r="S82" s="531"/>
-      <c r="T82" s="534"/>
-      <c r="U82" s="537"/>
-      <c r="V82" s="540"/>
+      <c r="Q82" s="526"/>
+      <c r="R82" s="526"/>
+      <c r="S82" s="526"/>
+      <c r="T82" s="529"/>
+      <c r="U82" s="532"/>
+      <c r="V82" s="535"/>
       <c r="W82" s="523"/>
     </row>
     <row r="83" spans="2:23">
@@ -8719,26 +8752,26 @@
       <c r="H83" s="520"/>
       <c r="I83" s="520"/>
       <c r="J83" s="520"/>
-      <c r="K83" s="305" t="s">
-        <v>131</v>
-      </c>
-      <c r="L83" s="306">
+      <c r="K83" s="304" t="s">
+        <v>132</v>
+      </c>
+      <c r="L83" s="305">
         <v>2602</v>
       </c>
-      <c r="M83" s="306">
+      <c r="M83" s="305">
         <v>5</v>
       </c>
-      <c r="N83" s="307">
+      <c r="N83" s="306">
         <v>0.18</v>
       </c>
       <c r="O83" s="520"/>
       <c r="P83" s="520"/>
-      <c r="Q83" s="531"/>
-      <c r="R83" s="531"/>
-      <c r="S83" s="531"/>
-      <c r="T83" s="534"/>
-      <c r="U83" s="537"/>
-      <c r="V83" s="540"/>
+      <c r="Q83" s="526"/>
+      <c r="R83" s="526"/>
+      <c r="S83" s="526"/>
+      <c r="T83" s="529"/>
+      <c r="U83" s="532"/>
+      <c r="V83" s="535"/>
       <c r="W83" s="523"/>
     </row>
     <row r="84" spans="2:23">
@@ -8751,26 +8784,26 @@
       <c r="H84" s="520"/>
       <c r="I84" s="520"/>
       <c r="J84" s="520"/>
-      <c r="K84" s="305" t="s">
-        <v>132</v>
-      </c>
-      <c r="L84" s="306">
+      <c r="K84" s="304" t="s">
+        <v>133</v>
+      </c>
+      <c r="L84" s="305">
         <v>2603</v>
       </c>
-      <c r="M84" s="306">
+      <c r="M84" s="305">
         <v>5</v>
       </c>
-      <c r="N84" s="307">
+      <c r="N84" s="306">
         <v>0.14000000000000001</v>
       </c>
       <c r="O84" s="520"/>
       <c r="P84" s="520"/>
-      <c r="Q84" s="531"/>
-      <c r="R84" s="531"/>
-      <c r="S84" s="531"/>
-      <c r="T84" s="534"/>
-      <c r="U84" s="537"/>
-      <c r="V84" s="540"/>
+      <c r="Q84" s="526"/>
+      <c r="R84" s="526"/>
+      <c r="S84" s="526"/>
+      <c r="T84" s="529"/>
+      <c r="U84" s="532"/>
+      <c r="V84" s="535"/>
       <c r="W84" s="523"/>
     </row>
     <row r="85" spans="2:23">
@@ -8783,26 +8816,26 @@
       <c r="H85" s="520"/>
       <c r="I85" s="520"/>
       <c r="J85" s="520"/>
-      <c r="K85" s="305" t="s">
-        <v>133</v>
-      </c>
-      <c r="L85" s="306">
+      <c r="K85" s="304" t="s">
+        <v>134</v>
+      </c>
+      <c r="L85" s="305">
         <v>2610</v>
       </c>
-      <c r="M85" s="306">
+      <c r="M85" s="305">
         <v>5</v>
       </c>
-      <c r="N85" s="307">
+      <c r="N85" s="306">
         <v>0.15</v>
       </c>
       <c r="O85" s="520"/>
       <c r="P85" s="520"/>
-      <c r="Q85" s="531"/>
-      <c r="R85" s="531"/>
-      <c r="S85" s="531"/>
-      <c r="T85" s="534"/>
-      <c r="U85" s="537"/>
-      <c r="V85" s="540"/>
+      <c r="Q85" s="526"/>
+      <c r="R85" s="526"/>
+      <c r="S85" s="526"/>
+      <c r="T85" s="529"/>
+      <c r="U85" s="532"/>
+      <c r="V85" s="535"/>
       <c r="W85" s="523"/>
     </row>
     <row r="86" spans="2:23">
@@ -8815,26 +8848,26 @@
       <c r="H86" s="520"/>
       <c r="I86" s="520"/>
       <c r="J86" s="520"/>
-      <c r="K86" s="305" t="s">
-        <v>134</v>
-      </c>
-      <c r="L86" s="306">
+      <c r="K86" s="304" t="s">
+        <v>135</v>
+      </c>
+      <c r="L86" s="305">
         <v>2611</v>
       </c>
-      <c r="M86" s="306">
+      <c r="M86" s="305">
         <v>5</v>
       </c>
-      <c r="N86" s="307">
+      <c r="N86" s="306">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="O86" s="520"/>
       <c r="P86" s="520"/>
-      <c r="Q86" s="531"/>
-      <c r="R86" s="531"/>
-      <c r="S86" s="531"/>
-      <c r="T86" s="534"/>
-      <c r="U86" s="537"/>
-      <c r="V86" s="540"/>
+      <c r="Q86" s="526"/>
+      <c r="R86" s="526"/>
+      <c r="S86" s="526"/>
+      <c r="T86" s="529"/>
+      <c r="U86" s="532"/>
+      <c r="V86" s="535"/>
       <c r="W86" s="523"/>
     </row>
     <row r="87" spans="2:23">
@@ -8847,26 +8880,26 @@
       <c r="H87" s="520"/>
       <c r="I87" s="520"/>
       <c r="J87" s="520"/>
-      <c r="K87" s="305" t="s">
-        <v>135</v>
-      </c>
-      <c r="L87" s="306">
+      <c r="K87" s="304" t="s">
+        <v>136</v>
+      </c>
+      <c r="L87" s="305">
         <v>2612</v>
       </c>
-      <c r="M87" s="306">
+      <c r="M87" s="305">
         <v>5</v>
       </c>
-      <c r="N87" s="307">
+      <c r="N87" s="306">
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="O87" s="520"/>
       <c r="P87" s="520"/>
-      <c r="Q87" s="531"/>
-      <c r="R87" s="531"/>
-      <c r="S87" s="531"/>
-      <c r="T87" s="534"/>
-      <c r="U87" s="537"/>
-      <c r="V87" s="540"/>
+      <c r="Q87" s="526"/>
+      <c r="R87" s="526"/>
+      <c r="S87" s="526"/>
+      <c r="T87" s="529"/>
+      <c r="U87" s="532"/>
+      <c r="V87" s="535"/>
       <c r="W87" s="523"/>
     </row>
     <row r="88" spans="2:23">
@@ -8879,26 +8912,26 @@
       <c r="H88" s="520"/>
       <c r="I88" s="520"/>
       <c r="J88" s="520"/>
-      <c r="K88" s="305" t="s">
-        <v>136</v>
-      </c>
-      <c r="L88" s="306">
+      <c r="K88" s="304" t="s">
+        <v>137</v>
+      </c>
+      <c r="L88" s="305">
         <v>2613</v>
       </c>
-      <c r="M88" s="306">
+      <c r="M88" s="305">
         <v>5</v>
       </c>
-      <c r="N88" s="307">
+      <c r="N88" s="306">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="O88" s="520"/>
       <c r="P88" s="520"/>
-      <c r="Q88" s="531"/>
-      <c r="R88" s="531"/>
-      <c r="S88" s="531"/>
-      <c r="T88" s="534"/>
-      <c r="U88" s="537"/>
-      <c r="V88" s="540"/>
+      <c r="Q88" s="526"/>
+      <c r="R88" s="526"/>
+      <c r="S88" s="526"/>
+      <c r="T88" s="529"/>
+      <c r="U88" s="532"/>
+      <c r="V88" s="535"/>
       <c r="W88" s="523"/>
     </row>
     <row r="89" spans="2:23">
@@ -8911,26 +8944,26 @@
       <c r="H89" s="520"/>
       <c r="I89" s="520"/>
       <c r="J89" s="520"/>
-      <c r="K89" s="305" t="s">
-        <v>137</v>
-      </c>
-      <c r="L89" s="306">
+      <c r="K89" s="304" t="s">
+        <v>138</v>
+      </c>
+      <c r="L89" s="305">
         <v>2500</v>
       </c>
-      <c r="M89" s="306">
-        <v>1</v>
-      </c>
-      <c r="N89" s="307">
+      <c r="M89" s="305">
+        <v>1</v>
+      </c>
+      <c r="N89" s="306">
         <v>0.01</v>
       </c>
       <c r="O89" s="520"/>
       <c r="P89" s="520"/>
-      <c r="Q89" s="531"/>
-      <c r="R89" s="531"/>
-      <c r="S89" s="531"/>
-      <c r="T89" s="534"/>
-      <c r="U89" s="537"/>
-      <c r="V89" s="540"/>
+      <c r="Q89" s="526"/>
+      <c r="R89" s="526"/>
+      <c r="S89" s="526"/>
+      <c r="T89" s="529"/>
+      <c r="U89" s="532"/>
+      <c r="V89" s="535"/>
       <c r="W89" s="523"/>
     </row>
     <row r="90" spans="2:23" ht="17.25" thickBot="1">
@@ -8943,26 +8976,26 @@
       <c r="H90" s="521"/>
       <c r="I90" s="521"/>
       <c r="J90" s="521"/>
-      <c r="K90" s="308" t="s">
-        <v>138</v>
-      </c>
-      <c r="L90" s="309">
+      <c r="K90" s="307" t="s">
+        <v>139</v>
+      </c>
+      <c r="L90" s="308">
         <v>2510</v>
       </c>
-      <c r="M90" s="309">
-        <v>1</v>
-      </c>
-      <c r="N90" s="310">
+      <c r="M90" s="308">
+        <v>1</v>
+      </c>
+      <c r="N90" s="309">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="O90" s="521"/>
       <c r="P90" s="521"/>
-      <c r="Q90" s="532"/>
-      <c r="R90" s="532"/>
-      <c r="S90" s="532"/>
-      <c r="T90" s="535"/>
-      <c r="U90" s="538"/>
-      <c r="V90" s="541"/>
+      <c r="Q90" s="527"/>
+      <c r="R90" s="527"/>
+      <c r="S90" s="527"/>
+      <c r="T90" s="530"/>
+      <c r="U90" s="533"/>
+      <c r="V90" s="536"/>
       <c r="W90" s="524"/>
     </row>
     <row r="91" spans="2:23">
@@ -8970,7 +9003,7 @@
         <v>1400072</v>
       </c>
       <c r="C91" s="486" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D91" s="486"/>
       <c r="E91" s="381">
@@ -8980,7 +9013,7 @@
         <v>1</v>
       </c>
       <c r="G91" s="61" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H91" s="61">
         <v>1100301</v>
@@ -9009,7 +9042,7 @@
         <v>45084</v>
       </c>
       <c r="T91" s="413" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="U91" s="461">
         <v>200</v>
@@ -9022,11 +9055,11 @@
       </c>
     </row>
     <row r="92" spans="2:23">
-      <c r="B92" s="525"/>
-      <c r="C92" s="526"/>
-      <c r="D92" s="526"/>
-      <c r="E92" s="527"/>
-      <c r="F92" s="527"/>
+      <c r="B92" s="537"/>
+      <c r="C92" s="538"/>
+      <c r="D92" s="538"/>
+      <c r="E92" s="539"/>
+      <c r="F92" s="539"/>
       <c r="G92" s="71" t="s">
         <v>28</v>
       </c>
@@ -9037,12 +9070,12 @@
         <v>5</v>
       </c>
       <c r="J92" s="73"/>
-      <c r="K92" s="528"/>
-      <c r="L92" s="527"/>
-      <c r="M92" s="528"/>
-      <c r="N92" s="529"/>
-      <c r="O92" s="527"/>
-      <c r="P92" s="527"/>
+      <c r="K92" s="540"/>
+      <c r="L92" s="539"/>
+      <c r="M92" s="540"/>
+      <c r="N92" s="541"/>
+      <c r="O92" s="539"/>
+      <c r="P92" s="539"/>
       <c r="Q92" s="545"/>
       <c r="R92" s="545"/>
       <c r="S92" s="545"/>
@@ -9052,13 +9085,13 @@
       <c r="W92" s="544"/>
     </row>
     <row r="93" spans="2:23">
-      <c r="B93" s="525"/>
-      <c r="C93" s="526"/>
-      <c r="D93" s="526"/>
-      <c r="E93" s="527"/>
-      <c r="F93" s="527"/>
+      <c r="B93" s="537"/>
+      <c r="C93" s="538"/>
+      <c r="D93" s="538"/>
+      <c r="E93" s="539"/>
+      <c r="F93" s="539"/>
       <c r="G93" s="71" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H93" s="45">
         <v>2903</v>
@@ -9067,12 +9100,12 @@
         <v>1</v>
       </c>
       <c r="J93" s="73"/>
-      <c r="K93" s="528"/>
-      <c r="L93" s="527"/>
-      <c r="M93" s="528"/>
-      <c r="N93" s="529"/>
-      <c r="O93" s="527"/>
-      <c r="P93" s="527"/>
+      <c r="K93" s="540"/>
+      <c r="L93" s="539"/>
+      <c r="M93" s="540"/>
+      <c r="N93" s="541"/>
+      <c r="O93" s="539"/>
+      <c r="P93" s="539"/>
       <c r="Q93" s="545"/>
       <c r="R93" s="545"/>
       <c r="S93" s="545"/>
@@ -9088,7 +9121,7 @@
       <c r="E94" s="423"/>
       <c r="F94" s="423"/>
       <c r="G94" s="91" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H94" s="91">
         <v>7201</v>
@@ -9112,11 +9145,11 @@
       <c r="W94" s="467"/>
     </row>
     <row r="95" spans="2:23" ht="17.25" thickBot="1">
-      <c r="B95" s="311">
+      <c r="B95" s="310">
         <v>1400073</v>
       </c>
       <c r="C95" s="138" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D95" s="138"/>
       <c r="E95" s="138">
@@ -9126,7 +9159,7 @@
         <v>1</v>
       </c>
       <c r="G95" s="138" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H95" s="138">
         <v>5000082</v>
@@ -9134,34 +9167,34 @@
       <c r="I95" s="138">
         <v>1</v>
       </c>
-      <c r="J95" s="312"/>
-      <c r="K95" s="313"/>
+      <c r="J95" s="311"/>
+      <c r="K95" s="312"/>
       <c r="L95" s="138"/>
-      <c r="M95" s="313"/>
-      <c r="N95" s="314"/>
+      <c r="M95" s="312"/>
+      <c r="N95" s="313"/>
       <c r="O95" s="138" t="s">
         <v>22</v>
       </c>
       <c r="P95" s="138">
         <v>6</v>
       </c>
-      <c r="Q95" s="315" t="s">
+      <c r="Q95" s="314" t="s">
         <v>23</v>
       </c>
-      <c r="R95" s="315">
+      <c r="R95" s="314">
         <v>45076</v>
       </c>
-      <c r="S95" s="315">
+      <c r="S95" s="314">
         <v>45084</v>
       </c>
-      <c r="T95" s="316" t="s">
-        <v>146</v>
-      </c>
-      <c r="U95" s="317"/>
-      <c r="V95" s="318" t="s">
+      <c r="T95" s="315" t="s">
         <v>147</v>
       </c>
-      <c r="W95" s="319" t="s">
+      <c r="U95" s="316"/>
+      <c r="V95" s="317" t="s">
+        <v>148</v>
+      </c>
+      <c r="W95" s="318" t="s">
         <v>26</v>
       </c>
     </row>
@@ -9170,7 +9203,7 @@
         <v>1400074</v>
       </c>
       <c r="C96" s="486" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D96" s="486"/>
       <c r="E96" s="381">
@@ -9180,7 +9213,7 @@
         <v>1</v>
       </c>
       <c r="G96" s="61" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H96" s="61">
         <v>1100301</v>
@@ -9209,7 +9242,7 @@
         <v>45084</v>
       </c>
       <c r="T96" s="413" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="U96" s="461">
         <v>200</v>
@@ -9222,11 +9255,11 @@
       </c>
     </row>
     <row r="97" spans="2:23">
-      <c r="B97" s="525"/>
-      <c r="C97" s="526"/>
-      <c r="D97" s="526"/>
-      <c r="E97" s="527"/>
-      <c r="F97" s="527"/>
+      <c r="B97" s="537"/>
+      <c r="C97" s="538"/>
+      <c r="D97" s="538"/>
+      <c r="E97" s="539"/>
+      <c r="F97" s="539"/>
       <c r="G97" s="71" t="s">
         <v>29</v>
       </c>
@@ -9237,12 +9270,12 @@
         <v>10</v>
       </c>
       <c r="J97" s="73"/>
-      <c r="K97" s="528"/>
-      <c r="L97" s="527"/>
-      <c r="M97" s="528"/>
-      <c r="N97" s="529"/>
-      <c r="O97" s="527"/>
-      <c r="P97" s="527"/>
+      <c r="K97" s="540"/>
+      <c r="L97" s="539"/>
+      <c r="M97" s="540"/>
+      <c r="N97" s="541"/>
+      <c r="O97" s="539"/>
+      <c r="P97" s="539"/>
       <c r="Q97" s="545"/>
       <c r="R97" s="545"/>
       <c r="S97" s="545"/>
@@ -9252,13 +9285,13 @@
       <c r="W97" s="544"/>
     </row>
     <row r="98" spans="2:23">
-      <c r="B98" s="525"/>
-      <c r="C98" s="526"/>
-      <c r="D98" s="526"/>
-      <c r="E98" s="527"/>
-      <c r="F98" s="527"/>
+      <c r="B98" s="537"/>
+      <c r="C98" s="538"/>
+      <c r="D98" s="538"/>
+      <c r="E98" s="539"/>
+      <c r="F98" s="539"/>
       <c r="G98" s="71" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H98" s="45">
         <v>2903</v>
@@ -9267,12 +9300,12 @@
         <v>2</v>
       </c>
       <c r="J98" s="73"/>
-      <c r="K98" s="528"/>
-      <c r="L98" s="527"/>
-      <c r="M98" s="528"/>
-      <c r="N98" s="529"/>
-      <c r="O98" s="527"/>
-      <c r="P98" s="527"/>
+      <c r="K98" s="540"/>
+      <c r="L98" s="539"/>
+      <c r="M98" s="540"/>
+      <c r="N98" s="541"/>
+      <c r="O98" s="539"/>
+      <c r="P98" s="539"/>
       <c r="Q98" s="545"/>
       <c r="R98" s="545"/>
       <c r="S98" s="545"/>
@@ -9288,7 +9321,7 @@
       <c r="E99" s="423"/>
       <c r="F99" s="423"/>
       <c r="G99" s="91" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H99" s="91">
         <v>7202</v>
@@ -9312,11 +9345,11 @@
       <c r="W99" s="467"/>
     </row>
     <row r="100" spans="2:23" ht="17.25" thickBot="1">
-      <c r="B100" s="311">
+      <c r="B100" s="310">
         <v>1400075</v>
       </c>
       <c r="C100" s="138" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D100" s="138"/>
       <c r="E100" s="138">
@@ -9326,7 +9359,7 @@
         <v>1</v>
       </c>
       <c r="G100" s="138" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H100" s="138">
         <v>5000082</v>
@@ -9334,67 +9367,67 @@
       <c r="I100" s="138">
         <v>2</v>
       </c>
-      <c r="J100" s="312"/>
-      <c r="K100" s="313"/>
+      <c r="J100" s="311"/>
+      <c r="K100" s="312"/>
       <c r="L100" s="138"/>
-      <c r="M100" s="313"/>
-      <c r="N100" s="314"/>
+      <c r="M100" s="312"/>
+      <c r="N100" s="313"/>
       <c r="O100" s="138" t="s">
         <v>22</v>
       </c>
       <c r="P100" s="138">
         <v>8</v>
       </c>
-      <c r="Q100" s="315" t="s">
+      <c r="Q100" s="314" t="s">
         <v>23</v>
       </c>
-      <c r="R100" s="315">
+      <c r="R100" s="314">
         <v>45076</v>
       </c>
-      <c r="S100" s="315">
+      <c r="S100" s="314">
         <v>45084</v>
       </c>
-      <c r="T100" s="316" t="s">
-        <v>146</v>
-      </c>
-      <c r="U100" s="317"/>
-      <c r="V100" s="318" t="s">
+      <c r="T100" s="315" t="s">
         <v>147</v>
       </c>
-      <c r="W100" s="319" t="s">
+      <c r="U100" s="316"/>
+      <c r="V100" s="317" t="s">
+        <v>148</v>
+      </c>
+      <c r="W100" s="318" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="101" spans="2:23" ht="17.25" thickBot="1">
-      <c r="B101" s="279"/>
-      <c r="C101" s="279"/>
-      <c r="D101" s="279"/>
-      <c r="E101" s="279"/>
-      <c r="F101" s="279"/>
-      <c r="G101" s="279"/>
-      <c r="H101" s="279"/>
-      <c r="I101" s="279"/>
-      <c r="J101" s="320"/>
-      <c r="K101" s="280"/>
-      <c r="L101" s="279"/>
-      <c r="M101" s="280"/>
-      <c r="N101" s="321"/>
-      <c r="O101" s="279"/>
-      <c r="P101" s="279"/>
-      <c r="Q101" s="282"/>
-      <c r="R101" s="282"/>
-      <c r="S101" s="282"/>
-      <c r="T101" s="283"/>
-      <c r="U101" s="284"/>
-      <c r="V101" s="285"/>
-      <c r="W101" s="286"/>
+      <c r="B101" s="278"/>
+      <c r="C101" s="278"/>
+      <c r="D101" s="278"/>
+      <c r="E101" s="278"/>
+      <c r="F101" s="278"/>
+      <c r="G101" s="278"/>
+      <c r="H101" s="278"/>
+      <c r="I101" s="278"/>
+      <c r="J101" s="319"/>
+      <c r="K101" s="279"/>
+      <c r="L101" s="278"/>
+      <c r="M101" s="279"/>
+      <c r="N101" s="320"/>
+      <c r="O101" s="278"/>
+      <c r="P101" s="278"/>
+      <c r="Q101" s="281"/>
+      <c r="R101" s="281"/>
+      <c r="S101" s="281"/>
+      <c r="T101" s="282"/>
+      <c r="U101" s="283"/>
+      <c r="V101" s="284"/>
+      <c r="W101" s="285"/>
     </row>
     <row r="102" spans="2:23">
       <c r="B102" s="390">
         <v>1400051</v>
       </c>
       <c r="C102" s="366" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D102" s="61" t="s">
         <v>20</v>
@@ -9406,7 +9439,7 @@
         <v>2000</v>
       </c>
       <c r="G102" s="61" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H102" s="61" t="s">
         <v>21</v>
@@ -9426,7 +9459,7 @@
         <v>4</v>
       </c>
       <c r="Q102" s="375" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="R102" s="375">
         <v>45084</v>
@@ -9449,7 +9482,7 @@
       <c r="B103" s="391"/>
       <c r="C103" s="367"/>
       <c r="D103" s="382" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E103" s="382">
         <v>5450086</v>
@@ -9488,7 +9521,7 @@
       <c r="E104" s="423"/>
       <c r="F104" s="423"/>
       <c r="G104" s="91" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H104" s="91">
         <v>5020101</v>
@@ -9516,10 +9549,10 @@
         <v>1900029</v>
       </c>
       <c r="C105" s="328" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D105" s="328" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E105" s="408">
         <v>5450129</v>
@@ -9528,7 +9561,7 @@
         <v>1</v>
       </c>
       <c r="G105" s="39" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H105" s="39">
         <v>1010010</v>
@@ -9542,7 +9575,7 @@
       <c r="M105" s="471"/>
       <c r="N105" s="396"/>
       <c r="O105" s="399" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P105" s="328"/>
       <c r="Q105" s="354" t="s">
@@ -9555,7 +9588,7 @@
         <v>45090</v>
       </c>
       <c r="T105" s="337" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="U105" s="340"/>
       <c r="V105" s="343" t="s">
@@ -9572,7 +9605,7 @@
       <c r="E106" s="409"/>
       <c r="F106" s="329"/>
       <c r="G106" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H106" s="11">
         <v>5010002</v>
@@ -9602,7 +9635,7 @@
       <c r="E107" s="410"/>
       <c r="F107" s="330"/>
       <c r="G107" s="59" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H107" s="59">
         <v>5020002</v>
@@ -9630,13 +9663,13 @@
         <v>1400086</v>
       </c>
       <c r="C108" s="381" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D108" s="384"/>
       <c r="E108" s="384"/>
       <c r="F108" s="384"/>
       <c r="G108" s="381" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H108" s="381">
         <v>5450120</v>
@@ -9646,7 +9679,7 @@
       </c>
       <c r="J108" s="549"/>
       <c r="K108" s="61" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L108" s="61">
         <v>5200001</v>
@@ -9673,16 +9706,16 @@
         <v>45090</v>
       </c>
       <c r="T108" s="413" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="U108" s="461">
         <v>50</v>
       </c>
       <c r="V108" s="464" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="W108" s="552" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="109" spans="2:23">
@@ -9696,7 +9729,7 @@
       <c r="I109" s="382"/>
       <c r="J109" s="550"/>
       <c r="K109" s="45" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L109" s="45">
         <v>5200002</v>
@@ -9728,7 +9761,7 @@
       <c r="I110" s="382"/>
       <c r="J110" s="550"/>
       <c r="K110" s="45" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L110" s="45">
         <v>5200003</v>
@@ -9760,7 +9793,7 @@
       <c r="I111" s="382"/>
       <c r="J111" s="550"/>
       <c r="K111" s="45" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L111" s="45">
         <v>5210001</v>
@@ -9792,7 +9825,7 @@
       <c r="I112" s="382"/>
       <c r="J112" s="550"/>
       <c r="K112" s="45" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L112" s="45">
         <v>5210002</v>
@@ -9824,7 +9857,7 @@
       <c r="I113" s="382"/>
       <c r="J113" s="550"/>
       <c r="K113" s="45" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L113" s="45">
         <v>5030007</v>
@@ -9856,7 +9889,7 @@
       <c r="I114" s="382"/>
       <c r="J114" s="550"/>
       <c r="K114" s="45" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L114" s="45">
         <v>5210003</v>
@@ -9888,7 +9921,7 @@
       <c r="I115" s="423"/>
       <c r="J115" s="551"/>
       <c r="K115" s="91" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L115" s="91">
         <v>5220004</v>
@@ -9914,10 +9947,10 @@
         <v>1400078</v>
       </c>
       <c r="C116" s="328" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D116" s="328" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E116" s="328">
         <v>5450121</v>
@@ -9926,7 +9959,7 @@
         <v>1</v>
       </c>
       <c r="G116" s="39" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H116" s="39">
         <v>922</v>
@@ -9961,7 +9994,7 @@
         <v>200</v>
       </c>
       <c r="V116" s="343" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W116" s="346" t="s">
         <v>41</v>
@@ -9973,13 +10006,13 @@
       <c r="D117" s="329"/>
       <c r="E117" s="329"/>
       <c r="F117" s="329"/>
-      <c r="G117" s="322" t="s">
-        <v>173</v>
+      <c r="G117" s="321" t="s">
+        <v>174</v>
       </c>
       <c r="H117" s="11">
         <v>927</v>
       </c>
-      <c r="I117" s="322">
+      <c r="I117" s="321">
         <v>20</v>
       </c>
       <c r="J117" s="332"/>
@@ -10003,13 +10036,13 @@
       <c r="D118" s="329"/>
       <c r="E118" s="329"/>
       <c r="F118" s="329"/>
-      <c r="G118" s="322" t="s">
-        <v>57</v>
+      <c r="G118" s="321" t="s">
+        <v>58</v>
       </c>
       <c r="H118" s="11">
         <v>600019</v>
       </c>
-      <c r="I118" s="322">
+      <c r="I118" s="321">
         <v>5</v>
       </c>
       <c r="J118" s="332"/>
@@ -10034,7 +10067,7 @@
       <c r="E119" s="330"/>
       <c r="F119" s="330"/>
       <c r="G119" s="253" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H119" s="59">
         <v>952</v>
@@ -10062,13 +10095,13 @@
         <v>1400066</v>
       </c>
       <c r="C120" s="486" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D120" s="486"/>
       <c r="E120" s="381"/>
       <c r="F120" s="381"/>
       <c r="G120" s="366" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H120" s="366">
         <v>5450110</v>
@@ -10078,7 +10111,7 @@
       </c>
       <c r="J120" s="549"/>
       <c r="K120" s="61" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L120" s="61">
         <v>350</v>
@@ -10105,13 +10138,13 @@
         <v>45090</v>
       </c>
       <c r="T120" s="387" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="U120" s="357">
         <v>120</v>
       </c>
       <c r="V120" s="360" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W120" s="363" t="s">
         <v>26</v>
@@ -10128,7 +10161,7 @@
       <c r="I121" s="423"/>
       <c r="J121" s="551"/>
       <c r="K121" s="91" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L121" s="91">
         <v>351</v>
@@ -10150,38 +10183,38 @@
       <c r="W121" s="365"/>
     </row>
     <row r="122" spans="2:23" ht="17.25" thickBot="1">
-      <c r="B122" s="279"/>
-      <c r="C122" s="323"/>
-      <c r="D122" s="323"/>
-      <c r="E122" s="279"/>
-      <c r="F122" s="279"/>
-      <c r="G122" s="279"/>
-      <c r="H122" s="279"/>
-      <c r="I122" s="279"/>
-      <c r="J122" s="320"/>
-      <c r="K122" s="279"/>
-      <c r="L122" s="279"/>
-      <c r="M122" s="320"/>
-      <c r="N122" s="324"/>
-      <c r="O122" s="279"/>
-      <c r="P122" s="279"/>
-      <c r="Q122" s="282"/>
-      <c r="R122" s="282"/>
-      <c r="S122" s="282"/>
-      <c r="T122" s="283"/>
-      <c r="U122" s="284"/>
-      <c r="V122" s="285"/>
-      <c r="W122" s="286"/>
+      <c r="B122" s="278"/>
+      <c r="C122" s="322"/>
+      <c r="D122" s="322"/>
+      <c r="E122" s="278"/>
+      <c r="F122" s="278"/>
+      <c r="G122" s="278"/>
+      <c r="H122" s="278"/>
+      <c r="I122" s="278"/>
+      <c r="J122" s="319"/>
+      <c r="K122" s="278"/>
+      <c r="L122" s="278"/>
+      <c r="M122" s="319"/>
+      <c r="N122" s="323"/>
+      <c r="O122" s="278"/>
+      <c r="P122" s="278"/>
+      <c r="Q122" s="281"/>
+      <c r="R122" s="281"/>
+      <c r="S122" s="281"/>
+      <c r="T122" s="282"/>
+      <c r="U122" s="283"/>
+      <c r="V122" s="284"/>
+      <c r="W122" s="285"/>
     </row>
     <row r="123" spans="2:23" ht="16.5" customHeight="1">
       <c r="B123" s="402">
         <v>1900030</v>
       </c>
       <c r="C123" s="328" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D123" s="328" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E123" s="328">
         <v>2911</v>
@@ -10198,24 +10231,24 @@
       <c r="M123" s="408"/>
       <c r="N123" s="491"/>
       <c r="O123" s="399" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P123" s="328"/>
       <c r="Q123" s="354" t="s">
         <v>23</v>
       </c>
       <c r="R123" s="489" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="S123" s="489" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="T123" s="337" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="U123" s="340"/>
       <c r="V123" s="343" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W123" s="483" t="s">
         <v>41</v>
@@ -10342,7 +10375,13 @@
       <c r="W128" s="485"/>
     </row>
   </sheetData>
-  <autoFilter ref="O1:W1" xr:uid="{82D20060-79FF-4B4B-8A48-37E7EFA33778}"/>
+  <autoFilter ref="O1:W17" xr:uid="{82D20060-79FF-4B4B-8A48-37E7EFA33778}">
+    <filterColumn colId="8">
+      <filters>
+        <filter val="신규 상품"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="407">
     <mergeCell ref="T123:T128"/>
     <mergeCell ref="U123:U128"/>
@@ -10366,11 +10405,6 @@
     <mergeCell ref="E123:E128"/>
     <mergeCell ref="F123:F128"/>
     <mergeCell ref="G123:G128"/>
-    <mergeCell ref="T116:T119"/>
-    <mergeCell ref="R120:R121"/>
-    <mergeCell ref="S120:S121"/>
-    <mergeCell ref="T120:T121"/>
-    <mergeCell ref="U120:U121"/>
     <mergeCell ref="V120:V121"/>
     <mergeCell ref="W120:W121"/>
     <mergeCell ref="H120:H121"/>
@@ -10389,6 +10423,11 @@
     <mergeCell ref="R116:R119"/>
     <mergeCell ref="S116:S119"/>
     <mergeCell ref="U108:U115"/>
+    <mergeCell ref="T116:T119"/>
+    <mergeCell ref="R120:R121"/>
+    <mergeCell ref="S120:S121"/>
+    <mergeCell ref="T120:T121"/>
+    <mergeCell ref="U120:U121"/>
     <mergeCell ref="V108:V115"/>
     <mergeCell ref="W108:W115"/>
     <mergeCell ref="B116:B119"/>
@@ -10862,10 +10901,10 @@
         <v>1400044</v>
       </c>
       <c r="C2" s="862" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D2" s="228" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E2" s="228">
         <v>980</v>
@@ -10874,37 +10913,37 @@
         <v>2000</v>
       </c>
       <c r="G2" s="230" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H2" s="231" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I2" s="232" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J2" s="229" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K2" s="862" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L2" s="862" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M2" s="862" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N2" s="862" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O2" s="862" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P2" s="862">
         <v>228</v>
       </c>
       <c r="Q2" s="862" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="R2" s="863">
         <v>45055</v>
@@ -10913,16 +10952,16 @@
         <v>45062</v>
       </c>
       <c r="T2" s="864" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="U2" s="862" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="V2" s="862" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="W2" s="560" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -10932,7 +10971,7 @@
       <c r="B3" s="865"/>
       <c r="C3" s="866"/>
       <c r="D3" s="867" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E3" s="867">
         <v>5450086</v>
@@ -10950,7 +10989,7 @@
         <v>5</v>
       </c>
       <c r="J3" s="236" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K3" s="866"/>
       <c r="L3" s="866"/>
@@ -10976,7 +11015,7 @@
       <c r="E4" s="871"/>
       <c r="F4" s="871"/>
       <c r="G4" s="237" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H4" s="238">
         <v>5020101</v>
@@ -10985,7 +11024,7 @@
         <v>5</v>
       </c>
       <c r="J4" s="236" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K4" s="866"/>
       <c r="L4" s="866"/>
@@ -11009,10 +11048,10 @@
         <v>1900013</v>
       </c>
       <c r="C5" s="561" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D5" s="239" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E5" s="239">
         <v>980</v>
@@ -11021,37 +11060,37 @@
         <v>15150</v>
       </c>
       <c r="G5" s="873" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H5" s="873" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I5" s="873" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J5" s="240" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K5" s="873" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L5" s="873" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M5" s="873" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N5" s="873" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O5" s="873" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P5" s="873" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q5" s="873" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="R5" s="874">
         <v>45055</v>
@@ -11063,13 +11102,13 @@
         <v>32</v>
       </c>
       <c r="U5" s="873" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="V5" s="873" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="W5" s="560" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -11091,7 +11130,7 @@
       <c r="H6" s="876"/>
       <c r="I6" s="876"/>
       <c r="J6" s="241" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K6" s="876"/>
       <c r="L6" s="876"/>
@@ -11126,7 +11165,7 @@
       <c r="H7" s="876"/>
       <c r="I7" s="876"/>
       <c r="J7" s="241" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K7" s="876"/>
       <c r="L7" s="876"/>
@@ -11161,7 +11200,7 @@
       <c r="H8" s="878"/>
       <c r="I8" s="878"/>
       <c r="J8" s="243" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K8" s="878"/>
       <c r="L8" s="878"/>
@@ -11185,19 +11224,19 @@
         <v>1400065</v>
       </c>
       <c r="C9" s="862" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D9" s="862" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E9" s="879" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F9" s="862" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G9" s="862" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H9" s="862">
         <v>5450109</v>
@@ -11206,7 +11245,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="862" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K9" s="234" t="s">
         <v>34</v>
@@ -11221,13 +11260,13 @@
         <v>0.23</v>
       </c>
       <c r="O9" s="862" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P9" s="862">
         <v>227</v>
       </c>
       <c r="Q9" s="862" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="R9" s="863">
         <v>45055</v>
@@ -11236,16 +11275,16 @@
         <v>45062</v>
       </c>
       <c r="T9" s="862" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U9" s="862">
         <v>80</v>
       </c>
       <c r="V9" s="862" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="W9" s="556" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -11262,7 +11301,7 @@
       <c r="I10" s="866"/>
       <c r="J10" s="866"/>
       <c r="K10" s="234" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L10" s="234">
         <v>5010101</v>
@@ -11297,7 +11336,7 @@
       <c r="I11" s="866"/>
       <c r="J11" s="866"/>
       <c r="K11" s="234" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L11" s="234">
         <v>5010099</v>
@@ -11332,7 +11371,7 @@
       <c r="I12" s="866"/>
       <c r="J12" s="866"/>
       <c r="K12" s="234" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L12" s="234">
         <v>5010200</v>
@@ -11367,7 +11406,7 @@
       <c r="I13" s="866"/>
       <c r="J13" s="866"/>
       <c r="K13" s="234" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L13" s="234">
         <v>5010201</v>
@@ -11402,7 +11441,7 @@
       <c r="I14" s="866"/>
       <c r="J14" s="866"/>
       <c r="K14" s="234" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L14" s="234">
         <v>5010008</v>
@@ -11437,7 +11476,7 @@
       <c r="I15" s="882"/>
       <c r="J15" s="882"/>
       <c r="K15" s="238" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L15" s="238">
         <v>5010204</v>
@@ -11466,10 +11505,10 @@
         <v>1400078</v>
       </c>
       <c r="C16" s="873" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D16" s="873" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E16" s="873">
         <v>5450121</v>
@@ -11478,7 +11517,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="239" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H16" s="239">
         <v>922</v>
@@ -11487,28 +11526,28 @@
         <v>20</v>
       </c>
       <c r="J16" s="873" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K16" s="873" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L16" s="873" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M16" s="873" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N16" s="873" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O16" s="873" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P16" s="873">
         <v>226</v>
       </c>
       <c r="Q16" s="873" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="R16" s="874">
         <v>45055</v>
@@ -11517,16 +11556,16 @@
         <v>45062</v>
       </c>
       <c r="T16" s="873" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="U16" s="873">
         <v>200</v>
       </c>
       <c r="V16" s="873" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="W16" s="556" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -11539,7 +11578,7 @@
       <c r="E17" s="876"/>
       <c r="F17" s="876"/>
       <c r="G17" s="239" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H17" s="239">
         <v>927</v>
@@ -11572,7 +11611,7 @@
       <c r="E18" s="876"/>
       <c r="F18" s="876"/>
       <c r="G18" s="239" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H18" s="239">
         <v>600019</v>
@@ -11605,7 +11644,7 @@
       <c r="E19" s="878"/>
       <c r="F19" s="878"/>
       <c r="G19" s="243" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H19" s="243">
         <v>952</v>
@@ -11636,10 +11675,10 @@
         <v>1400068</v>
       </c>
       <c r="C20" s="558" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D20" s="558" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E20" s="866">
         <v>5450112</v>
@@ -11648,7 +11687,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="234" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H20" s="234">
         <v>5202001</v>
@@ -11657,28 +11696,28 @@
         <v>1</v>
       </c>
       <c r="J20" s="234" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K20" s="866" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L20" s="866" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M20" s="866" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N20" s="866" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O20" s="866" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P20" s="866">
         <v>225</v>
       </c>
       <c r="Q20" s="866" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="R20" s="884">
         <v>45055</v>
@@ -11687,16 +11726,16 @@
         <v>45062</v>
       </c>
       <c r="T20" s="866" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="U20" s="866">
         <v>200</v>
       </c>
       <c r="V20" s="866" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="W20" s="555" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -11709,7 +11748,7 @@
       <c r="E21" s="866"/>
       <c r="F21" s="866"/>
       <c r="G21" s="234" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H21" s="234">
         <v>5000075</v>
@@ -11718,7 +11757,7 @@
         <v>1</v>
       </c>
       <c r="J21" s="234" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K21" s="866"/>
       <c r="L21" s="866"/>
@@ -11753,7 +11792,7 @@
         <v>5</v>
       </c>
       <c r="J22" s="234" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K22" s="866"/>
       <c r="L22" s="866"/>
@@ -11779,7 +11818,7 @@
       <c r="E23" s="866"/>
       <c r="F23" s="866"/>
       <c r="G23" s="234" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H23" s="234">
         <v>5020101</v>
@@ -11788,7 +11827,7 @@
         <v>5</v>
       </c>
       <c r="J23" s="234" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K23" s="866"/>
       <c r="L23" s="866"/>
@@ -11814,7 +11853,7 @@
       <c r="E24" s="882"/>
       <c r="F24" s="882"/>
       <c r="G24" s="238" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H24" s="238">
         <v>600017</v>
@@ -11823,7 +11862,7 @@
         <v>10</v>
       </c>
       <c r="J24" s="238" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K24" s="882"/>
       <c r="L24" s="882"/>
@@ -12044,10 +12083,10 @@
         <v>1400044</v>
       </c>
       <c r="C2" s="567" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D2" s="155" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E2" s="155">
         <v>980</v>
@@ -12056,13 +12095,13 @@
         <v>2000</v>
       </c>
       <c r="G2" s="155" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H2" s="148" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I2" s="144" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J2" s="144"/>
       <c r="K2" s="569"/>
@@ -12070,13 +12109,13 @@
       <c r="M2" s="569"/>
       <c r="N2" s="573"/>
       <c r="O2" s="567" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P2" s="567">
         <v>221</v>
       </c>
       <c r="Q2" s="567" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="R2" s="575">
         <v>45027</v>
@@ -12085,14 +12124,14 @@
         <v>45034</v>
       </c>
       <c r="T2" s="581" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="U2" s="567"/>
       <c r="V2" s="575" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="W2" s="577" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -12102,7 +12141,7 @@
       <c r="B3" s="566"/>
       <c r="C3" s="568"/>
       <c r="D3" s="579" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E3" s="579">
         <v>5450086</v>
@@ -12144,7 +12183,7 @@
       <c r="E4" s="580"/>
       <c r="F4" s="580"/>
       <c r="G4" s="157" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H4" s="158">
         <v>5020101</v>
@@ -12175,10 +12214,10 @@
         <v>1900013</v>
       </c>
       <c r="C5" s="602" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D5" s="151" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E5" s="151">
         <v>980</v>
@@ -12195,13 +12234,13 @@
       <c r="M5" s="606"/>
       <c r="N5" s="624"/>
       <c r="O5" s="605" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P5" s="605">
         <v>0</v>
       </c>
       <c r="Q5" s="609" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="R5" s="609">
         <v>45027</v>
@@ -12214,10 +12253,10 @@
       </c>
       <c r="U5" s="615"/>
       <c r="V5" s="618" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="W5" s="621" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -12327,10 +12366,10 @@
         <v>1400070</v>
       </c>
       <c r="C9" s="646" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D9" s="636" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E9" s="649">
         <v>5450114</v>
@@ -12339,7 +12378,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="155" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H9" s="146">
         <v>600019</v>
@@ -12353,13 +12392,13 @@
       <c r="M9" s="633"/>
       <c r="N9" s="639"/>
       <c r="O9" s="636" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P9" s="571">
         <v>220</v>
       </c>
       <c r="Q9" s="630" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="R9" s="587">
         <v>45027</v>
@@ -12368,14 +12407,14 @@
         <v>45034</v>
       </c>
       <c r="T9" s="590" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="U9" s="593"/>
       <c r="V9" s="596" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="W9" s="584" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -12388,7 +12427,7 @@
       <c r="E10" s="650"/>
       <c r="F10" s="650"/>
       <c r="G10" s="175" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H10" s="148">
         <v>450</v>
@@ -12421,7 +12460,7 @@
       <c r="E11" s="650"/>
       <c r="F11" s="650"/>
       <c r="G11" s="175" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="148">
         <v>451</v>
@@ -12454,7 +12493,7 @@
       <c r="E12" s="579"/>
       <c r="F12" s="579"/>
       <c r="G12" s="156" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H12" s="148">
         <v>452</v>
@@ -12487,7 +12526,7 @@
       <c r="E13" s="580"/>
       <c r="F13" s="580"/>
       <c r="G13" s="157" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H13" s="158">
         <v>454</v>
@@ -12518,13 +12557,13 @@
         <v>1400065</v>
       </c>
       <c r="C14" s="605" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D14" s="605"/>
       <c r="E14" s="627"/>
       <c r="F14" s="605"/>
       <c r="G14" s="605" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H14" s="605">
         <v>5450109</v>
@@ -12546,13 +12585,13 @@
         <v>0.23</v>
       </c>
       <c r="O14" s="605" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P14" s="605">
         <v>219</v>
       </c>
       <c r="Q14" s="609" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="R14" s="609">
         <v>45027</v>
@@ -12561,16 +12600,16 @@
         <v>45034</v>
       </c>
       <c r="T14" s="612" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U14" s="615">
         <v>80</v>
       </c>
       <c r="V14" s="618" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="W14" s="621" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -12587,7 +12626,7 @@
       <c r="I15" s="603"/>
       <c r="J15" s="218"/>
       <c r="K15" s="152" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L15" s="152">
         <v>5010101</v>
@@ -12622,7 +12661,7 @@
       <c r="I16" s="603"/>
       <c r="J16" s="218"/>
       <c r="K16" s="152" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L16" s="152">
         <v>5010099</v>
@@ -12657,7 +12696,7 @@
       <c r="I17" s="603"/>
       <c r="J17" s="218"/>
       <c r="K17" s="152" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L17" s="152">
         <v>5010200</v>
@@ -12692,7 +12731,7 @@
       <c r="I18" s="603"/>
       <c r="J18" s="218"/>
       <c r="K18" s="152" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L18" s="152">
         <v>5010201</v>
@@ -12727,7 +12766,7 @@
       <c r="I19" s="603"/>
       <c r="J19" s="218"/>
       <c r="K19" s="152" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L19" s="152">
         <v>5010008</v>
@@ -12762,7 +12801,7 @@
       <c r="I20" s="604"/>
       <c r="J20" s="153"/>
       <c r="K20" s="154" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L20" s="154">
         <v>5010204</v>
@@ -12791,10 +12830,10 @@
         <v>1400078</v>
       </c>
       <c r="C21" s="571" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D21" s="571" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E21" s="654">
         <v>5450121</v>
@@ -12803,7 +12842,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="146" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H21" s="146">
         <v>922</v>
@@ -12817,13 +12856,13 @@
       <c r="M21" s="569"/>
       <c r="N21" s="573"/>
       <c r="O21" s="571" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P21" s="571">
         <v>218</v>
       </c>
       <c r="Q21" s="587" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="R21" s="587">
         <v>45027</v>
@@ -12832,16 +12871,16 @@
         <v>45034</v>
       </c>
       <c r="T21" s="658" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="U21" s="661">
         <v>200</v>
       </c>
       <c r="V21" s="664" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="W21" s="667" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -12854,7 +12893,7 @@
       <c r="E22" s="655"/>
       <c r="F22" s="572"/>
       <c r="G22" s="178" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H22" s="148">
         <v>927</v>
@@ -12887,7 +12926,7 @@
       <c r="E23" s="655"/>
       <c r="F23" s="572"/>
       <c r="G23" s="178" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H23" s="148">
         <v>600019</v>
@@ -12920,7 +12959,7 @@
       <c r="E24" s="656"/>
       <c r="F24" s="642"/>
       <c r="G24" s="179" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H24" s="158">
         <v>952</v>
@@ -12951,10 +12990,10 @@
         <v>1400069</v>
       </c>
       <c r="C25" s="605" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D25" s="605" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E25" s="605">
         <v>5450113</v>
@@ -12963,7 +13002,7 @@
         <v>1</v>
       </c>
       <c r="G25" s="151" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H25" s="151">
         <v>701</v>
@@ -12977,13 +13016,13 @@
       <c r="M25" s="606"/>
       <c r="N25" s="624"/>
       <c r="O25" s="605" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P25" s="605">
         <v>217</v>
       </c>
       <c r="Q25" s="609" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="R25" s="609">
         <v>45027</v>
@@ -12992,16 +13031,16 @@
         <v>45034</v>
       </c>
       <c r="T25" s="612" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="U25" s="615">
         <v>120</v>
       </c>
       <c r="V25" s="618" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="W25" s="621" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -13014,7 +13053,7 @@
       <c r="E26" s="604"/>
       <c r="F26" s="604"/>
       <c r="G26" s="153" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H26" s="154">
         <v>700</v>
@@ -13045,10 +13084,10 @@
         <v>1400067</v>
       </c>
       <c r="C27" s="571" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D27" s="146" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E27" s="146">
         <v>980</v>
@@ -13057,13 +13096,13 @@
         <v>2000</v>
       </c>
       <c r="G27" s="146" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H27" s="146" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I27" s="146" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J27" s="144"/>
       <c r="K27" s="569"/>
@@ -13071,13 +13110,13 @@
       <c r="M27" s="569"/>
       <c r="N27" s="573"/>
       <c r="O27" s="571" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P27" s="571">
         <v>216</v>
       </c>
       <c r="Q27" s="587" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="R27" s="587">
         <v>45034</v>
@@ -13086,14 +13125,14 @@
         <v>45041</v>
       </c>
       <c r="T27" s="658" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="U27" s="661"/>
       <c r="V27" s="664" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="W27" s="680" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -13103,7 +13142,7 @@
       <c r="B28" s="644"/>
       <c r="C28" s="572"/>
       <c r="D28" s="568" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E28" s="568">
         <v>5450111</v>
@@ -13176,10 +13215,10 @@
         <v>1400050</v>
       </c>
       <c r="C30" s="605" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D30" s="684" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E30" s="674">
         <v>5450091</v>
@@ -13188,7 +13227,7 @@
         <v>1</v>
       </c>
       <c r="G30" s="151" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H30" s="151">
         <v>1010007</v>
@@ -13202,13 +13241,13 @@
       <c r="M30" s="606"/>
       <c r="N30" s="624"/>
       <c r="O30" s="605" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P30" s="605">
         <v>215</v>
       </c>
       <c r="Q30" s="609" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="R30" s="609">
         <v>45034</v>
@@ -13217,14 +13256,14 @@
         <v>45041</v>
       </c>
       <c r="T30" s="612" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="U30" s="615"/>
       <c r="V30" s="618" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="W30" s="687" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -13301,7 +13340,7 @@
         <v>1800027</v>
       </c>
       <c r="C33" s="144" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D33" s="144"/>
       <c r="E33" s="188"/>
@@ -13317,13 +13356,13 @@
       <c r="M33" s="147"/>
       <c r="N33" s="145"/>
       <c r="O33" s="144" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P33" s="144">
         <v>0</v>
       </c>
       <c r="Q33" s="184" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="R33" s="184">
         <v>45034</v>
@@ -13332,16 +13371,16 @@
         <v>45041</v>
       </c>
       <c r="T33" s="189" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U33" s="190">
         <v>80</v>
       </c>
       <c r="V33" s="183" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="W33" s="191" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -13352,13 +13391,13 @@
         <v>1400077</v>
       </c>
       <c r="C34" s="674" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D34" s="674"/>
       <c r="E34" s="677"/>
       <c r="F34" s="674"/>
       <c r="G34" s="674" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H34" s="674">
         <v>5450120</v>
@@ -13380,13 +13419,13 @@
         <v>0.22</v>
       </c>
       <c r="O34" s="674" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P34" s="674">
         <v>214</v>
       </c>
       <c r="Q34" s="699" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="R34" s="699">
         <v>45034</v>
@@ -13395,16 +13434,16 @@
         <v>45041</v>
       </c>
       <c r="T34" s="702" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U34" s="690">
         <v>80</v>
       </c>
       <c r="V34" s="693" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="W34" s="687" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -13456,7 +13495,7 @@
       <c r="I36" s="675"/>
       <c r="J36" s="152"/>
       <c r="K36" s="152" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L36" s="152">
         <v>5200003</v>
@@ -13491,7 +13530,7 @@
       <c r="I37" s="675"/>
       <c r="J37" s="152"/>
       <c r="K37" s="152" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L37" s="152">
         <v>5210001</v>
@@ -13526,7 +13565,7 @@
       <c r="I38" s="675"/>
       <c r="J38" s="152"/>
       <c r="K38" s="152" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L38" s="152">
         <v>5210002</v>
@@ -13561,7 +13600,7 @@
       <c r="I39" s="675"/>
       <c r="J39" s="152"/>
       <c r="K39" s="152" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L39" s="152">
         <v>5030007</v>
@@ -13596,7 +13635,7 @@
       <c r="I40" s="675"/>
       <c r="J40" s="152"/>
       <c r="K40" s="152" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L40" s="152">
         <v>5210003</v>
@@ -13631,7 +13670,7 @@
       <c r="I41" s="676"/>
       <c r="J41" s="154"/>
       <c r="K41" s="154" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L41" s="154">
         <v>5220004</v>
@@ -13660,13 +13699,13 @@
         <v>1400066</v>
       </c>
       <c r="C42" s="697" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D42" s="697"/>
       <c r="E42" s="567"/>
       <c r="F42" s="567"/>
       <c r="G42" s="571" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H42" s="571">
         <v>5450110</v>
@@ -13676,7 +13715,7 @@
       </c>
       <c r="J42" s="146"/>
       <c r="K42" s="146" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L42" s="146">
         <v>350</v>
@@ -13688,13 +13727,13 @@
         <v>0.99</v>
       </c>
       <c r="O42" s="571" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P42" s="571">
         <v>213</v>
       </c>
       <c r="Q42" s="587" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="R42" s="587">
         <v>45034</v>
@@ -13703,16 +13742,16 @@
         <v>45041</v>
       </c>
       <c r="T42" s="658" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="U42" s="661">
         <v>120</v>
       </c>
       <c r="V42" s="664" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="W42" s="680" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -13729,7 +13768,7 @@
       <c r="I43" s="683"/>
       <c r="J43" s="158"/>
       <c r="K43" s="158" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L43" s="158">
         <v>351</v>
@@ -13758,10 +13797,10 @@
         <v>1400051</v>
       </c>
       <c r="C44" s="605" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D44" s="151" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E44" s="151">
         <v>980</v>
@@ -13770,13 +13809,13 @@
         <v>2000</v>
       </c>
       <c r="G44" s="151" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H44" s="151" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I44" s="150" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J44" s="150"/>
       <c r="K44" s="606"/>
@@ -13784,13 +13823,13 @@
       <c r="M44" s="606"/>
       <c r="N44" s="624"/>
       <c r="O44" s="605" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P44" s="605">
         <v>212</v>
       </c>
       <c r="Q44" s="609" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="R44" s="609">
         <v>45041</v>
@@ -13799,14 +13838,14 @@
         <v>45048</v>
       </c>
       <c r="T44" s="612" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="U44" s="615"/>
       <c r="V44" s="618" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="W44" s="621" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -13816,7 +13855,7 @@
       <c r="B45" s="600"/>
       <c r="C45" s="603"/>
       <c r="D45" s="675" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E45" s="675">
         <v>5450086</v>
@@ -13825,7 +13864,7 @@
         <v>1</v>
       </c>
       <c r="G45" s="152" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H45" s="152">
         <v>5020002</v>
@@ -13858,7 +13897,7 @@
       <c r="E46" s="676"/>
       <c r="F46" s="676"/>
       <c r="G46" s="154" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H46" s="154">
         <v>5020101</v>
@@ -13889,10 +13928,10 @@
         <v>1900013</v>
       </c>
       <c r="C47" s="711" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D47" s="146" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E47" s="146">
         <v>980</v>
@@ -13909,13 +13948,13 @@
       <c r="M47" s="569"/>
       <c r="N47" s="573"/>
       <c r="O47" s="571" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P47" s="571">
         <v>0</v>
       </c>
       <c r="Q47" s="587" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="R47" s="587">
         <v>45041</v>
@@ -13928,10 +13967,10 @@
       </c>
       <c r="U47" s="661"/>
       <c r="V47" s="664" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="W47" s="680" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -14041,13 +14080,13 @@
         <v>1400079</v>
       </c>
       <c r="C51" s="708" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D51" s="605"/>
       <c r="E51" s="627"/>
       <c r="F51" s="605"/>
       <c r="G51" s="708" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H51" s="712">
         <v>5450122</v>
@@ -14057,7 +14096,7 @@
       </c>
       <c r="J51" s="150"/>
       <c r="K51" s="160" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L51" s="151">
         <v>3800</v>
@@ -14069,13 +14108,13 @@
         <v>0.02</v>
       </c>
       <c r="O51" s="605" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P51" s="605">
         <v>211</v>
       </c>
       <c r="Q51" s="609" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="R51" s="609">
         <v>45041</v>
@@ -14084,16 +14123,16 @@
         <v>45048</v>
       </c>
       <c r="T51" s="612" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="U51" s="615">
         <v>100</v>
       </c>
       <c r="V51" s="618" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="W51" s="715" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -14110,7 +14149,7 @@
       <c r="I52" s="603"/>
       <c r="J52" s="218"/>
       <c r="K52" s="163" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L52" s="152">
         <v>3800</v>
@@ -14145,7 +14184,7 @@
       <c r="I53" s="603"/>
       <c r="J53" s="218"/>
       <c r="K53" s="163" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L53" s="152">
         <v>3800</v>
@@ -14180,7 +14219,7 @@
       <c r="I54" s="603"/>
       <c r="J54" s="218"/>
       <c r="K54" s="163" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L54" s="152">
         <v>3021</v>
@@ -14215,7 +14254,7 @@
       <c r="I55" s="603"/>
       <c r="J55" s="218"/>
       <c r="K55" s="163" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L55" s="152">
         <v>3041</v>
@@ -14250,7 +14289,7 @@
       <c r="I56" s="603"/>
       <c r="J56" s="218"/>
       <c r="K56" s="163" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L56" s="152">
         <v>3011</v>
@@ -14285,7 +14324,7 @@
       <c r="I57" s="603"/>
       <c r="J57" s="218"/>
       <c r="K57" s="163" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L57" s="152">
         <v>3031</v>
@@ -14320,7 +14359,7 @@
       <c r="I58" s="603"/>
       <c r="J58" s="218"/>
       <c r="K58" s="163" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L58" s="152">
         <v>3001</v>
@@ -14355,7 +14394,7 @@
       <c r="I59" s="603"/>
       <c r="J59" s="218"/>
       <c r="K59" s="163" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L59" s="152">
         <v>3022</v>
@@ -14390,7 +14429,7 @@
       <c r="I60" s="603"/>
       <c r="J60" s="218"/>
       <c r="K60" s="163" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L60" s="152">
         <v>3042</v>
@@ -14425,7 +14464,7 @@
       <c r="I61" s="603"/>
       <c r="J61" s="218"/>
       <c r="K61" s="163" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L61" s="152">
         <v>3012</v>
@@ -14460,7 +14499,7 @@
       <c r="I62" s="603"/>
       <c r="J62" s="218"/>
       <c r="K62" s="163" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L62" s="152">
         <v>3032</v>
@@ -14495,7 +14534,7 @@
       <c r="I63" s="603"/>
       <c r="J63" s="218"/>
       <c r="K63" s="163" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L63" s="152">
         <v>3002</v>
@@ -14530,7 +14569,7 @@
       <c r="I64" s="603"/>
       <c r="J64" s="218"/>
       <c r="K64" s="163" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L64" s="152">
         <v>3100</v>
@@ -14565,7 +14604,7 @@
       <c r="I65" s="603"/>
       <c r="J65" s="218"/>
       <c r="K65" s="163" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L65" s="152">
         <v>5000083</v>
@@ -14600,7 +14639,7 @@
       <c r="I66" s="603"/>
       <c r="J66" s="218"/>
       <c r="K66" s="163" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L66" s="152">
         <v>3200</v>
@@ -14635,7 +14674,7 @@
       <c r="I67" s="603"/>
       <c r="J67" s="218"/>
       <c r="K67" s="163" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L67" s="152">
         <v>3441</v>
@@ -14670,7 +14709,7 @@
       <c r="I68" s="603"/>
       <c r="J68" s="218"/>
       <c r="K68" s="163" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L68" s="152">
         <v>3442</v>
@@ -14705,7 +14744,7 @@
       <c r="I69" s="603"/>
       <c r="J69" s="218"/>
       <c r="K69" s="163" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L69" s="152">
         <v>3443</v>
@@ -14740,7 +14779,7 @@
       <c r="I70" s="604"/>
       <c r="J70" s="153"/>
       <c r="K70" s="165" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L70" s="154">
         <v>3446</v>
@@ -14769,13 +14808,13 @@
         <v>1400080</v>
       </c>
       <c r="C71" s="708" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D71" s="571"/>
       <c r="E71" s="654"/>
       <c r="F71" s="571"/>
       <c r="G71" s="708" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H71" s="712">
         <v>5450123</v>
@@ -14785,7 +14824,7 @@
       </c>
       <c r="J71" s="144"/>
       <c r="K71" s="177" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L71" s="146">
         <v>2600</v>
@@ -14797,13 +14836,13 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="O71" s="571" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P71" s="571">
         <v>210</v>
       </c>
       <c r="Q71" s="587" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="R71" s="587">
         <v>45041</v>
@@ -14812,16 +14851,16 @@
         <v>45048</v>
       </c>
       <c r="T71" s="658" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="U71" s="661">
         <v>40</v>
       </c>
       <c r="V71" s="664" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="W71" s="667" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -14838,7 +14877,7 @@
       <c r="I72" s="572"/>
       <c r="J72" s="217"/>
       <c r="K72" s="181" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L72" s="148">
         <v>2601</v>
@@ -14873,7 +14912,7 @@
       <c r="I73" s="572"/>
       <c r="J73" s="217"/>
       <c r="K73" s="181" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L73" s="148">
         <v>2602</v>
@@ -14908,7 +14947,7 @@
       <c r="I74" s="572"/>
       <c r="J74" s="217"/>
       <c r="K74" s="181" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L74" s="148">
         <v>2603</v>
@@ -14943,7 +14982,7 @@
       <c r="I75" s="572"/>
       <c r="J75" s="217"/>
       <c r="K75" s="181" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L75" s="148">
         <v>2610</v>
@@ -14978,7 +15017,7 @@
       <c r="I76" s="572"/>
       <c r="J76" s="217"/>
       <c r="K76" s="181" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L76" s="148">
         <v>2611</v>
@@ -15013,7 +15052,7 @@
       <c r="I77" s="572"/>
       <c r="J77" s="217"/>
       <c r="K77" s="181" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L77" s="148">
         <v>2612</v>
@@ -15048,7 +15087,7 @@
       <c r="I78" s="572"/>
       <c r="J78" s="217"/>
       <c r="K78" s="181" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L78" s="148">
         <v>2613</v>
@@ -15083,7 +15122,7 @@
       <c r="I79" s="572"/>
       <c r="J79" s="217"/>
       <c r="K79" s="181" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L79" s="148">
         <v>2500</v>
@@ -15118,7 +15157,7 @@
       <c r="I80" s="642"/>
       <c r="J80" s="179"/>
       <c r="K80" s="182" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L80" s="158">
         <v>2510</v>
@@ -15147,7 +15186,7 @@
         <v>1400072</v>
       </c>
       <c r="C81" s="684" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D81" s="684"/>
       <c r="E81" s="674">
@@ -15157,7 +15196,7 @@
         <v>1</v>
       </c>
       <c r="G81" s="151" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H81" s="151">
         <v>1100301</v>
@@ -15171,13 +15210,13 @@
       <c r="M81" s="721"/>
       <c r="N81" s="729"/>
       <c r="O81" s="674" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P81" s="732">
         <v>206</v>
       </c>
       <c r="Q81" s="699" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="R81" s="699">
         <v>45041</v>
@@ -15186,16 +15225,16 @@
         <v>45048</v>
       </c>
       <c r="T81" s="702" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="U81" s="690">
         <v>200</v>
       </c>
       <c r="V81" s="693" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="W81" s="687" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -15241,7 +15280,7 @@
       <c r="E83" s="720"/>
       <c r="F83" s="720"/>
       <c r="G83" s="161" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H83" s="152">
         <v>2903</v>
@@ -15274,7 +15313,7 @@
       <c r="E84" s="676"/>
       <c r="F84" s="676"/>
       <c r="G84" s="154" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H84" s="154">
         <v>7201</v>
@@ -15305,7 +15344,7 @@
         <v>1400073</v>
       </c>
       <c r="C85" s="174" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D85" s="174"/>
       <c r="E85" s="174">
@@ -15315,7 +15354,7 @@
         <v>1</v>
       </c>
       <c r="G85" s="174" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H85" s="174">
         <v>5000082</v>
@@ -15329,13 +15368,13 @@
       <c r="M85" s="201"/>
       <c r="N85" s="202"/>
       <c r="O85" s="174" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P85" s="213">
         <v>207</v>
       </c>
       <c r="Q85" s="203" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="R85" s="203">
         <v>45041</v>
@@ -15344,14 +15383,14 @@
         <v>45048</v>
       </c>
       <c r="T85" s="204" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="U85" s="205"/>
       <c r="V85" s="185" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="W85" s="206" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -15362,7 +15401,7 @@
         <v>1400074</v>
       </c>
       <c r="C86" s="684" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D86" s="684"/>
       <c r="E86" s="674">
@@ -15372,7 +15411,7 @@
         <v>1</v>
       </c>
       <c r="G86" s="151" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H86" s="151">
         <v>1100301</v>
@@ -15386,13 +15425,13 @@
       <c r="M86" s="721"/>
       <c r="N86" s="729"/>
       <c r="O86" s="674" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P86" s="732">
         <v>208</v>
       </c>
       <c r="Q86" s="699" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="R86" s="699">
         <v>45041</v>
@@ -15401,16 +15440,16 @@
         <v>45048</v>
       </c>
       <c r="T86" s="702" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="U86" s="690">
         <v>200</v>
       </c>
       <c r="V86" s="693" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="W86" s="687" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -15456,7 +15495,7 @@
       <c r="E88" s="720"/>
       <c r="F88" s="720"/>
       <c r="G88" s="161" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H88" s="152">
         <v>2903</v>
@@ -15489,7 +15528,7 @@
       <c r="E89" s="676"/>
       <c r="F89" s="676"/>
       <c r="G89" s="154" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H89" s="154">
         <v>7202</v>
@@ -15520,7 +15559,7 @@
         <v>1400075</v>
       </c>
       <c r="C90" s="174" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D90" s="174"/>
       <c r="E90" s="174">
@@ -15530,7 +15569,7 @@
         <v>1</v>
       </c>
       <c r="G90" s="174" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="H90" s="174">
         <v>5000082</v>
@@ -15544,13 +15583,13 @@
       <c r="M90" s="201"/>
       <c r="N90" s="202"/>
       <c r="O90" s="174" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P90" s="213">
         <v>209</v>
       </c>
       <c r="Q90" s="203" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="R90" s="203">
         <v>45041</v>
@@ -15559,14 +15598,14 @@
         <v>45048</v>
       </c>
       <c r="T90" s="204" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="U90" s="205"/>
       <c r="V90" s="185" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="W90" s="206" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -15577,10 +15616,10 @@
         <v>1400076</v>
       </c>
       <c r="C91" s="684" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D91" s="151" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E91" s="151">
         <v>980</v>
@@ -15589,13 +15628,13 @@
         <v>2000</v>
       </c>
       <c r="G91" s="151" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H91" s="151" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I91" s="151" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J91" s="151"/>
       <c r="K91" s="721"/>
@@ -15603,13 +15642,13 @@
       <c r="M91" s="721"/>
       <c r="N91" s="729"/>
       <c r="O91" s="674" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P91" s="674">
         <v>205</v>
       </c>
       <c r="Q91" s="699" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="R91" s="699">
         <v>45048</v>
@@ -15618,14 +15657,14 @@
         <v>45055</v>
       </c>
       <c r="T91" s="702" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="U91" s="690"/>
       <c r="V91" s="693" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="W91" s="687" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -15635,7 +15674,7 @@
       <c r="B92" s="672"/>
       <c r="C92" s="685"/>
       <c r="D92" s="675" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E92" s="675">
         <v>5450111</v>
@@ -15708,10 +15747,10 @@
         <v>1400081</v>
       </c>
       <c r="C94" s="571" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D94" s="697" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E94" s="742">
         <v>5450124</v>
@@ -15720,7 +15759,7 @@
         <v>1</v>
       </c>
       <c r="G94" s="146" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H94" s="146">
         <v>1020042</v>
@@ -15734,13 +15773,13 @@
       <c r="M94" s="569"/>
       <c r="N94" s="573"/>
       <c r="O94" s="571" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P94" s="571">
         <v>204</v>
       </c>
       <c r="Q94" s="587" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="R94" s="587">
         <v>45048</v>
@@ -15749,14 +15788,14 @@
         <v>45055</v>
       </c>
       <c r="T94" s="658" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="U94" s="661"/>
       <c r="V94" s="664" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="W94" s="735" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -15833,13 +15872,13 @@
         <v>1400082</v>
       </c>
       <c r="C97" s="708" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D97" s="605"/>
       <c r="E97" s="627"/>
       <c r="F97" s="605"/>
       <c r="G97" s="708" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H97" s="712">
         <v>5450125</v>
@@ -15849,7 +15888,7 @@
       </c>
       <c r="J97" s="150"/>
       <c r="K97" s="160" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L97" s="151">
         <v>300</v>
@@ -15861,13 +15900,13 @@
         <v>0.25519999999999998</v>
       </c>
       <c r="O97" s="605" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P97" s="605">
         <v>203</v>
       </c>
       <c r="Q97" s="609" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="R97" s="609">
         <v>45048</v>
@@ -15876,16 +15915,16 @@
         <v>45055</v>
       </c>
       <c r="T97" s="612" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="U97" s="615">
         <v>80</v>
       </c>
       <c r="V97" s="618" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="W97" s="715" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -15902,7 +15941,7 @@
       <c r="I98" s="603"/>
       <c r="J98" s="218"/>
       <c r="K98" s="163" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="L98" s="152">
         <v>310</v>
@@ -15937,7 +15976,7 @@
       <c r="I99" s="603"/>
       <c r="J99" s="218"/>
       <c r="K99" s="163" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="L99" s="152">
         <v>320</v>
@@ -15972,7 +16011,7 @@
       <c r="I100" s="603"/>
       <c r="J100" s="218"/>
       <c r="K100" s="163" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L100" s="152">
         <v>600</v>
@@ -16007,7 +16046,7 @@
       <c r="I101" s="603"/>
       <c r="J101" s="218"/>
       <c r="K101" s="163" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L101" s="152">
         <v>301</v>
@@ -16042,7 +16081,7 @@
       <c r="I102" s="603"/>
       <c r="J102" s="218"/>
       <c r="K102" s="163" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L102" s="152">
         <v>311</v>
@@ -16077,7 +16116,7 @@
       <c r="I103" s="603"/>
       <c r="J103" s="218"/>
       <c r="K103" s="163" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L103" s="152">
         <v>321</v>
@@ -16112,7 +16151,7 @@
       <c r="I104" s="603"/>
       <c r="J104" s="218"/>
       <c r="K104" s="163" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L104" s="152">
         <v>601</v>
@@ -16147,7 +16186,7 @@
       <c r="I105" s="603"/>
       <c r="J105" s="218"/>
       <c r="K105" s="163" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L105" s="152">
         <v>302</v>
@@ -16182,7 +16221,7 @@
       <c r="I106" s="603"/>
       <c r="J106" s="218"/>
       <c r="K106" s="163" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L106" s="152">
         <v>312</v>
@@ -16217,7 +16256,7 @@
       <c r="I107" s="603"/>
       <c r="J107" s="218"/>
       <c r="K107" s="163" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L107" s="152">
         <v>322</v>
@@ -16252,7 +16291,7 @@
       <c r="I108" s="604"/>
       <c r="J108" s="153"/>
       <c r="K108" s="165" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L108" s="154">
         <v>602</v>
@@ -16281,10 +16320,10 @@
         <v>1400071</v>
       </c>
       <c r="C109" s="711" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D109" s="711" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E109" s="571">
         <v>5450115</v>
@@ -16293,7 +16332,7 @@
         <v>1</v>
       </c>
       <c r="G109" s="146" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H109" s="146">
         <v>5010101</v>
@@ -16307,13 +16346,13 @@
       <c r="M109" s="748"/>
       <c r="N109" s="762"/>
       <c r="O109" s="567" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P109" s="567">
         <v>202</v>
       </c>
       <c r="Q109" s="575" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="R109" s="575">
         <v>45048</v>
@@ -16322,16 +16361,16 @@
         <v>45055</v>
       </c>
       <c r="T109" s="752" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="U109" s="755">
         <v>200</v>
       </c>
       <c r="V109" s="758" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="W109" s="577" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -16377,7 +16416,7 @@
       <c r="E111" s="572"/>
       <c r="F111" s="572"/>
       <c r="G111" s="148" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H111" s="148">
         <v>5010007</v>
@@ -16410,7 +16449,7 @@
       <c r="E112" s="572"/>
       <c r="F112" s="572"/>
       <c r="G112" s="148" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H112" s="148">
         <v>5000076</v>
@@ -16443,7 +16482,7 @@
       <c r="E113" s="642"/>
       <c r="F113" s="642"/>
       <c r="G113" s="158" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H113" s="158">
         <v>952</v>
@@ -16474,10 +16513,10 @@
         <v>1400047</v>
       </c>
       <c r="C114" s="168" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D114" s="168" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E114" s="168">
         <v>5450088</v>
@@ -16486,7 +16525,7 @@
         <v>1</v>
       </c>
       <c r="G114" s="168" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H114" s="168">
         <v>2910</v>
@@ -16500,13 +16539,13 @@
       <c r="M114" s="169"/>
       <c r="N114" s="210"/>
       <c r="O114" s="168" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P114" s="168">
         <v>201</v>
       </c>
       <c r="Q114" s="170" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="R114" s="170">
         <v>45048</v>
@@ -16515,16 +16554,16 @@
         <v>45055</v>
       </c>
       <c r="T114" s="171" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="U114" s="172">
         <v>200</v>
       </c>
       <c r="V114" s="173" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="W114" s="211" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -16992,10 +17031,10 @@
         <v>1400021</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E2" s="5">
         <v>5450035</v>
@@ -17004,7 +17043,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H2" s="5">
         <v>5010002</v>
@@ -17024,7 +17063,7 @@
         <v>20</v>
       </c>
       <c r="Q2" s="13" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="R2" s="14">
         <v>44964</v>
@@ -17033,16 +17072,16 @@
         <v>44971</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="U2" s="16">
         <v>80</v>
       </c>
       <c r="V2" s="17" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="W2" s="18" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -17050,10 +17089,10 @@
         <v>1400054</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E3" s="8">
         <v>5450092</v>
@@ -17062,7 +17101,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H3" s="8">
         <v>5010101</v>
@@ -17082,7 +17121,7 @@
         <v>19</v>
       </c>
       <c r="Q3" s="21" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="R3" s="22">
         <v>44964</v>
@@ -17091,11 +17130,11 @@
         <v>44971</v>
       </c>
       <c r="T3" s="23" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="U3" s="24"/>
       <c r="V3" s="25" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="W3" s="26" t="s">
         <v>41</v>
@@ -17108,7 +17147,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="9"/>
       <c r="G4" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H4" s="8">
         <v>5010002</v>
@@ -17138,7 +17177,7 @@
       <c r="E5" s="8"/>
       <c r="F5" s="9"/>
       <c r="G5" s="10" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H5" s="8">
         <v>2901</v>
@@ -17168,7 +17207,7 @@
       <c r="E6" s="8"/>
       <c r="F6" s="9"/>
       <c r="G6" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H6" s="8">
         <v>600019</v>
@@ -17196,10 +17235,10 @@
         <v>1400026</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E7" s="5">
         <v>5450041</v>
@@ -17208,7 +17247,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H7" s="5">
         <v>600019</v>
@@ -17228,7 +17267,7 @@
         <v>21</v>
       </c>
       <c r="Q7" s="13" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="R7" s="14">
         <v>44964</v>
@@ -17237,16 +17276,16 @@
         <v>44971</v>
       </c>
       <c r="T7" s="15" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="U7" s="16">
         <v>30</v>
       </c>
       <c r="V7" s="17" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="W7" s="18" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -17256,7 +17295,7 @@
       <c r="E8" s="5"/>
       <c r="F8" s="6"/>
       <c r="G8" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H8" s="5">
         <v>600021</v>
@@ -17286,7 +17325,7 @@
       <c r="E9" s="5"/>
       <c r="F9" s="6"/>
       <c r="G9" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H9" s="5">
         <v>600022</v>
@@ -17314,10 +17353,10 @@
         <v>1400038</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E10" s="8">
         <v>5450080</v>
@@ -17326,7 +17365,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H10" s="8">
         <v>450</v>
@@ -17346,7 +17385,7 @@
         <v>22</v>
       </c>
       <c r="Q10" s="21" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="R10" s="22">
         <v>44964</v>
@@ -17355,16 +17394,16 @@
         <v>44971</v>
       </c>
       <c r="T10" s="23" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="U10" s="24">
         <v>30</v>
       </c>
       <c r="V10" s="25" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="W10" s="26" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -17374,7 +17413,7 @@
       <c r="E11" s="8"/>
       <c r="F11" s="9"/>
       <c r="G11" s="10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H11" s="8">
         <v>451</v>
@@ -17404,7 +17443,7 @@
       <c r="E12" s="8"/>
       <c r="F12" s="9"/>
       <c r="G12" s="10" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H12" s="8">
         <v>452</v>
@@ -17434,7 +17473,7 @@
       <c r="E13" s="8"/>
       <c r="F13" s="9"/>
       <c r="G13" s="10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H13" s="8">
         <v>454</v>
@@ -17464,7 +17503,7 @@
       <c r="E14" s="8"/>
       <c r="F14" s="9"/>
       <c r="G14" s="10" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H14" s="8">
         <v>5000054</v>
@@ -17492,7 +17531,7 @@
         <v>1400044</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>20</v>
@@ -17527,21 +17566,21 @@
         <v>44978</v>
       </c>
       <c r="T15" s="15" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="U15" s="16"/>
       <c r="V15" s="17" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="W15" s="18" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="16" spans="1:23">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E16" s="5">
         <v>5450086</v>
@@ -17550,7 +17589,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H16" s="5">
         <v>5020002</v>
@@ -17580,7 +17619,7 @@
       <c r="E17" s="5"/>
       <c r="F17" s="6"/>
       <c r="G17" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H17" s="5">
         <v>5020101</v>
@@ -17608,10 +17647,10 @@
         <v>1400055</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E18" s="8">
         <v>5450093</v>
@@ -17620,7 +17659,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H18" s="8">
         <v>701</v>
@@ -17640,7 +17679,7 @@
         <v>17</v>
       </c>
       <c r="Q18" s="21" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="R18" s="22">
         <v>44971</v>
@@ -17649,7 +17688,7 @@
         <v>44978</v>
       </c>
       <c r="T18" s="23" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="U18" s="24">
         <v>120</v>
@@ -17668,7 +17707,7 @@
       <c r="E19" s="8"/>
       <c r="F19" s="9"/>
       <c r="G19" s="10" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H19" s="8">
         <v>700</v>
@@ -17696,10 +17735,10 @@
         <v>1400042</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E20" s="5">
         <v>5450094</v>
@@ -17708,7 +17747,7 @@
         <v>1</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H20" s="5">
         <v>5010002</v>
@@ -17737,14 +17776,14 @@
         <v>44978</v>
       </c>
       <c r="T20" s="15" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="U20" s="16"/>
       <c r="V20" s="17" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="W20" s="18" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="21" spans="2:23">
@@ -17754,7 +17793,7 @@
       <c r="E21" s="5"/>
       <c r="F21" s="6"/>
       <c r="G21" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H21" s="5">
         <v>5020002</v>
@@ -17784,7 +17823,7 @@
       <c r="E22" s="5"/>
       <c r="F22" s="6"/>
       <c r="G22" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H22" s="5">
         <v>1100003</v>
@@ -17814,7 +17853,7 @@
       <c r="E23" s="5"/>
       <c r="F23" s="6"/>
       <c r="G23" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H23" s="5">
         <v>260</v>
@@ -17844,7 +17883,7 @@
       <c r="E24" s="5"/>
       <c r="F24" s="6"/>
       <c r="G24" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H24" s="5">
         <v>270</v>
@@ -17874,7 +17913,7 @@
       <c r="E25" s="5"/>
       <c r="F25" s="6"/>
       <c r="G25" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H25" s="5">
         <v>61</v>
@@ -17904,7 +17943,7 @@
       <c r="E26" s="5"/>
       <c r="F26" s="6"/>
       <c r="G26" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H26" s="5">
         <v>110</v>
@@ -17934,7 +17973,7 @@
       <c r="E27" s="5"/>
       <c r="F27" s="6"/>
       <c r="G27" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H27" s="5">
         <v>150</v>
@@ -17962,10 +18001,10 @@
         <v>1100007</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E28" s="8">
         <v>5450095</v>
@@ -17974,7 +18013,7 @@
         <v>1</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H28" s="8">
         <v>5450101</v>
@@ -17988,11 +18027,11 @@
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
       <c r="O28" s="19" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="P28" s="20"/>
       <c r="Q28" s="21" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="R28" s="22">
         <v>44978</v>
@@ -18001,11 +18040,11 @@
         <v>39</v>
       </c>
       <c r="T28" s="23" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="U28" s="24"/>
       <c r="V28" s="25" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="W28" s="26" t="s">
         <v>41</v>
@@ -18016,10 +18055,10 @@
         <v>1400056</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E29" s="5">
         <v>5450096</v>
@@ -18028,7 +18067,7 @@
         <v>1</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H29" s="5">
         <v>5010002</v>
@@ -18048,7 +18087,7 @@
         <v>11</v>
       </c>
       <c r="Q29" s="28" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="R29" s="14">
         <v>44978</v>
@@ -18057,11 +18096,11 @@
         <v>44985</v>
       </c>
       <c r="T29" s="15" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="U29" s="16"/>
       <c r="V29" s="17" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="W29" s="18" t="s">
         <v>41</v>
@@ -18074,7 +18113,7 @@
       <c r="E30" s="5"/>
       <c r="F30" s="6"/>
       <c r="G30" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H30" s="5">
         <v>5020002</v>
@@ -18104,7 +18143,7 @@
       <c r="E31" s="5"/>
       <c r="F31" s="6"/>
       <c r="G31" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H31" s="5">
         <v>1100003</v>
@@ -18134,7 +18173,7 @@
       <c r="E32" s="5"/>
       <c r="F32" s="6"/>
       <c r="G32" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H32" s="5">
         <v>501014</v>
@@ -18164,7 +18203,7 @@
       <c r="E33" s="5"/>
       <c r="F33" s="6"/>
       <c r="G33" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H33" s="5">
         <v>260</v>
@@ -18194,7 +18233,7 @@
       <c r="E34" s="5"/>
       <c r="F34" s="6"/>
       <c r="G34" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H34" s="5">
         <v>270</v>
@@ -18224,7 +18263,7 @@
       <c r="E35" s="5"/>
       <c r="F35" s="6"/>
       <c r="G35" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H35" s="5">
         <v>61</v>
@@ -18254,7 +18293,7 @@
       <c r="E36" s="5"/>
       <c r="F36" s="6"/>
       <c r="G36" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="H36" s="5">
         <v>110</v>
@@ -18284,7 +18323,7 @@
       <c r="E37" s="5"/>
       <c r="F37" s="6"/>
       <c r="G37" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H37" s="5">
         <v>150</v>
@@ -18312,7 +18351,7 @@
         <v>1400057</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>20</v>
@@ -18338,7 +18377,7 @@
         <v>12</v>
       </c>
       <c r="Q38" s="143" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="R38" s="22">
         <v>44978</v>
@@ -18347,11 +18386,11 @@
         <v>44985</v>
       </c>
       <c r="T38" s="23" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="U38" s="24"/>
       <c r="V38" s="25" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="W38" s="26" t="s">
         <v>41</v>
@@ -18361,7 +18400,7 @@
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E39" s="8">
         <v>5450097</v>
@@ -18370,7 +18409,7 @@
         <v>1</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H39" s="8">
         <v>5010002</v>
@@ -18400,7 +18439,7 @@
       <c r="E40" s="8"/>
       <c r="F40" s="9"/>
       <c r="G40" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H40" s="8">
         <v>5010101</v>
@@ -18428,10 +18467,10 @@
         <v>1400001</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E41" s="5">
         <v>5450012</v>
@@ -18440,7 +18479,7 @@
         <v>1</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H41" s="5">
         <v>1010000</v>
@@ -18460,7 +18499,7 @@
         <v>13</v>
       </c>
       <c r="Q41" s="28" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="R41" s="14">
         <v>44978</v>
@@ -18469,16 +18508,16 @@
         <v>44992</v>
       </c>
       <c r="T41" s="15" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="U41" s="16">
         <v>200</v>
       </c>
       <c r="V41" s="17" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="W41" s="18" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="42" spans="2:23">
@@ -18488,7 +18527,7 @@
       <c r="E42" s="5"/>
       <c r="F42" s="6"/>
       <c r="G42" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H42" s="5">
         <v>5010002</v>
@@ -18518,7 +18557,7 @@
       <c r="E43" s="5"/>
       <c r="F43" s="6"/>
       <c r="G43" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H43" s="5">
         <v>5020002</v>
@@ -18546,10 +18585,10 @@
         <v>1400021</v>
       </c>
       <c r="C44" s="30" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E44" s="8">
         <v>5450035</v>
@@ -18558,7 +18597,7 @@
         <v>1</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H44" s="8">
         <v>5010002</v>
@@ -18578,7 +18617,7 @@
         <v>14</v>
       </c>
       <c r="Q44" s="143" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="R44" s="22">
         <v>44978</v>
@@ -18587,16 +18626,16 @@
         <v>44985</v>
       </c>
       <c r="T44" s="23" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="U44" s="24">
         <v>80</v>
       </c>
       <c r="V44" s="25" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="W44" s="26" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="45" spans="2:23">
@@ -18604,10 +18643,10 @@
         <v>1400023</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E45" s="5">
         <v>5450036</v>
@@ -18616,7 +18655,7 @@
         <v>1</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H45" s="5">
         <v>5020002</v>
@@ -18636,7 +18675,7 @@
         <v>15</v>
       </c>
       <c r="Q45" s="28" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="R45" s="14">
         <v>44978</v>
@@ -18645,16 +18684,16 @@
         <v>44985</v>
       </c>
       <c r="T45" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="U45" s="16">
         <v>80</v>
       </c>
       <c r="V45" s="17" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="W45" s="18" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="46" spans="2:23">
@@ -18662,10 +18701,10 @@
         <v>1400058</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E46" s="8">
         <v>5040101</v>
@@ -18688,7 +18727,7 @@
         <v>10</v>
       </c>
       <c r="Q46" s="143" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="R46" s="22">
         <v>44978</v>
@@ -18697,14 +18736,14 @@
         <v>45006</v>
       </c>
       <c r="T46" s="23" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="U46" s="24"/>
       <c r="V46" s="25" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="W46" s="26" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="47" spans="2:23">
@@ -18712,10 +18751,10 @@
         <v>1400059</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E47" s="5">
         <v>5000065</v>
@@ -18738,7 +18777,7 @@
         <v>9</v>
       </c>
       <c r="Q47" s="28" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="R47" s="14">
         <v>44978</v>
@@ -18747,13 +18786,13 @@
         <v>45006</v>
       </c>
       <c r="T47" s="15" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="U47" s="16">
         <v>12</v>
       </c>
       <c r="V47" s="17" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="W47" s="18" t="s">
         <v>41</v>
@@ -18764,10 +18803,10 @@
         <v>1400060</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E48" s="8">
         <v>5100033</v>
@@ -18790,7 +18829,7 @@
         <v>8</v>
       </c>
       <c r="Q48" s="143" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="R48" s="22">
         <v>44978</v>
@@ -18799,11 +18838,11 @@
         <v>45006</v>
       </c>
       <c r="T48" s="31" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="U48" s="24"/>
       <c r="V48" s="25" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="W48" s="26" t="s">
         <v>41</v>
@@ -18814,7 +18853,7 @@
         <v>1400051</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>20</v>
@@ -18849,21 +18888,21 @@
         <v>44992</v>
       </c>
       <c r="T49" s="15" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="U49" s="16"/>
       <c r="V49" s="17" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="W49" s="840" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="50" spans="2:23">
       <c r="B50" s="32"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E50" s="5">
         <v>5450086</v>
@@ -18872,7 +18911,7 @@
         <v>1</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H50" s="5">
         <v>5020002</v>
@@ -18902,7 +18941,7 @@
       <c r="E51" s="5"/>
       <c r="F51" s="6"/>
       <c r="G51" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H51" s="5">
         <v>5020101</v>
@@ -18954,7 +18993,7 @@
       </c>
       <c r="P52" s="20"/>
       <c r="Q52" s="21" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="R52" s="22">
         <v>44985</v>
@@ -18963,21 +19002,21 @@
         <v>44992</v>
       </c>
       <c r="T52" s="23" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="U52" s="24"/>
       <c r="V52" s="25" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="W52" s="26" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="53" spans="2:23">
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E53" s="8">
         <v>5010002</v>
@@ -19007,7 +19046,7 @@
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
       <c r="D54" s="8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E54" s="8">
         <v>5020002</v>
@@ -19037,7 +19076,7 @@
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
       <c r="D55" s="8" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E55" s="8">
         <v>600010</v>
@@ -19068,10 +19107,10 @@
         <v>1400043</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E56" s="5">
         <v>5450085</v>
@@ -19080,7 +19119,7 @@
         <v>1</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H56" s="5">
         <v>1100301</v>
@@ -19100,7 +19139,7 @@
         <v>6</v>
       </c>
       <c r="Q56" s="33" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="R56" s="14">
         <v>44985</v>
@@ -19109,16 +19148,16 @@
         <v>44992</v>
       </c>
       <c r="T56" s="15" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="U56" s="16">
         <v>200</v>
       </c>
       <c r="V56" s="17" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="W56" s="18" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="57" spans="2:23">
@@ -19128,7 +19167,7 @@
       <c r="E57" s="5"/>
       <c r="F57" s="6"/>
       <c r="G57" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H57" s="5">
         <v>1100003</v>
@@ -19158,7 +19197,7 @@
       <c r="E58" s="5"/>
       <c r="F58" s="6"/>
       <c r="G58" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H58" s="5">
         <v>2903</v>
@@ -19188,7 +19227,7 @@
       <c r="E59" s="5"/>
       <c r="F59" s="6"/>
       <c r="G59" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H59" s="5">
         <v>7201</v>
@@ -19216,10 +19255,10 @@
         <v>1400047</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E60" s="8">
         <v>5450088</v>
@@ -19228,7 +19267,7 @@
         <v>1</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H60" s="8">
         <v>2910</v>
@@ -19248,7 +19287,7 @@
         <v>5</v>
       </c>
       <c r="Q60" s="34" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="R60" s="22">
         <v>44985</v>
@@ -19257,16 +19296,16 @@
         <v>44992</v>
       </c>
       <c r="T60" s="23" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="U60" s="24">
         <v>200</v>
       </c>
       <c r="V60" s="25" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="W60" s="26" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="61" spans="2:23">
@@ -19274,10 +19313,10 @@
         <v>1800021</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E61" s="5">
         <v>5450072</v>
@@ -19286,7 +19325,7 @@
         <v>1</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H61" s="5">
         <v>502633</v>
@@ -19300,13 +19339,13 @@
       <c r="M61" s="6"/>
       <c r="N61" s="6"/>
       <c r="O61" s="11" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="P61" s="12">
         <v>1</v>
       </c>
       <c r="Q61" s="28" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="R61" s="14">
         <v>44985</v>
@@ -19315,16 +19354,16 @@
         <v>44992</v>
       </c>
       <c r="T61" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="U61" s="35">
         <v>120</v>
       </c>
       <c r="V61" s="17" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="W61" s="843" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="62" spans="2:23">
@@ -19380,10 +19419,10 @@
         <v>1800022</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E64" s="8">
         <v>5450073</v>
@@ -19392,7 +19431,7 @@
         <v>1</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H64" s="8">
         <v>502631</v>
@@ -19406,13 +19445,13 @@
       <c r="M64" s="9"/>
       <c r="N64" s="9"/>
       <c r="O64" s="19" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="P64" s="20">
         <v>2</v>
       </c>
       <c r="Q64" s="143" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="R64" s="22">
         <v>44985</v>
@@ -19421,16 +19460,16 @@
         <v>44992</v>
       </c>
       <c r="T64" s="23" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="U64" s="37">
         <v>120</v>
       </c>
       <c r="V64" s="25" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="W64" s="846" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="65" spans="2:23">
@@ -19486,10 +19525,10 @@
         <v>1800023</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E67" s="5">
         <v>5450044</v>
@@ -19498,7 +19537,7 @@
         <v>1</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H67" s="5">
         <v>1110057</v>
@@ -19512,13 +19551,13 @@
       <c r="M67" s="6"/>
       <c r="N67" s="6"/>
       <c r="O67" s="11" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="P67" s="12">
         <v>3</v>
       </c>
       <c r="Q67" s="28" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="R67" s="14">
         <v>44985</v>
@@ -19527,16 +19566,16 @@
         <v>44992</v>
       </c>
       <c r="T67" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="U67" s="35">
         <v>120</v>
       </c>
       <c r="V67" s="17" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="W67" s="843" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="68" spans="2:23">
@@ -19592,10 +19631,10 @@
         <v>1800024</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E70" s="8">
         <v>5450045</v>
@@ -19604,7 +19643,7 @@
         <v>1</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="H70" s="8">
         <v>1110058</v>
@@ -19618,13 +19657,13 @@
       <c r="M70" s="9"/>
       <c r="N70" s="9"/>
       <c r="O70" s="19" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="P70" s="20">
         <v>4</v>
       </c>
       <c r="Q70" s="143" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="R70" s="22">
         <v>44985</v>
@@ -19633,16 +19672,16 @@
         <v>44992</v>
       </c>
       <c r="T70" s="23" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="U70" s="37">
         <v>120</v>
       </c>
       <c r="V70" s="25" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="W70" s="846" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="71" spans="2:23">
@@ -19698,10 +19737,10 @@
         <v>1800025</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E73" s="5">
         <v>5450046</v>
@@ -19710,7 +19749,7 @@
         <v>1</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="H73" s="5">
         <v>1110030</v>
@@ -19724,13 +19763,13 @@
       <c r="M73" s="6"/>
       <c r="N73" s="6"/>
       <c r="O73" s="11" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="P73" s="12">
         <v>5</v>
       </c>
       <c r="Q73" s="28" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="R73" s="14">
         <v>44985</v>
@@ -19739,16 +19778,16 @@
         <v>44992</v>
       </c>
       <c r="T73" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="U73" s="35">
         <v>120</v>
       </c>
       <c r="V73" s="17" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="W73" s="843" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="74" spans="2:23">
@@ -19804,10 +19843,10 @@
         <v>1800026</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="E76" s="8">
         <v>5450047</v>
@@ -19816,7 +19855,7 @@
         <v>1</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H76" s="8">
         <v>1110032</v>
@@ -19830,13 +19869,13 @@
       <c r="M76" s="9"/>
       <c r="N76" s="9"/>
       <c r="O76" s="19" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="P76" s="20">
         <v>6</v>
       </c>
       <c r="Q76" s="143" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="R76" s="22">
         <v>44985</v>
@@ -19845,16 +19884,16 @@
         <v>44992</v>
       </c>
       <c r="T76" s="23" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="U76" s="37">
         <v>120</v>
       </c>
       <c r="V76" s="25" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="W76" s="846" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="77" spans="2:23">
@@ -19910,10 +19949,10 @@
         <v>1900021</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="E79" s="5">
         <v>5450069</v>
@@ -19922,7 +19961,7 @@
         <v>1</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H79" s="5">
         <v>5010002</v>
@@ -19940,7 +19979,7 @@
       </c>
       <c r="P79" s="12"/>
       <c r="Q79" s="13" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="R79" s="14">
         <v>44987</v>
@@ -19949,14 +19988,14 @@
         <v>39</v>
       </c>
       <c r="T79" s="15" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="U79" s="16"/>
       <c r="V79" s="17" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="W79" s="18" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="80" spans="2:23">
@@ -19966,7 +20005,7 @@
       <c r="E80" s="5"/>
       <c r="F80" s="6"/>
       <c r="G80" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H80" s="5">
         <v>5010101</v>
@@ -19996,7 +20035,7 @@
       <c r="E81" s="5"/>
       <c r="F81" s="6"/>
       <c r="G81" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="H81" s="5">
         <v>5000049</v>
@@ -20024,10 +20063,10 @@
         <v>1900022</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E82" s="8">
         <v>5450070</v>
@@ -20036,7 +20075,7 @@
         <v>1</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H82" s="8">
         <v>5020002</v>
@@ -20050,27 +20089,27 @@
       <c r="M82" s="9"/>
       <c r="N82" s="9"/>
       <c r="O82" s="19" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P82" s="20"/>
       <c r="Q82" s="21" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="R82" s="22">
         <v>44987</v>
       </c>
       <c r="S82" s="22" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="T82" s="23" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="U82" s="24"/>
       <c r="V82" s="25" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="W82" s="26" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="83" spans="2:23">
@@ -20080,7 +20119,7 @@
       <c r="E83" s="8"/>
       <c r="F83" s="9"/>
       <c r="G83" s="10" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H83" s="8">
         <v>5020101</v>
@@ -20110,7 +20149,7 @@
       <c r="E84" s="8"/>
       <c r="F84" s="9"/>
       <c r="G84" s="10" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H84" s="8">
         <v>5000050</v>
@@ -20138,10 +20177,10 @@
         <v>1400040</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E85" s="5">
         <v>5450082</v>
@@ -20150,7 +20189,7 @@
         <v>1</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H85" s="5">
         <v>5010101</v>
@@ -20170,7 +20209,7 @@
         <v>4</v>
       </c>
       <c r="Q85" s="13" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="R85" s="14">
         <v>44992</v>
@@ -20179,16 +20218,16 @@
         <v>44999</v>
       </c>
       <c r="T85" s="15" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="U85" s="16">
         <v>200</v>
       </c>
       <c r="V85" s="17" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="W85" s="18" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="86" spans="2:23">
@@ -20228,7 +20267,7 @@
       <c r="E87" s="5"/>
       <c r="F87" s="6"/>
       <c r="G87" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H87" s="5">
         <v>5010007</v>
@@ -20256,10 +20295,10 @@
         <v>1400061</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E88" s="8">
         <v>5450098</v>
@@ -20268,7 +20307,7 @@
         <v>1</v>
       </c>
       <c r="G88" s="10" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H88" s="8">
         <v>1020031</v>
@@ -20288,7 +20327,7 @@
         <v>1</v>
       </c>
       <c r="Q88" s="21" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="R88" s="22">
         <v>44992</v>
@@ -20297,11 +20336,11 @@
         <v>44999</v>
       </c>
       <c r="T88" s="23" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="U88" s="24"/>
       <c r="V88" s="25" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="W88" s="26" t="s">
         <v>41</v>
@@ -20314,7 +20353,7 @@
       <c r="E89" s="8"/>
       <c r="F89" s="9"/>
       <c r="G89" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H89" s="8">
         <v>5010002</v>
@@ -20344,7 +20383,7 @@
       <c r="E90" s="8"/>
       <c r="F90" s="9"/>
       <c r="G90" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H90" s="8">
         <v>5020002</v>
@@ -20372,10 +20411,10 @@
         <v>1400062</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E91" s="5">
         <v>5450099</v>
@@ -20384,7 +20423,7 @@
         <v>1</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="H91" s="5">
         <v>6000</v>
@@ -20404,7 +20443,7 @@
         <v>3</v>
       </c>
       <c r="Q91" s="13" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="R91" s="14">
         <v>44992</v>
@@ -20413,7 +20452,7 @@
         <v>44999</v>
       </c>
       <c r="T91" s="15" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="U91" s="16">
         <v>120</v>
@@ -20428,10 +20467,10 @@
         <v>1400063</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E92" s="8">
         <v>5450100</v>
@@ -20440,7 +20479,7 @@
         <v>1</v>
       </c>
       <c r="G92" s="10" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H92" s="8">
         <v>6300</v>
@@ -20460,7 +20499,7 @@
         <v>2</v>
       </c>
       <c r="Q92" s="21" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="R92" s="22">
         <v>44992</v>
@@ -20469,7 +20508,7 @@
         <v>44999</v>
       </c>
       <c r="T92" s="23" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="U92" s="24">
         <v>200</v>
@@ -20484,10 +20523,10 @@
         <v>1900026</v>
       </c>
       <c r="C93" s="470" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D93" s="328" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E93" s="328">
         <v>5450106</v>
@@ -20496,7 +20535,7 @@
         <v>1</v>
       </c>
       <c r="G93" s="40" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H93" s="11">
         <v>5010002</v>
@@ -20520,14 +20559,14 @@
         <v>44992</v>
       </c>
       <c r="S93" s="477" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="T93" s="477" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="U93" s="470"/>
       <c r="V93" s="477" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="W93" s="481" t="s">
         <v>41</v>
@@ -20540,7 +20579,7 @@
       <c r="E94" s="329"/>
       <c r="F94" s="329"/>
       <c r="G94" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H94" s="11">
         <v>5010101</v>
@@ -20570,7 +20609,7 @@
       <c r="E95" s="329"/>
       <c r="F95" s="329"/>
       <c r="G95" s="11" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H95" s="11">
         <v>600017</v>
@@ -20600,7 +20639,7 @@
       <c r="E96" s="329"/>
       <c r="F96" s="329"/>
       <c r="G96" s="137" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H96" s="137">
         <v>5010008</v>
@@ -20628,10 +20667,10 @@
         <v>1900027</v>
       </c>
       <c r="C97" s="393" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D97" s="366" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E97" s="366">
         <v>5450107</v>
@@ -20640,7 +20679,7 @@
         <v>1</v>
       </c>
       <c r="G97" s="41" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H97" s="61">
         <v>5020002</v>
@@ -20664,14 +20703,14 @@
         <v>44992</v>
       </c>
       <c r="S97" s="375" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="T97" s="387" t="s">
         <v>32</v>
       </c>
       <c r="U97" s="357"/>
       <c r="V97" s="360" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="W97" s="836" t="s">
         <v>41</v>
@@ -20684,7 +20723,7 @@
       <c r="E98" s="367"/>
       <c r="F98" s="550"/>
       <c r="G98" s="45" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H98" s="45">
         <v>5020101</v>
@@ -20714,7 +20753,7 @@
       <c r="E99" s="367"/>
       <c r="F99" s="550"/>
       <c r="G99" s="45" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H99" s="45">
         <v>600017</v>
@@ -20744,7 +20783,7 @@
       <c r="E100" s="368"/>
       <c r="F100" s="551"/>
       <c r="G100" s="91" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="H100" s="91">
         <v>5020008</v>
@@ -20772,7 +20811,7 @@
         <v>1400044</v>
       </c>
       <c r="C101" s="782" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D101" s="52" t="s">
         <v>20</v>
@@ -20784,7 +20823,7 @@
         <v>2000</v>
       </c>
       <c r="G101" s="52" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H101" s="39" t="s">
         <v>21</v>
@@ -20820,14 +20859,14 @@
         <v>25</v>
       </c>
       <c r="W101" s="769" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="102" spans="2:23">
       <c r="B102" s="820"/>
       <c r="C102" s="783"/>
       <c r="D102" s="432" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E102" s="432">
         <v>5450086</v>
@@ -20866,7 +20905,7 @@
       <c r="E103" s="433"/>
       <c r="F103" s="790"/>
       <c r="G103" s="57" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H103" s="59">
         <v>5020101</v>
@@ -20894,10 +20933,10 @@
         <v>1400064</v>
       </c>
       <c r="C104" s="61" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D104" s="61" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E104" s="61">
         <v>5450108</v>
@@ -20906,7 +20945,7 @@
         <v>1</v>
       </c>
       <c r="G104" s="61" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H104" s="61">
         <v>480025</v>
@@ -20926,7 +20965,7 @@
         <v>18</v>
       </c>
       <c r="Q104" s="64" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="R104" s="65">
         <v>44999</v>
@@ -20935,11 +20974,11 @@
         <v>45006</v>
       </c>
       <c r="T104" s="66" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="U104" s="67"/>
       <c r="V104" s="68" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="W104" s="69" t="s">
         <v>41</v>
@@ -20952,7 +20991,7 @@
       <c r="E105" s="72"/>
       <c r="F105" s="71"/>
       <c r="G105" s="78" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H105" s="45">
         <v>480029</v>
@@ -20982,7 +21021,7 @@
       <c r="E106" s="72"/>
       <c r="F106" s="71"/>
       <c r="G106" s="71" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H106" s="45">
         <v>480033</v>
@@ -21012,7 +21051,7 @@
       <c r="E107" s="72"/>
       <c r="F107" s="71"/>
       <c r="G107" s="71" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H107" s="45">
         <v>480034</v>
@@ -21042,7 +21081,7 @@
       <c r="E108" s="72"/>
       <c r="F108" s="71"/>
       <c r="G108" s="71" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H108" s="45">
         <v>480035</v>
@@ -21072,7 +21111,7 @@
       <c r="E109" s="72"/>
       <c r="F109" s="71"/>
       <c r="G109" s="71" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H109" s="45">
         <v>480036</v>
@@ -21102,7 +21141,7 @@
       <c r="E110" s="72"/>
       <c r="F110" s="71"/>
       <c r="G110" s="71" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="H110" s="45">
         <v>480037</v>
@@ -21132,7 +21171,7 @@
       <c r="E111" s="72"/>
       <c r="F111" s="71"/>
       <c r="G111" s="71" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H111" s="45">
         <v>480026</v>
@@ -21162,7 +21201,7 @@
       <c r="E112" s="72"/>
       <c r="F112" s="71"/>
       <c r="G112" s="71" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="H112" s="45">
         <v>480030</v>
@@ -21192,7 +21231,7 @@
       <c r="E113" s="72"/>
       <c r="F113" s="71"/>
       <c r="G113" s="71" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H113" s="45">
         <v>480033</v>
@@ -21222,7 +21261,7 @@
       <c r="E114" s="72"/>
       <c r="F114" s="71"/>
       <c r="G114" s="71" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H114" s="45">
         <v>480034</v>
@@ -21252,7 +21291,7 @@
       <c r="E115" s="72"/>
       <c r="F115" s="71"/>
       <c r="G115" s="71" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H115" s="45">
         <v>480035</v>
@@ -21282,7 +21321,7 @@
       <c r="E116" s="72"/>
       <c r="F116" s="71"/>
       <c r="G116" s="71" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H116" s="45">
         <v>480036</v>
@@ -21312,7 +21351,7 @@
       <c r="E117" s="72"/>
       <c r="F117" s="71"/>
       <c r="G117" s="71" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H117" s="45">
         <v>480038</v>
@@ -21342,7 +21381,7 @@
       <c r="E118" s="72"/>
       <c r="F118" s="71"/>
       <c r="G118" s="71" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H118" s="45">
         <v>480027</v>
@@ -21372,7 +21411,7 @@
       <c r="E119" s="72"/>
       <c r="F119" s="71"/>
       <c r="G119" s="71" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H119" s="45">
         <v>480031</v>
@@ -21402,7 +21441,7 @@
       <c r="E120" s="72"/>
       <c r="F120" s="71"/>
       <c r="G120" s="71" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H120" s="45">
         <v>480033</v>
@@ -21432,7 +21471,7 @@
       <c r="E121" s="72"/>
       <c r="F121" s="71"/>
       <c r="G121" s="71" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H121" s="45">
         <v>480034</v>
@@ -21462,7 +21501,7 @@
       <c r="E122" s="72"/>
       <c r="F122" s="71"/>
       <c r="G122" s="71" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H122" s="45">
         <v>480035</v>
@@ -21492,7 +21531,7 @@
       <c r="E123" s="72"/>
       <c r="F123" s="71"/>
       <c r="G123" s="71" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H123" s="45">
         <v>480036</v>
@@ -21522,7 +21561,7 @@
       <c r="E124" s="72"/>
       <c r="F124" s="71"/>
       <c r="G124" s="71" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H124" s="45">
         <v>480038</v>
@@ -21552,7 +21591,7 @@
       <c r="E125" s="72"/>
       <c r="F125" s="71"/>
       <c r="G125" s="71" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H125" s="45">
         <v>480028</v>
@@ -21582,7 +21621,7 @@
       <c r="E126" s="72"/>
       <c r="F126" s="71"/>
       <c r="G126" s="71" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H126" s="45">
         <v>480032</v>
@@ -21612,7 +21651,7 @@
       <c r="E127" s="72"/>
       <c r="F127" s="71"/>
       <c r="G127" s="71" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H127" s="45">
         <v>480033</v>
@@ -21642,7 +21681,7 @@
       <c r="E128" s="72"/>
       <c r="F128" s="71"/>
       <c r="G128" s="71" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H128" s="45">
         <v>480034</v>
@@ -21672,7 +21711,7 @@
       <c r="E129" s="82"/>
       <c r="F129" s="45"/>
       <c r="G129" s="45" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="H129" s="45">
         <v>480035</v>
@@ -21702,7 +21741,7 @@
       <c r="E130" s="82"/>
       <c r="F130" s="45"/>
       <c r="G130" s="45" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H130" s="45">
         <v>480036</v>
@@ -21732,7 +21771,7 @@
       <c r="E131" s="92"/>
       <c r="F131" s="91"/>
       <c r="G131" s="91" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H131" s="91">
         <v>480038</v>
@@ -21760,13 +21799,13 @@
         <v>1400065</v>
       </c>
       <c r="C132" s="782" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D132" s="430"/>
       <c r="E132" s="430"/>
       <c r="F132" s="787"/>
       <c r="G132" s="132" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="H132" s="39">
         <v>5450109</v>
@@ -21776,7 +21815,7 @@
       </c>
       <c r="J132" s="225"/>
       <c r="K132" s="52" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L132" s="52">
         <v>5010002</v>
@@ -21803,13 +21842,13 @@
         <v>45006</v>
       </c>
       <c r="T132" s="765" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="U132" s="794">
         <v>80</v>
       </c>
       <c r="V132" s="798" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="W132" s="802" t="s">
         <v>41</v>
@@ -21826,7 +21865,7 @@
       <c r="I133" s="792"/>
       <c r="J133" s="226"/>
       <c r="K133" s="55" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L133" s="55">
         <v>5010101</v>
@@ -21858,7 +21897,7 @@
       <c r="I134" s="792"/>
       <c r="J134" s="226"/>
       <c r="K134" s="55" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="L134" s="55">
         <v>5010099</v>
@@ -21890,7 +21929,7 @@
       <c r="I135" s="792"/>
       <c r="J135" s="226"/>
       <c r="K135" s="55" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L135" s="55">
         <v>5010200</v>
@@ -21922,7 +21961,7 @@
       <c r="I136" s="792"/>
       <c r="J136" s="226"/>
       <c r="K136" s="55" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L136" s="55">
         <v>5010201</v>
@@ -21954,7 +21993,7 @@
       <c r="I137" s="792"/>
       <c r="J137" s="226"/>
       <c r="K137" s="55" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="L137" s="55">
         <v>5010008</v>
@@ -21986,7 +22025,7 @@
       <c r="I138" s="793"/>
       <c r="J138" s="227"/>
       <c r="K138" s="57" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="L138" s="57">
         <v>5010202</v>
@@ -22012,13 +22051,13 @@
         <v>1400066</v>
       </c>
       <c r="C139" s="486" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D139" s="486"/>
       <c r="E139" s="381"/>
       <c r="F139" s="833"/>
       <c r="G139" s="61" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H139" s="61">
         <v>5450110</v>
@@ -22028,7 +22067,7 @@
       </c>
       <c r="J139" s="62"/>
       <c r="K139" s="61" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L139" s="61">
         <v>350</v>
@@ -22055,13 +22094,13 @@
         <v>45006</v>
       </c>
       <c r="T139" s="413" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="U139" s="461">
         <v>120</v>
       </c>
       <c r="V139" s="464" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W139" s="552" t="s">
         <v>41</v>
@@ -22078,7 +22117,7 @@
       <c r="I140" s="832"/>
       <c r="J140" s="108"/>
       <c r="K140" s="91" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L140" s="91">
         <v>351</v>
@@ -22259,14 +22298,14 @@
         <v>45013</v>
       </c>
       <c r="T144" s="413" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="U144" s="461"/>
       <c r="V144" s="464" t="s">
         <v>33</v>
       </c>
       <c r="W144" s="416" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="145" spans="2:23">
@@ -22364,10 +22403,10 @@
         <v>1400037</v>
       </c>
       <c r="C148" s="782" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D148" s="782" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E148" s="430">
         <v>5450068</v>
@@ -22376,7 +22415,7 @@
         <v>1</v>
       </c>
       <c r="G148" s="52" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H148" s="39">
         <v>1020023</v>
@@ -22412,7 +22451,7 @@
         <v>33</v>
       </c>
       <c r="W148" s="769" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="149" spans="2:23">
@@ -22480,10 +22519,10 @@
         <v>1400068</v>
       </c>
       <c r="C151" s="486" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D151" s="486" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E151" s="381">
         <v>5450112</v>
@@ -22492,7 +22531,7 @@
         <v>1</v>
       </c>
       <c r="G151" s="61" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H151" s="61">
         <v>5202001</v>
@@ -22521,26 +22560,26 @@
         <v>45013</v>
       </c>
       <c r="T151" s="413" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="U151" s="461">
         <v>200</v>
       </c>
       <c r="V151" s="464" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W151" s="552" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="152" spans="2:23">
-      <c r="B152" s="525"/>
-      <c r="C152" s="526"/>
-      <c r="D152" s="526"/>
-      <c r="E152" s="527"/>
+      <c r="B152" s="537"/>
+      <c r="C152" s="538"/>
+      <c r="D152" s="538"/>
+      <c r="E152" s="539"/>
       <c r="F152" s="834"/>
       <c r="G152" s="71" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H152" s="45">
         <v>5000075</v>
@@ -22549,12 +22588,12 @@
         <v>1</v>
       </c>
       <c r="J152" s="73"/>
-      <c r="K152" s="528"/>
-      <c r="L152" s="527"/>
-      <c r="M152" s="528"/>
-      <c r="N152" s="528"/>
-      <c r="O152" s="527"/>
-      <c r="P152" s="527"/>
+      <c r="K152" s="540"/>
+      <c r="L152" s="539"/>
+      <c r="M152" s="540"/>
+      <c r="N152" s="540"/>
+      <c r="O152" s="539"/>
+      <c r="P152" s="539"/>
       <c r="Q152" s="545"/>
       <c r="R152" s="545"/>
       <c r="S152" s="545"/>
@@ -22564,10 +22603,10 @@
       <c r="W152" s="835"/>
     </row>
     <row r="153" spans="2:23">
-      <c r="B153" s="525"/>
-      <c r="C153" s="526"/>
-      <c r="D153" s="526"/>
-      <c r="E153" s="527"/>
+      <c r="B153" s="537"/>
+      <c r="C153" s="538"/>
+      <c r="D153" s="538"/>
+      <c r="E153" s="539"/>
       <c r="F153" s="834"/>
       <c r="G153" s="71" t="s">
         <v>35</v>
@@ -22579,12 +22618,12 @@
         <v>5</v>
       </c>
       <c r="J153" s="73"/>
-      <c r="K153" s="528"/>
-      <c r="L153" s="527"/>
-      <c r="M153" s="528"/>
-      <c r="N153" s="528"/>
-      <c r="O153" s="527"/>
-      <c r="P153" s="527"/>
+      <c r="K153" s="540"/>
+      <c r="L153" s="539"/>
+      <c r="M153" s="540"/>
+      <c r="N153" s="540"/>
+      <c r="O153" s="539"/>
+      <c r="P153" s="539"/>
       <c r="Q153" s="545"/>
       <c r="R153" s="545"/>
       <c r="S153" s="545"/>
@@ -22600,7 +22639,7 @@
       <c r="E154" s="382"/>
       <c r="F154" s="831"/>
       <c r="G154" s="45" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H154" s="45">
         <v>5020101</v>
@@ -22630,7 +22669,7 @@
       <c r="E155" s="423"/>
       <c r="F155" s="832"/>
       <c r="G155" s="91" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H155" s="91">
         <v>600017</v>
@@ -22658,10 +22697,10 @@
         <v>1400069</v>
       </c>
       <c r="C156" s="782" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D156" s="782" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E156" s="430">
         <v>5450113</v>
@@ -22670,7 +22709,7 @@
         <v>1</v>
       </c>
       <c r="G156" s="52" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H156" s="39">
         <v>701</v>
@@ -22699,16 +22738,16 @@
         <v>45013</v>
       </c>
       <c r="T156" s="765" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="U156" s="794">
         <v>120</v>
       </c>
       <c r="V156" s="798" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W156" s="802" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="157" spans="2:23">
@@ -22718,7 +22757,7 @@
       <c r="E157" s="433"/>
       <c r="F157" s="790"/>
       <c r="G157" s="57" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H157" s="59">
         <v>700</v>
@@ -22746,7 +22785,7 @@
         <v>1200024</v>
       </c>
       <c r="C158" s="114" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D158" s="114"/>
       <c r="E158" s="114"/>
@@ -22764,7 +22803,7 @@
       <c r="M158" s="116"/>
       <c r="N158" s="116"/>
       <c r="O158" s="114" t="s">
-        <v>38</v>
+        <v>497</v>
       </c>
       <c r="P158" s="114">
         <v>1</v>
@@ -22779,7 +22818,7 @@
         <v>45013</v>
       </c>
       <c r="T158" s="118" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="U158" s="119">
         <v>8</v>
@@ -22788,7 +22827,7 @@
         <v>21</v>
       </c>
       <c r="W158" s="121" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="159" spans="2:23">
@@ -22796,7 +22835,7 @@
         <v>1200025</v>
       </c>
       <c r="C159" s="123" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="D159" s="123"/>
       <c r="E159" s="123"/>
@@ -22814,7 +22853,7 @@
       <c r="M159" s="125"/>
       <c r="N159" s="125"/>
       <c r="O159" s="123" t="s">
-        <v>38</v>
+        <v>497</v>
       </c>
       <c r="P159" s="123">
         <v>2</v>
@@ -22829,7 +22868,7 @@
         <v>45013</v>
       </c>
       <c r="T159" s="127" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="U159" s="128">
         <v>80</v>
@@ -22838,7 +22877,7 @@
         <v>21</v>
       </c>
       <c r="W159" s="130" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="160" spans="2:23">
@@ -22846,7 +22885,7 @@
         <v>1400051</v>
       </c>
       <c r="C160" s="486" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D160" s="61" t="s">
         <v>20</v>
@@ -22858,7 +22897,7 @@
         <v>2000</v>
       </c>
       <c r="G160" s="61" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H160" s="61" t="s">
         <v>21</v>
@@ -22894,14 +22933,14 @@
         <v>25</v>
       </c>
       <c r="W160" s="416" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="161" spans="2:23">
       <c r="B161" s="422"/>
       <c r="C161" s="487"/>
       <c r="D161" s="382" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E161" s="382">
         <v>5450086</v>
@@ -22940,7 +22979,7 @@
       <c r="E162" s="423"/>
       <c r="F162" s="832"/>
       <c r="G162" s="91" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H162" s="91">
         <v>5020101</v>
@@ -22968,7 +23007,7 @@
         <v>1400053</v>
       </c>
       <c r="C163" s="138" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="D163" s="123"/>
       <c r="E163" s="123"/>
@@ -22997,14 +23036,14 @@
         <v>45020</v>
       </c>
       <c r="T163" s="127" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="U163" s="128"/>
       <c r="V163" s="129" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="W163" s="130" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="164" spans="2:23">
@@ -23012,7 +23051,7 @@
         <v>1400052</v>
       </c>
       <c r="C164" s="114" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="D164" s="114"/>
       <c r="E164" s="114"/>
@@ -23041,14 +23080,14 @@
         <v>45020</v>
       </c>
       <c r="T164" s="118" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="U164" s="119"/>
       <c r="V164" s="120" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="W164" s="121" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="165" spans="2:23">
@@ -23056,10 +23095,10 @@
         <v>1400070</v>
       </c>
       <c r="C165" s="424" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D165" s="782" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E165" s="430">
         <v>5450114</v>
@@ -23068,7 +23107,7 @@
         <v>1</v>
       </c>
       <c r="G165" s="52" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H165" s="39">
         <v>600019</v>
@@ -23097,11 +23136,11 @@
         <v>45020</v>
       </c>
       <c r="T165" s="765" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="U165" s="794"/>
       <c r="V165" s="798" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W165" s="802" t="s">
         <v>41</v>
@@ -23114,7 +23153,7 @@
       <c r="E166" s="431"/>
       <c r="F166" s="826"/>
       <c r="G166" s="101" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H166" s="11">
         <v>450</v>
@@ -23144,7 +23183,7 @@
       <c r="E167" s="431"/>
       <c r="F167" s="826"/>
       <c r="G167" s="101" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H167" s="11">
         <v>451</v>
@@ -23174,7 +23213,7 @@
       <c r="E168" s="432"/>
       <c r="F168" s="788"/>
       <c r="G168" s="55" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H168" s="11">
         <v>452</v>
@@ -23204,7 +23243,7 @@
       <c r="E169" s="433"/>
       <c r="F169" s="790"/>
       <c r="G169" s="57" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H169" s="59">
         <v>454</v>
@@ -23232,10 +23271,10 @@
         <v>1400071</v>
       </c>
       <c r="C170" s="393" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D170" s="393" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E170" s="366">
         <v>5450115</v>
@@ -23244,7 +23283,7 @@
         <v>1</v>
       </c>
       <c r="G170" s="61" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H170" s="61">
         <v>5010101</v>
@@ -23273,16 +23312,16 @@
         <v>45020</v>
       </c>
       <c r="T170" s="413" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="U170" s="461">
         <v>200</v>
       </c>
       <c r="V170" s="464" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W170" s="552" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="171" spans="2:23">
@@ -23322,7 +23361,7 @@
       <c r="E172" s="367"/>
       <c r="F172" s="550"/>
       <c r="G172" s="45" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H172" s="45">
         <v>5010007</v>
@@ -23352,7 +23391,7 @@
       <c r="E173" s="367"/>
       <c r="F173" s="550"/>
       <c r="G173" s="142" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H173" s="142">
         <v>5000076</v>
@@ -23382,7 +23421,7 @@
       <c r="E174" s="368"/>
       <c r="F174" s="551"/>
       <c r="G174" s="91" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H174" s="91">
         <v>952</v>
@@ -23410,7 +23449,7 @@
         <v>1400072</v>
       </c>
       <c r="C175" s="782" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D175" s="782"/>
       <c r="E175" s="430">
@@ -23420,7 +23459,7 @@
         <v>1</v>
       </c>
       <c r="G175" s="52" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H175" s="39">
         <v>1100301</v>
@@ -23449,7 +23488,7 @@
         <v>45027</v>
       </c>
       <c r="T175" s="765" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="U175" s="794">
         <v>200</v>
@@ -23498,7 +23537,7 @@
       <c r="E177" s="431"/>
       <c r="F177" s="826"/>
       <c r="G177" s="101" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H177" s="11">
         <v>2903</v>
@@ -23528,7 +23567,7 @@
       <c r="E178" s="433"/>
       <c r="F178" s="790"/>
       <c r="G178" s="57" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H178" s="59">
         <v>7201</v>
@@ -23559,7 +23598,7 @@
         <v>1400073</v>
       </c>
       <c r="C179" s="114" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D179" s="114"/>
       <c r="E179" s="114">
@@ -23567,7 +23606,7 @@
       </c>
       <c r="F179" s="114"/>
       <c r="G179" s="215" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H179" s="215">
         <v>5000082</v>
@@ -23596,11 +23635,11 @@
         <v>45027</v>
       </c>
       <c r="T179" s="118" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="U179" s="119"/>
       <c r="V179" s="120" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="W179" s="131" t="s">
         <v>41</v>
@@ -23611,7 +23650,7 @@
         <v>1400074</v>
       </c>
       <c r="C180" s="782" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D180" s="782"/>
       <c r="E180" s="430">
@@ -23621,7 +23660,7 @@
         <v>1</v>
       </c>
       <c r="G180" s="52" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H180" s="39">
         <v>1100301</v>
@@ -23650,7 +23689,7 @@
         <v>45027</v>
       </c>
       <c r="T180" s="765" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="U180" s="794">
         <v>200</v>
@@ -23699,7 +23738,7 @@
       <c r="E182" s="431"/>
       <c r="F182" s="826"/>
       <c r="G182" s="101" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H182" s="11">
         <v>2903</v>
@@ -23729,7 +23768,7 @@
       <c r="E183" s="433"/>
       <c r="F183" s="790"/>
       <c r="G183" s="57" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H183" s="59">
         <v>7202</v>
@@ -23760,7 +23799,7 @@
         <v>1400075</v>
       </c>
       <c r="C184" s="114" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D184" s="114"/>
       <c r="E184" s="114">
@@ -23768,7 +23807,7 @@
       </c>
       <c r="F184" s="114"/>
       <c r="G184" s="215" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H184" s="215">
         <v>5000082</v>
@@ -23797,11 +23836,11 @@
         <v>45027</v>
       </c>
       <c r="T184" s="118" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="U184" s="119"/>
       <c r="V184" s="120" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="W184" s="131" t="s">
         <v>41</v>
@@ -23824,7 +23863,7 @@
         <v>2000</v>
       </c>
       <c r="G185" s="52" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H185" s="39" t="s">
         <v>21</v>
@@ -23967,14 +24006,14 @@
         <v>45027</v>
       </c>
       <c r="T188" s="413" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="U188" s="461"/>
       <c r="V188" s="464" t="s">
         <v>33</v>
       </c>
       <c r="W188" s="416" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -24072,10 +24111,10 @@
         <v>1400046</v>
       </c>
       <c r="C192" s="782" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D192" s="782" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="E192" s="430">
         <v>5450087</v>
@@ -24084,7 +24123,7 @@
         <v>1</v>
       </c>
       <c r="G192" s="52" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="H192" s="39">
         <v>1010005</v>
@@ -24120,7 +24159,7 @@
         <v>33</v>
       </c>
       <c r="W192" s="769" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -24188,17 +24227,17 @@
         <v>1400047</v>
       </c>
       <c r="C195" s="43" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D195" s="43" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E195" s="43">
         <v>5450088</v>
       </c>
       <c r="F195" s="43"/>
       <c r="G195" s="43" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H195" s="43">
         <v>2910</v>
@@ -24227,16 +24266,16 @@
         <v>45027</v>
       </c>
       <c r="T195" s="48" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="U195" s="49">
         <v>200</v>
       </c>
       <c r="V195" s="50" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W195" s="136" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -24244,13 +24283,13 @@
         <v>1400077</v>
       </c>
       <c r="C196" s="782" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D196" s="430"/>
       <c r="E196" s="430"/>
       <c r="F196" s="787"/>
       <c r="G196" s="132" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H196" s="139">
         <v>5450120</v>
@@ -24260,7 +24299,7 @@
       </c>
       <c r="J196" s="225"/>
       <c r="K196" s="52" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L196" s="52">
         <v>5200001</v>
@@ -24287,13 +24326,13 @@
         <v>45020</v>
       </c>
       <c r="T196" s="765" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="U196" s="794">
         <v>80</v>
       </c>
       <c r="V196" s="798" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="W196" s="802" t="s">
         <v>41</v>
@@ -24310,7 +24349,7 @@
       <c r="I197" s="792"/>
       <c r="J197" s="226"/>
       <c r="K197" s="55" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L197" s="101">
         <v>5200002</v>
@@ -24342,7 +24381,7 @@
       <c r="I198" s="792"/>
       <c r="J198" s="226"/>
       <c r="K198" s="55" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L198" s="101">
         <v>5200003</v>
@@ -24374,7 +24413,7 @@
       <c r="I199" s="792"/>
       <c r="J199" s="226"/>
       <c r="K199" s="55" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L199" s="101">
         <v>5210001</v>
@@ -24406,7 +24445,7 @@
       <c r="I200" s="792"/>
       <c r="J200" s="226"/>
       <c r="K200" s="55" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L200" s="101">
         <v>5210002</v>
@@ -24441,7 +24480,7 @@
       <c r="I201" s="792"/>
       <c r="J201" s="226"/>
       <c r="K201" s="142" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L201" s="142">
         <v>5030007</v>
@@ -24473,7 +24512,7 @@
       <c r="I202" s="792"/>
       <c r="J202" s="226"/>
       <c r="K202" s="105" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L202" s="101">
         <v>5210003</v>
@@ -24505,7 +24544,7 @@
       <c r="I203" s="793"/>
       <c r="J203" s="227"/>
       <c r="K203" s="57" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L203" s="134">
         <v>5220004</v>
